--- a/ARG_COMPARISON_EXCEL/ARGS_post_order/TVbooks_tv.xlsx
+++ b/ARG_COMPARISON_EXCEL/ARGS_post_order/TVbooks_tv.xlsx
@@ -33,7 +33,7 @@
     <t>0,1</t>
   </si>
   <si>
-    <t>135,0.0,10.94,0.0,0.29,27.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,131,0.0,8.97,0.0,0.07,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>24.0,5.63,0.74,0.52,1.43,0.0,10.94,0.0,0.29,27.0,0,0,0.0,0.0,0.0,0.46,0.08,0.13,0.04,0.04,0.04,0.0,0.0,0.0,0.0,1.82,14.0,4.68,0.86,1.03,0.84,0.0,8.97,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.29,0.04,0.25,0.07,0.07,0.14,0.0,0.0,0.0,0.0,3.0</t>
   </si>
   <si>
     <t>arg479199</t>
@@ -45,7 +45,7 @@
     <t>1,0</t>
   </si>
   <si>
-    <t>319,1.0,14.29,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.3,0.3,0.0,0.0,121,0.0,16.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>19.33,5.5,1.79,1.55,1.16,1.0,14.29,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.17,0.19,0.21,0.1,0.1,0.02,0.07,0.0,0.0,0.0,4.29,21.0,5.76,0.65,0.52,1.26,0.0,16.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.19,0.0,0.0,0.05,0.14,0.13,0.0,0.0,4.22</t>
   </si>
   <si>
     <t>arg640285</t>
@@ -54,7 +54,7 @@
     <t>arg585674</t>
   </si>
   <si>
-    <t>60,0.0,8.19,0.0,0.09,4.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0</t>
+    <t>11.0,5.45,0.34,0.52,0.66,0.0,8.19,0.0,0.09,4.0,0,0,0.0,0.0,0.0,0.18,0.18,0.36,0.09,0.09,0.0,0.0,0.0,0.0,0.0,7.25,9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23</t>
   </si>
   <si>
     <t>arg561428</t>
@@ -63,7 +63,7 @@
     <t>arg135689</t>
   </si>
   <si>
-    <t>149,0.67,11.77,0.0,0.0,1.33,0.0,0.14,0.0,0.2,0.25,0.25,0.0,0.0,126,0.0,10.54,0.0,0.04,0.0,0.0,0.0,0.0,0.05,0.15,0.15,0.25,0.0</t>
+    <t>9.67,5.14,0.89,1.55,0.58,0.67,11.77,0.0,0.0,1.33,0,0,0.0,0.14,0.0,0.24,0.1,0.1,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.0,27.0,4.67,0.83,0.52,1.61,0.0,10.54,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.22,0.0,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,3.25</t>
   </si>
   <si>
     <t>arg376788</t>
@@ -72,7 +72,7 @@
     <t>arg399270</t>
   </si>
   <si>
-    <t>432,1.0,141.11,1.0,0.63,0.0,0.0,0.25,0.0,0.05,0.05,0.05,0.0,0.0,239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0</t>
+    <t>16.0,27.0,0.49,0.52,0.96,1.0,141.11,1.0,0.63,0.0,0,0,0.0,0.25,0.0,0.56,0.06,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,0.5,9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08</t>
   </si>
   <si>
     <t>happening a</t>
@@ -141,7 +141,7 @@
     <t>arg470033</t>
   </si>
   <si>
-    <t>71,1.0,9.67,1.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17</t>
+    <t>15.0,4.73,0.46,0.52,0.9,1.0,9.67,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.27,0.0,0.0,0.0,0.0,5.0,15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82</t>
   </si>
   <si>
     <t>books. &lt;br/&gt;</t>
@@ -207,13 +207,13 @@
     <t>arg637551</t>
   </si>
   <si>
-    <t>72,0.0,13.57,0.0,0.08,1.0,0.0,0.08,0.0,0.1,0.1,0.1,0.0,0.0,147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17</t>
+    <t>6.0,6.0,0.37,1.03,0.36,0.0,13.57,0.0,0.08,1.0,0,0,0.0,0.08,0.0,0.42,0.08,0.25,0.0,0.0,0.0,0.08,0.13,0.0,0.0,1.0,29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5</t>
   </si>
   <si>
     <t>arg391600</t>
   </si>
   <si>
-    <t>65,0.0,9.65,0.0,0.08,1.5,0.0,0.33,0.0,0.15,0.2,0.2,0.08,0.17,121,0.0,16.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>6.0,5.42,0.37,1.03,0.36,0.0,9.65,0.0,0.08,1.5,0,0,0.0,0.33,0.0,0.33,0.08,0.17,0.0,0.0,0.0,0.0,0.0,0.17,0.17,8.33,21.0,5.76,0.65,0.52,1.26,0.0,16.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.19,0.0,0.0,0.05,0.14,0.13,0.0,0.0,4.22</t>
   </si>
   <si>
     <t>arg618914</t>
@@ -222,10 +222,10 @@
     <t>arg246025</t>
   </si>
   <si>
-    <t>389,0.33,11.81,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.35,0.35,0.0,0.0,85,2.0,9.78,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17,121,0.0,16.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>7.78,5.56,2.16,4.64,0.47,0.33,11.81,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.19,0.03,0.24,0.03,0.03,0.07,0.04,0.0,0.0,0.0,4.7,17.0,5.0,0.52,0.52,1.02,2.0,9.78,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.29,0.12,0.06,0.06,0.0,0.06,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82,21.0,5.76,0.65,0.52,1.26,0.0,16.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.19,0.0,0.0,0.05,0.14,0.13,0.0,0.0,4.22</t>
   </si>
   <si>
     <t>what he had</t>
@@ -282,16 +282,16 @@
     <t>arg243908</t>
   </si>
   <si>
-    <t>72,0.0,13.57,0.0,0.08,1.0,0.0,0.08,0.0,0.1,0.1,0.1,0.0,0.0,357,0.0,11.94,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.3,0.08,0.0</t>
+    <t>6.0,6.0,0.37,1.03,0.36,0.0,13.57,0.0,0.08,1.0,0,0,0.0,0.08,0.0,0.42,0.08,0.25,0.0,0.0,0.0,0.08,0.13,0.0,0.0,1.0,13.6,5.25,2.09,2.58,0.81,0.0,11.94,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.29,0.1,0.1,0.06,0.01,0.0,0.0,0.0,5.06</t>
   </si>
   <si>
     <t>arg169089</t>
   </si>
   <si>
-    <t>65,0.0,9.65,0.0,0.08,1.5,0.0,0.33,0.0,0.15,0.2,0.2,0.08,0.17,68,1.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17,149,0.67,11.77,0.0,0.0,1.33,0.0,0.14,0.0,0.2,0.25,0.25,0.0,0.0</t>
+    <t>6.0,5.42,0.37,1.03,0.36,0.0,9.65,0.0,0.08,1.5,0,0,0.0,0.33,0.0,0.33,0.08,0.17,0.0,0.0,0.0,0.0,0.0,0.17,0.17,8.33,13.0,5.23,0.4,0.52,0.78,1.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.15,0.31,0.08,0.08,0.08,0.0,0.0,0.0,0.0,9.8</t>
+  </si>
+  <si>
+    <t>15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82,9.67,5.14,0.89,1.55,0.58,0.67,11.77,0.0,0.0,1.33,0,0,0.0,0.14,0.0,0.24,0.1,0.1,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.0</t>
   </si>
   <si>
     <t>TV ,,!! because you can get i</t>
@@ -330,10 +330,10 @@
     <t>arg136713</t>
   </si>
   <si>
-    <t>311,1.0,16.22,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.3,0.35,0.0,0.0,79,0.0,4.55,0.0,0.0,3.33,0.0,0.47,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17,135,0.0,10.94,0.0,0.29,27.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>56.0,5.55,1.72,0.52,3.35,1.0,16.22,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.11,0.21,0.05,0.05,0.13,0.04,0.13,0.0,0.0,4.79,5.0,5.27,0.46,1.55,0.3,0.0,4.55,0.0,0.0,3.33,0,0,0.0,0.47,0.0,0.4,0.07,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,4.2</t>
+  </si>
+  <si>
+    <t>29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5,24.0,5.63,0.74,0.52,1.43,0.0,10.94,0.0,0.29,27.0,0,0,0.0,0.0,0.0,0.46,0.08,0.13,0.04,0.04,0.04,0.0,0.0,0.0,0.0,1.82</t>
   </si>
   <si>
     <t>arg525686</t>
@@ -342,10 +342,10 @@
     <t>arg420288</t>
   </si>
   <si>
-    <t>85,0.0,9.51,0.0,0.62,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,169,1.0,11.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.08,0.17</t>
-  </si>
-  <si>
-    <t>586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17,85,2.0,9.78,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.1,0.0,0.0</t>
+    <t>13.0,6.54,0.4,0.52,0.78,0.0,9.51,0.0,0.62,0.0,7,0,0.0,0.0,0.0,0.54,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.86,35.0,4.83,1.08,0.52,2.09,1.0,11.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.17,0.09,0.09,0.06,0.06,0.13,0.17,0.17,2.92</t>
+  </si>
+  <si>
+    <t>15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82,17.0,5.0,0.52,0.52,1.02,2.0,9.78,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.29,0.12,0.06,0.06,0.0,0.06,0.0,0.0,0.0,5.29</t>
   </si>
   <si>
     <t>tv because only tv can bring</t>
@@ -381,7 +381,7 @@
     <t>arg376774</t>
   </si>
   <si>
-    <t>77,1.0,12.02,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.08,0.0,586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17</t>
+    <t>15.0,5.13,0.46,0.52,0.9,1.0,12.02,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.13,0.13,0.07,0.0,0.0,0.0,0.0,1.6,15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82</t>
   </si>
   <si>
     <t>ding of book</t>
@@ -426,13 +426,13 @@
     <t>ched.</t>
   </si>
   <si>
-    <t>319,1.0,14.29,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.3,0.3,0.0,0.0,77,1.0,12.02,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.08,0.0</t>
+    <t>19.33,5.5,1.79,1.55,1.16,1.0,14.29,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.17,0.19,0.21,0.1,0.1,0.02,0.07,0.0,0.0,0.0,4.29,15.0,5.13,0.46,0.52,0.9,1.0,12.02,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.13,0.13,0.07,0.0,0.0,0.0,0.0,1.6</t>
   </si>
   <si>
     <t>arg218504</t>
   </si>
   <si>
-    <t>166,0.5,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17</t>
+    <t>16.5,5.03,1.02,1.03,0.99,0.5,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.27,0.03,0.03,0.21,0.06,0.13,0.0,0.0,3.43,15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82</t>
   </si>
   <si>
     <t>, we should</t>
@@ -495,10 +495,10 @@
     <t>arg135777</t>
   </si>
   <si>
-    <t>357,0.0,11.94,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.3,0.08,0.0,118,0.5,11.03,0.0,0.0,1.5,0.0,0.04,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>432,1.0,141.11,1.0,0.63,0.0,0.0,0.25,0.0,0.05,0.05,0.05,0.0,0.0,169,1.0,11.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.08,0.17</t>
+    <t>13.6,5.25,2.09,2.58,0.81,0.0,11.94,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.29,0.1,0.1,0.06,0.01,0.0,0.0,0.0,5.06,11.5,5.13,0.71,1.03,0.69,0.5,11.03,0.0,0.0,1.5,0,0,0.0,0.04,0.0,0.22,0.04,0.26,0.0,0.0,0.09,0.0,0.0,0.0,0.0,6.67</t>
+  </si>
+  <si>
+    <t>16.0,27.0,0.49,0.52,0.96,1.0,141.11,1.0,0.63,0.0,0,0,0.0,0.25,0.0,0.56,0.06,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,0.5,35.0,4.83,1.08,0.52,2.09,1.0,11.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.17,0.09,0.09,0.06,0.06,0.13,0.17,0.17,2.92</t>
   </si>
   <si>
     <t>incontinent</t>
@@ -540,7 +540,7 @@
     <t>arg420291</t>
   </si>
   <si>
-    <t>586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17,343,0.0,10.01,0.0,0.01,0.0,0.0,0.0,0.0,0.25,0.25,0.2,0.17,0.33</t>
+    <t>15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82,77.0,4.45,2.37,0.52,4.6,0.0,10.01,0.0,0.01,0.0,0,0,0.0,0.0,0.0,0.23,0.1,0.19,0.01,0.01,0.17,0.0,0.0,0.33,0.33,2.42</t>
   </si>
   <si>
     <t>I like tv tv is cool and tv i</t>
@@ -576,37 +576,37 @@
     <t>arg399268</t>
   </si>
   <si>
-    <t>98,0.0,9.39,0.0,0.14,1.0,0.0,0.05,0.0,0.1,0.1,0.1,0.0,0.0,311,1.0,16.22,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.3,0.35,0.0,0.0</t>
+    <t>21.0,4.67,0.65,0.52,1.26,0.0,9.39,0.0,0.14,1.0,0,0,0.0,0.05,6.67,0.24,0.0,0.14,0.05,0.05,0.19,0.0,0.0,0.0,0.0,3.6,56.0,5.55,1.72,0.52,3.35,1.0,16.22,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.11,0.21,0.05,0.05,0.13,0.04,0.13,0.0,0.0,4.79</t>
   </si>
   <si>
     <t>arg135683</t>
   </si>
   <si>
-    <t>133,0.5,10.76,0.0,0.16,1.0,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0,79,0.0,4.55,0.0,0.0,3.33,0.0,0.47,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>12.5,5.32,0.77,1.03,0.75,0.5,10.76,0.0,0.16,1.0,0,0,0.0,0.04,6.67,0.32,0.04,0.16,0.04,0.04,0.12,0.0,0.0,0.0,0.0,0.88,5.0,5.27,0.46,1.55,0.3,0.0,4.55,0.0,0.0,3.33,0,0,0.0,0.47,0.0,0.4,0.07,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,4.2</t>
   </si>
   <si>
     <t>arg624272</t>
   </si>
   <si>
-    <t>140,0.5,17.59,0.0,0.0,1.0,0.0,0.09,0.0,0.1,0.15,0.2,0.0,0.0,135,0.0,10.94,0.0,0.29,27.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>11.0,6.36,0.68,1.03,0.66,0.5,17.59,0.0,0.0,1.0,0,0,0.0,0.09,0.0,0.27,0.09,0.14,0.0,0.0,0.09,0.09,0.25,0.0,0.0,3.8,24.0,5.63,0.74,0.52,1.43,0.0,10.94,0.0,0.29,27.0,0,0,0.0,0.0,0.0,0.46,0.08,0.13,0.04,0.04,0.04,0.0,0.0,0.0,0.0,1.82</t>
   </si>
   <si>
     <t>arg135741</t>
   </si>
   <si>
-    <t>197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0,319,1.0,14.29,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,0.5,17.59,0.0,0.0,1.0,0.0,0.09,0.0,0.1,0.15,0.2,0.0,0.0,79,0.0,4.55,0.0,0.0,3.33,0.0,0.47,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>7.8,5.05,1.2,2.58,0.47,0.0,8.6,0.0,0.0,2.0,0,0,0.0,0.23,0.0,0.31,0.03,0.23,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.36,19.33,5.5,1.79,1.55,1.16,1.0,14.29,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.17,0.19,0.21,0.1,0.1,0.02,0.07,0.0,0.0,0.0,4.29</t>
+  </si>
+  <si>
+    <t>11.0,6.36,0.68,1.03,0.66,0.5,17.59,0.0,0.0,1.0,0,0,0.0,0.09,0.0,0.27,0.09,0.14,0.0,0.0,0.09,0.09,0.25,0.0,0.0,3.8,5.0,5.27,0.46,1.55,0.3,0.0,4.55,0.0,0.0,3.33,0,0,0.0,0.47,0.0,0.4,0.07,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,4.2</t>
   </si>
   <si>
     <t>arg399267</t>
   </si>
   <si>
-    <t>251,3.0,14.85,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.25,0.25,0.08,0.0,60,0.0,8.19,0.0,0.09,4.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,0.5,11.03,0.0,0.0,1.5,0.0,0.04,0.0,0.15,0.15,0.15,0.0,0.0,586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17</t>
+    <t>47.0,5.34,1.45,0.52,2.81,3.0,14.85,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.23,0.09,0.17,0.09,0.09,0.09,0.04,0.0,0.0,0.0,4.18,11.0,5.45,0.34,0.52,0.66,0.0,8.19,0.0,0.09,4.0,0,0,0.0,0.0,0.0,0.18,0.18,0.36,0.09,0.09,0.0,0.0,0.0,0.0,0.0,7.25</t>
+  </si>
+  <si>
+    <t>11.5,5.13,0.71,1.03,0.69,0.5,11.03,0.0,0.0,1.5,0,0,0.0,0.04,0.0,0.22,0.04,0.26,0.0,0.0,0.09,0.0,0.0,0.0,0.0,6.67,15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82</t>
   </si>
   <si>
     <t>xcess of eve</t>
@@ -663,13 +663,13 @@
     <t>and 50% of what he had listened and watched.</t>
   </si>
   <si>
-    <t>149,0.67,11.77,0.0,0.0,1.33,0.0,0.14,0.0,0.2,0.25,0.25,0.0,0.0,71,1.0,9.67,1.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>65,0.0,9.65,0.0,0.08,1.5,0.0,0.33,0.0,0.15,0.2,0.2,0.08,0.17,140,0.5,17.59,0.0,0.0,1.0,0.0,0.09,0.0,0.1,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>432,1.0,141.11,1.0,0.63,0.0,0.0,0.25,0.0,0.05,0.05,0.05,0.0,0.0,317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0</t>
+    <t>9.67,5.14,0.89,1.55,0.58,0.67,11.77,0.0,0.0,1.33,0,0,0.0,0.14,0.0,0.24,0.1,0.1,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.0,15.0,4.73,0.46,0.52,0.9,1.0,9.67,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.27,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>6.0,5.42,0.37,1.03,0.36,0.0,9.65,0.0,0.08,1.5,0,0,0.0,0.33,0.0,0.33,0.08,0.17,0.0,0.0,0.0,0.0,0.0,0.17,0.17,8.33,11.0,6.36,0.68,1.03,0.66,0.5,17.59,0.0,0.0,1.0,0,0,0.0,0.09,0.0,0.27,0.09,0.14,0.0,0.0,0.09,0.09,0.25,0.0,0.0,3.8</t>
+  </si>
+  <si>
+    <t>16.0,27.0,0.49,0.52,0.96,1.0,141.11,1.0,0.63,0.0,0,0,0.0,0.25,0.0,0.56,0.06,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,0.5,9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23</t>
   </si>
   <si>
     <t>agine just r</t>
@@ -732,19 +732,19 @@
     <t>ore powerful and immediate on TV. &lt;br/&gt; Books take too much time. TV gives the info much faster.</t>
   </si>
   <si>
-    <t>131,0.0,8.97,0.0,0.07,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0,319,1.0,14.29,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.3,0.3,0.0,0.0</t>
+    <t>14.0,4.68,0.86,1.03,0.84,0.0,8.97,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.29,0.04,0.25,0.07,0.07,0.14,0.0,0.0,0.0,0.0,3.0,19.33,5.5,1.79,1.55,1.16,1.0,14.29,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.17,0.19,0.21,0.1,0.1,0.02,0.07,0.0,0.0,0.0,4.29</t>
   </si>
   <si>
     <t>arg135675</t>
   </si>
   <si>
-    <t>251,3.0,14.85,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.25,0.25,0.08,0.0,71,1.0,9.67,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,0.5,17.59,0.0,0.0,1.0,0.0,0.09,0.0,0.1,0.15,0.2,0.0,0.0,131,0.0,8.97,0.0,0.07,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17,60,0.0,8.19,0.0,0.09,4.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>47.0,5.34,1.45,0.52,2.81,3.0,14.85,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.23,0.09,0.17,0.09,0.09,0.09,0.04,0.0,0.0,0.0,4.18,15.0,4.73,0.46,0.52,0.9,1.0,9.67,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.07,0.27,0.07,0.07,0.13,0.0,0.0,0.0,0.0,5.6</t>
+  </si>
+  <si>
+    <t>11.0,6.36,0.68,1.03,0.66,0.5,17.59,0.0,0.0,1.0,0,0,0.0,0.09,0.0,0.27,0.09,0.14,0.0,0.0,0.09,0.09,0.25,0.0,0.0,3.8,14.0,4.68,0.86,1.03,0.84,0.0,8.97,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.29,0.04,0.25,0.07,0.07,0.14,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82,11.0,5.45,0.34,0.52,0.66,0.0,8.19,0.0,0.09,4.0,0,0,0.0,0.0,0.0,0.18,0.18,0.36,0.09,0.09,0.0,0.0,0.0,0.0,0.0,7.25</t>
   </si>
   <si>
     <t>i believe books are better(i</t>
@@ -765,10 +765,10 @@
     <t>ue</t>
   </si>
   <si>
-    <t>72,0.0,13.57,0.0,0.08,1.0,0.0,0.08,0.0,0.1,0.1,0.1,0.0,0.0,311,1.0,16.22,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17,432,1.0,141.11,1.0,0.63,0.0,0.0,0.25,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>6.0,6.0,0.37,1.03,0.36,0.0,13.57,0.0,0.08,1.0,0,0,0.0,0.08,0.0,0.42,0.08,0.25,0.0,0.0,0.0,0.08,0.13,0.0,0.0,1.0,56.0,5.55,1.72,0.52,3.35,1.0,16.22,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.11,0.21,0.05,0.05,0.13,0.04,0.13,0.0,0.0,4.79</t>
+  </si>
+  <si>
+    <t>15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82,16.0,27.0,0.49,0.52,0.96,1.0,141.11,1.0,0.63,0.0,0,0,0.0,0.25,0.0,0.56,0.06,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,0.5</t>
   </si>
   <si>
     <t>BOOKZ SUCK BECAUSE it iz hard</t>
@@ -801,76 +801,76 @@
     <t>lollollollollol lollollollollollollollollollollollollollollollol lollollollollollollollollollollollollollollollol lollollollollollollollollollollollollollollollol lollollollollollollollollollollollollollollollol lollollollollollollollollollollollollollollollol lollollollollollollollollollollollollollollollol lollollollollollollollollollollollollollollollol</t>
   </si>
   <si>
-    <t>85,0.0,9.51,0.0,0.62,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,319,1.0,14.29,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>135,0.0,10.94,0.0,0.29,27.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,251,3.0,14.85,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.25,0.25,0.08,0.0</t>
-  </si>
-  <si>
-    <t>118,0.5,11.03,0.0,0.0,1.5,0.0,0.04,0.0,0.15,0.15,0.15,0.0,0.0,251,3.0,14.85,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.25,0.25,0.08,0.0</t>
-  </si>
-  <si>
-    <t>77,1.0,12.02,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.08,0.0,311,1.0,16.22,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>79,0.0,4.55,0.0,0.0,3.33,0.0,0.47,0.0,0.1,0.1,0.1,0.0,0.0,319,1.0,14.29,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.3,0.3,0.0,0.0</t>
+    <t>13.0,6.54,0.4,0.52,0.78,0.0,9.51,0.0,0.62,0.0,7,0,0.0,0.0,0.0,0.54,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.86,19.33,5.5,1.79,1.55,1.16,1.0,14.29,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.17,0.19,0.21,0.1,0.1,0.02,0.07,0.0,0.0,0.0,4.29</t>
+  </si>
+  <si>
+    <t>24.0,5.63,0.74,0.52,1.43,0.0,10.94,0.0,0.29,27.0,0,0,0.0,0.0,0.0,0.46,0.08,0.13,0.04,0.04,0.04,0.0,0.0,0.0,0.0,1.82,47.0,5.34,1.45,0.52,2.81,3.0,14.85,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.23,0.09,0.17,0.09,0.09,0.09,0.04,0.0,0.0,0.0,4.18</t>
+  </si>
+  <si>
+    <t>11.5,5.13,0.71,1.03,0.69,0.5,11.03,0.0,0.0,1.5,0,0,0.0,0.04,0.0,0.22,0.04,0.26,0.0,0.0,0.09,0.0,0.0,0.0,0.0,6.67,47.0,5.34,1.45,0.52,2.81,3.0,14.85,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.23,0.09,0.17,0.09,0.09,0.09,0.04,0.0,0.0,0.0,4.18</t>
+  </si>
+  <si>
+    <t>15.0,5.13,0.46,0.52,0.9,1.0,12.02,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.13,0.13,0.07,0.0,0.0,0.0,0.0,1.6,56.0,5.55,1.72,0.52,3.35,1.0,16.22,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.11,0.21,0.05,0.05,0.13,0.04,0.13,0.0,0.0,4.79</t>
+  </si>
+  <si>
+    <t>5.0,5.27,0.46,1.55,0.3,0.0,4.55,0.0,0.0,3.33,0,0,0.0,0.47,0.0,0.4,0.07,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,4.2,19.33,5.5,1.79,1.55,1.16,1.0,14.29,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.17,0.19,0.21,0.1,0.1,0.02,0.07,0.0,0.0,0.0,4.29</t>
   </si>
   <si>
     <t>arg624528</t>
   </si>
   <si>
-    <t>319,1.0,14.29,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.3,0.3,0.0,0.0,78,2.0,13.59,0.0,0.0,0.0,0.0,0.07,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>71,1.0,9.67,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.15,0.15,0.0,0.0,432,1.0,141.11,1.0,0.63,0.0,0.0,0.25,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,0.5,17.59,0.0,0.0,1.0,0.0,0.09,0.0,0.1,0.15,0.2,0.0,0.0,166,0.5,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>169,1.0,11.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.08,0.17,319,1.0,14.29,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>251,3.0,14.85,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.25,0.25,0.08,0.0,131,0.0,8.97,0.0,0.07,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>19.33,5.5,1.79,1.55,1.16,1.0,14.29,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.17,0.19,0.21,0.1,0.1,0.02,0.07,0.0,0.0,0.0,4.29,15.0,5.2,0.46,0.52,0.9,2.0,13.59,0.0,0.0,0.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.07,0.07,0.13,0.07,0.13,0.0,0.0,6.75</t>
+  </si>
+  <si>
+    <t>15.0,4.73,0.46,0.52,0.9,1.0,9.67,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.07,0.27,0.07,0.07,0.13,0.0,0.0,0.0,0.0,5.6,16.0,27.0,0.49,0.52,0.96,1.0,141.11,1.0,0.63,0.0,0,0,0.0,0.25,0.0,0.56,0.06,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,0.5</t>
+  </si>
+  <si>
+    <t>11.0,6.36,0.68,1.03,0.66,0.5,17.59,0.0,0.0,1.0,0,0,0.0,0.09,0.0,0.27,0.09,0.14,0.0,0.0,0.09,0.09,0.25,0.0,0.0,3.8,16.5,5.03,1.02,1.03,0.99,0.5,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.27,0.03,0.03,0.21,0.06,0.13,0.0,0.0,3.43</t>
+  </si>
+  <si>
+    <t>35.0,4.83,1.08,0.52,2.09,1.0,11.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.17,0.09,0.09,0.06,0.06,0.13,0.17,0.17,2.92,19.33,5.5,1.79,1.55,1.16,1.0,14.29,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.17,0.19,0.21,0.1,0.1,0.02,0.07,0.0,0.0,0.0,4.29</t>
+  </si>
+  <si>
+    <t>47.0,5.34,1.45,0.52,2.81,3.0,14.85,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.23,0.09,0.17,0.09,0.09,0.09,0.04,0.0,0.0,0.0,4.18,14.0,4.68,0.86,1.03,0.84,0.0,8.97,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.29,0.04,0.25,0.07,0.07,0.14,0.0,0.0,0.0,0.0,3.0</t>
   </si>
   <si>
     <t>arg624244</t>
   </si>
   <si>
-    <t>174,0.0,20.48,0.0,0.0,1.67,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,85,0.0,9.51,0.0,0.62,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0,65,0.0,9.65,0.0,0.08,1.5,0.0,0.33,0.0,0.15,0.2,0.2,0.08,0.17</t>
-  </si>
-  <si>
-    <t>85,2.0,9.78,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.1,0.0,0.0,65,0.0,9.65,0.0,0.08,1.5,0.0,0.33,0.0,0.15,0.2,0.2,0.08,0.17</t>
-  </si>
-  <si>
-    <t>317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0,131,0.0,8.97,0.0,0.07,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>251,3.0,14.85,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.25,0.25,0.08,0.0,72,0.0,13.57,0.0,0.08,1.0,0.0,0.08,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.0,16.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,85,0.0,9.51,0.0,0.62,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,0.0,20.48,0.0,0.0,1.67,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,0.5,11.03,0.0,0.0,1.5,0.0,0.04,0.0,0.15,0.15,0.15,0.0,0.0,239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>78,2.0,13.59,0.0,0.0,0.0,0.0,0.07,0.0,0.05,0.1,0.1,0.0,0.0,317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>77,1.0,12.02,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.08,0.0,85,0.0,9.51,0.0,0.62,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>71,1.0,9.67,1.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,140,0.5,17.59,0.0,0.0,1.0,0.0,0.09,0.0,0.1,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17,147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17</t>
+    <t>8.0,7.25,0.74,1.55,0.48,0.0,20.48,0.0,0.0,1.67,0,0,0.0,0.0,0.0,0.33,0.13,0.21,0.0,0.0,0.13,0.13,0.0,0.0,0.0,0.33,13.0,6.54,0.4,0.52,0.78,0.0,9.51,0.0,0.62,0.0,7,0,0.0,0.0,0.0,0.54,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.86</t>
+  </si>
+  <si>
+    <t>9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08,6.0,5.42,0.37,1.03,0.36,0.0,9.65,0.0,0.08,1.5,0,0,0.0,0.33,0.0,0.33,0.08,0.17,0.0,0.0,0.0,0.0,0.0,0.17,0.17,8.33</t>
+  </si>
+  <si>
+    <t>17.0,5.0,0.52,0.52,1.02,2.0,9.78,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.29,0.12,0.06,0.06,0.0,0.06,0.0,0.0,0.0,5.29,6.0,5.42,0.37,1.03,0.36,0.0,9.65,0.0,0.08,1.5,0,0,0.0,0.33,0.0,0.33,0.08,0.17,0.0,0.0,0.0,0.0,0.0,0.17,0.17,8.33</t>
+  </si>
+  <si>
+    <t>9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23,14.0,4.68,0.86,1.03,0.84,0.0,8.97,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.29,0.04,0.25,0.07,0.07,0.14,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>47.0,5.34,1.45,0.52,2.81,3.0,14.85,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.23,0.09,0.17,0.09,0.09,0.09,0.04,0.0,0.0,0.0,4.18,6.0,6.0,0.37,1.03,0.36,0.0,13.57,0.0,0.08,1.0,0,0,0.0,0.08,0.0,0.42,0.08,0.25,0.0,0.0,0.0,0.08,0.13,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>21.0,5.76,0.65,0.52,1.26,0.0,16.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.19,0.0,0.0,0.05,0.14,0.13,0.0,0.0,4.22,13.0,6.54,0.4,0.52,0.78,0.0,9.51,0.0,0.62,0.0,7,0,0.0,0.0,0.0,0.54,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.86</t>
+  </si>
+  <si>
+    <t>8.0,7.25,0.74,1.55,0.48,0.0,20.48,0.0,0.0,1.67,0,0,0.0,0.0,0.0,0.33,0.13,0.21,0.0,0.0,0.13,0.13,0.0,0.0,0.0,0.33,9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23</t>
+  </si>
+  <si>
+    <t>11.5,5.13,0.71,1.03,0.69,0.5,11.03,0.0,0.0,1.5,0,0,0.0,0.04,0.0,0.22,0.04,0.26,0.0,0.0,0.09,0.0,0.0,0.0,0.0,6.67,9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08</t>
+  </si>
+  <si>
+    <t>15.0,5.2,0.46,0.52,0.9,2.0,13.59,0.0,0.0,0.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.07,0.07,0.13,0.07,0.13,0.0,0.0,6.75,9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23</t>
+  </si>
+  <si>
+    <t>15.0,5.13,0.46,0.52,0.9,1.0,12.02,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.13,0.13,0.07,0.0,0.0,0.0,0.0,1.6,13.0,6.54,0.4,0.52,0.78,0.0,9.51,0.0,0.62,0.0,7,0,0.0,0.0,0.0,0.54,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.86</t>
+  </si>
+  <si>
+    <t>15.0,4.73,0.46,0.52,0.9,1.0,9.67,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.27,0.0,0.0,0.0,0.0,5.0,11.0,6.36,0.68,1.03,0.66,0.5,17.59,0.0,0.0,1.0,0,0,0.0,0.09,0.0,0.27,0.09,0.14,0.0,0.0,0.09,0.09,0.25,0.0,0.0,3.8</t>
+  </si>
+  <si>
+    <t>15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82,29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5</t>
   </si>
   <si>
     <t>TV can be better than books b</t>
@@ -900,10 +900,10 @@
     <t>the action can be displayed that is hard for one to decipher from a book.</t>
   </si>
   <si>
-    <t>319,1.0,14.29,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.3,0.3,0.0,0.0,118,0.5,11.03,0.0,0.0,1.5,0.0,0.04,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>432,1.0,141.11,1.0,0.63,0.0,0.0,0.25,0.0,0.05,0.05,0.05,0.0,0.0,311,1.0,16.22,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.3,0.35,0.0,0.0</t>
+    <t>19.33,5.5,1.79,1.55,1.16,1.0,14.29,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.17,0.19,0.21,0.1,0.1,0.02,0.07,0.0,0.0,0.0,4.29,11.5,5.13,0.71,1.03,0.69,0.5,11.03,0.0,0.0,1.5,0,0,0.0,0.04,0.0,0.22,0.04,0.26,0.0,0.0,0.09,0.0,0.0,0.0,0.0,6.67</t>
+  </si>
+  <si>
+    <t>16.0,27.0,0.49,0.52,0.96,1.0,141.11,1.0,0.63,0.0,0,0,0.0,0.25,0.0,0.56,0.06,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,0.5,56.0,5.55,1.72,0.52,3.35,1.0,16.22,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.11,0.21,0.05,0.05,0.13,0.04,0.13,0.0,0.0,4.79</t>
   </si>
   <si>
     <t>ooks because</t>
@@ -963,16 +963,16 @@
     <t>ing and ready to relax you can switch to a funny show or what ever you want to watch.</t>
   </si>
   <si>
-    <t>133,0.5,10.76,0.0,0.16,1.0,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0,311,1.0,16.22,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0,166,0.5,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0,79,0.0,4.55,0.0,0.0,3.33,0.0,0.47,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>343,0.0,10.01,0.0,0.01,0.0,0.0,0.0,0.0,0.25,0.25,0.2,0.17,0.33,317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0</t>
+    <t>12.5,5.32,0.77,1.03,0.75,0.5,10.76,0.0,0.16,1.0,0,0,0.0,0.04,6.67,0.32,0.04,0.16,0.04,0.04,0.12,0.0,0.0,0.0,0.0,0.88,56.0,5.55,1.72,0.52,3.35,1.0,16.22,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.11,0.21,0.05,0.05,0.13,0.04,0.13,0.0,0.0,4.79</t>
+  </si>
+  <si>
+    <t>9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08,16.5,5.03,1.02,1.03,0.99,0.5,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.27,0.03,0.03,0.21,0.06,0.13,0.0,0.0,3.43</t>
+  </si>
+  <si>
+    <t>9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08,5.0,5.27,0.46,1.55,0.3,0.0,4.55,0.0,0.0,3.33,0,0,0.0,0.47,0.0,0.4,0.07,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,4.2</t>
+  </si>
+  <si>
+    <t>77.0,4.45,2.37,0.52,4.6,0.0,10.01,0.0,0.01,0.0,0,0,0.0,0.0,0.0,0.23,0.1,0.19,0.01,0.01,0.17,0.0,0.0,0.33,0.33,2.42,9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23</t>
   </si>
   <si>
     <t>seeing inte</t>
@@ -1032,28 +1032,28 @@
     <t>er.</t>
   </si>
   <si>
-    <t>174,0.0,20.48,0.0,0.0,1.67,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,79,0.0,4.55,0.0,0.0,3.33,0.0,0.47,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17,79,0.0,4.55,0.0,0.0,3.33,0.0,0.47,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0,133,0.5,10.76,0.0,0.16,1.0,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>126,0.0,10.54,0.0,0.04,0.0,0.0,0.0,0.0,0.05,0.15,0.15,0.25,0.0,317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>357,0.0,11.94,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.3,0.08,0.0,98,0.0,9.39,0.0,0.14,1.0,0.0,0.05,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0,71,1.0,9.67,1.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>60,0.0,8.19,0.0,0.09,4.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,166,0.5,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>133,0.5,10.76,0.0,0.16,1.0,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0,432,1.0,141.11,1.0,0.63,0.0,0.0,0.25,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>8.0,7.25,0.74,1.55,0.48,0.0,20.48,0.0,0.0,1.67,0,0,0.0,0.0,0.0,0.33,0.13,0.21,0.0,0.0,0.13,0.13,0.0,0.0,0.0,0.33,5.0,5.27,0.46,1.55,0.3,0.0,4.55,0.0,0.0,3.33,0,0,0.0,0.47,0.0,0.4,0.07,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,4.2</t>
+  </si>
+  <si>
+    <t>29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5,5.0,5.27,0.46,1.55,0.3,0.0,4.55,0.0,0.0,3.33,0,0,0.0,0.47,0.0,0.4,0.07,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,4.2</t>
+  </si>
+  <si>
+    <t>9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23,12.5,5.32,0.77,1.03,0.75,0.5,10.76,0.0,0.16,1.0,0,0,0.0,0.04,6.67,0.32,0.04,0.16,0.04,0.04,0.12,0.0,0.0,0.0,0.0,0.88</t>
+  </si>
+  <si>
+    <t>27.0,4.67,0.83,0.52,1.61,0.0,10.54,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.22,0.0,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,3.25,9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23</t>
+  </si>
+  <si>
+    <t>13.6,5.25,2.09,2.58,0.81,0.0,11.94,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.29,0.1,0.1,0.06,0.01,0.0,0.0,0.0,5.06,21.0,4.67,0.65,0.52,1.26,0.0,9.39,0.0,0.14,1.0,0,0,0.0,0.05,6.67,0.24,0.0,0.14,0.05,0.05,0.19,0.0,0.0,0.0,0.0,3.6</t>
+  </si>
+  <si>
+    <t>9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08,15.0,4.73,0.46,0.52,0.9,1.0,9.67,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.27,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>11.0,5.45,0.34,0.52,0.66,0.0,8.19,0.0,0.09,4.0,0,0,0.0,0.0,0.0,0.18,0.18,0.36,0.09,0.09,0.0,0.0,0.0,0.0,0.0,7.25,16.5,5.03,1.02,1.03,0.99,0.5,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.27,0.03,0.03,0.21,0.06,0.13,0.0,0.0,3.43</t>
+  </si>
+  <si>
+    <t>12.5,5.32,0.77,1.03,0.75,0.5,10.76,0.0,0.16,1.0,0,0,0.0,0.04,6.67,0.32,0.04,0.16,0.04,0.04,0.12,0.0,0.0,0.0,0.0,0.88,16.0,27.0,0.49,0.52,0.96,1.0,141.11,1.0,0.63,0.0,0,0,0.0,0.25,0.0,0.56,0.06,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,0.5</t>
   </si>
   <si>
     <t>ollollolloll</t>
@@ -1074,7 +1074,7 @@
     <t>llollol</t>
   </si>
   <si>
-    <t>586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17,174,0.0,20.48,0.0,0.0,1.67,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82,8.0,7.25,0.74,1.55,0.48,0.0,20.48,0.0,0.0,1.67,0,0,0.0,0.0,0.0,0.33,0.13,0.21,0.0,0.0,0.13,0.13,0.0,0.0,0.0,0.33</t>
   </si>
   <si>
     <t>It Improves academic skills o</t>
@@ -1104,19 +1104,19 @@
     <t>siastic and confident. &lt;br/&gt; Children improve their academics and increase their ideas and innovations!!!</t>
   </si>
   <si>
-    <t>79,0.0,4.55,0.0,0.0,3.33,0.0,0.47,0.0,0.1,0.1,0.1,0.0,0.0,149,0.67,11.77,0.0,0.0,1.33,0.0,0.14,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17,121,0.0,16.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,0.0,9.51,0.0,0.62,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,389,0.33,11.81,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>77,1.0,12.02,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.08,0.0,357,0.0,11.94,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.3,0.08,0.0</t>
-  </si>
-  <si>
-    <t>586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17,65,0.0,9.65,0.0,0.08,1.5,0.0,0.33,0.0,0.15,0.2,0.2,0.08,0.17</t>
+    <t>5.0,5.27,0.46,1.55,0.3,0.0,4.55,0.0,0.0,3.33,0,0,0.0,0.47,0.0,0.4,0.07,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,4.2,9.67,5.14,0.89,1.55,0.58,0.67,11.77,0.0,0.0,1.33,0,0,0.0,0.14,0.0,0.24,0.1,0.1,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5,21.0,5.76,0.65,0.52,1.26,0.0,16.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.19,0.0,0.0,0.05,0.14,0.13,0.0,0.0,4.22</t>
+  </si>
+  <si>
+    <t>13.0,6.54,0.4,0.52,0.78,0.0,9.51,0.0,0.62,0.0,7,0,0.0,0.0,0.0,0.54,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.86,7.78,5.56,2.16,4.64,0.47,0.33,11.81,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.19,0.03,0.24,0.03,0.03,0.07,0.04,0.0,0.0,0.0,4.7</t>
+  </si>
+  <si>
+    <t>15.0,5.13,0.46,0.52,0.9,1.0,12.02,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.13,0.13,0.07,0.0,0.0,0.0,0.0,1.6,13.6,5.25,2.09,2.58,0.81,0.0,11.94,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.29,0.1,0.1,0.06,0.01,0.0,0.0,0.0,5.06</t>
+  </si>
+  <si>
+    <t>15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82,6.0,5.42,0.37,1.03,0.36,0.0,9.65,0.0,0.08,1.5,0,0,0.0,0.33,0.0,0.33,0.08,0.17,0.0,0.0,0.0,0.0,0.0,0.17,0.17,8.33</t>
   </si>
   <si>
     <t>TV is WAY better than reading</t>
@@ -1137,7 +1137,7 @@
     <t>!!!</t>
   </si>
   <si>
-    <t>586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17,389,0.33,11.81,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82,7.78,5.56,2.16,4.64,0.47,0.33,11.81,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.19,0.03,0.24,0.03,0.03,0.07,0.04,0.0,0.0,0.0,4.7</t>
   </si>
   <si>
     <t>Unless the brain is used no h</t>
@@ -1170,7 +1170,7 @@
     <t>V or books. By watching the television people can create a make believe situation and think. "What if they would go left? They would be SAVED, wouldn't they?" Even viewing tv requires brains. And moreover we can watch television in the dark. But to read a book you need the lights on. Which also wastes electricity.</t>
   </si>
   <si>
-    <t>432,1.0,141.11,1.0,0.63,0.0,0.0,0.25,0.0,0.05,0.05,0.05,0.0,0.0,121,0.0,16.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>16.0,27.0,0.49,0.52,0.96,1.0,141.11,1.0,0.63,0.0,0,0,0.0,0.25,0.0,0.56,0.06,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,0.5,21.0,5.76,0.65,0.52,1.26,0.0,16.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.19,0.0,0.0,0.05,0.14,0.13,0.0,0.0,4.22</t>
   </si>
   <si>
     <t>more damage</t>
@@ -1191,16 +1191,16 @@
     <t>ent.</t>
   </si>
   <si>
-    <t>133,0.5,10.76,0.0,0.16,1.0,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0,140,0.5,17.59,0.0,0.0,1.0,0.0,0.09,0.0,0.1,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>60,0.0,8.19,0.0,0.09,4.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,78,2.0,13.59,0.0,0.0,0.0,0.0,0.07,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,2.0,9.78,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.1,0.0,0.0,118,0.5,11.03,0.0,0.0,1.5,0.0,0.04,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>389,0.33,11.81,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.35,0.35,0.0,0.0,319,1.0,14.29,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.3,0.3,0.0,0.0</t>
+    <t>12.5,5.32,0.77,1.03,0.75,0.5,10.76,0.0,0.16,1.0,0,0,0.0,0.04,6.67,0.32,0.04,0.16,0.04,0.04,0.12,0.0,0.0,0.0,0.0,0.88,11.0,6.36,0.68,1.03,0.66,0.5,17.59,0.0,0.0,1.0,0,0,0.0,0.09,0.0,0.27,0.09,0.14,0.0,0.0,0.09,0.09,0.25,0.0,0.0,3.8</t>
+  </si>
+  <si>
+    <t>11.0,5.45,0.34,0.52,0.66,0.0,8.19,0.0,0.09,4.0,0,0,0.0,0.0,0.0,0.18,0.18,0.36,0.09,0.09,0.0,0.0,0.0,0.0,0.0,7.25,15.0,5.2,0.46,0.52,0.9,2.0,13.59,0.0,0.0,0.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.07,0.07,0.13,0.07,0.13,0.0,0.0,6.75</t>
+  </si>
+  <si>
+    <t>17.0,5.0,0.52,0.52,1.02,2.0,9.78,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.29,0.12,0.06,0.06,0.0,0.06,0.0,0.0,0.0,5.29,11.5,5.13,0.71,1.03,0.69,0.5,11.03,0.0,0.0,1.5,0,0,0.0,0.04,0.0,0.22,0.04,0.26,0.0,0.0,0.09,0.0,0.0,0.0,0.0,6.67</t>
+  </si>
+  <si>
+    <t>7.78,5.56,2.16,4.64,0.47,0.33,11.81,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.19,0.03,0.24,0.03,0.03,0.07,0.04,0.0,0.0,0.0,4.7,19.33,5.5,1.79,1.55,1.16,1.0,14.29,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.17,0.19,0.21,0.1,0.1,0.02,0.07,0.0,0.0,0.0,4.29</t>
   </si>
   <si>
     <t>r people who</t>
@@ -1266,34 +1266,34 @@
     <t>from TV can be much more accurate and useful.</t>
   </si>
   <si>
-    <t>68,1.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,311,1.0,16.22,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>77,1.0,12.02,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.08,0.0,118,0.5,11.03,0.0,0.0,1.5,0.0,0.04,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0,85,0.0,9.51,0.0,0.62,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>65,0.0,9.65,0.0,0.08,1.5,0.0,0.33,0.0,0.15,0.2,0.2,0.08,0.17,357,0.0,11.94,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.3,0.08,0.0</t>
-  </si>
-  <si>
-    <t>85,0.0,9.51,0.0,0.62,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,311,1.0,16.22,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>133,0.5,10.76,0.0,0.16,1.0,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0,85,0.0,9.51,0.0,0.62,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>149,0.67,11.77,0.0,0.0,1.33,0.0,0.14,0.0,0.2,0.25,0.25,0.0,0.0,317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,2.0,9.78,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.1,0.0,0.0,432,1.0,141.11,1.0,0.63,0.0,0.0,0.25,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>60,0.0,8.19,0.0,0.09,4.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,319,1.0,14.29,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>319,1.0,14.29,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.3,0.3,0.0,0.0,343,0.0,10.01,0.0,0.01,0.0,0.0,0.0,0.0,0.25,0.25,0.2,0.17,0.33</t>
+    <t>13.0,5.23,0.4,0.52,0.78,1.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.15,0.31,0.08,0.08,0.08,0.0,0.0,0.0,0.0,9.8,56.0,5.55,1.72,0.52,3.35,1.0,16.22,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.11,0.21,0.05,0.05,0.13,0.04,0.13,0.0,0.0,4.79</t>
+  </si>
+  <si>
+    <t>15.0,5.13,0.46,0.52,0.9,1.0,12.02,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.13,0.13,0.07,0.0,0.0,0.0,0.0,1.6,11.5,5.13,0.71,1.03,0.69,0.5,11.03,0.0,0.0,1.5,0,0,0.0,0.04,0.0,0.22,0.04,0.26,0.0,0.0,0.09,0.0,0.0,0.0,0.0,6.67</t>
+  </si>
+  <si>
+    <t>9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23,13.0,6.54,0.4,0.52,0.78,0.0,9.51,0.0,0.62,0.0,7,0,0.0,0.0,0.0,0.54,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.86</t>
+  </si>
+  <si>
+    <t>6.0,5.42,0.37,1.03,0.36,0.0,9.65,0.0,0.08,1.5,0,0,0.0,0.33,0.0,0.33,0.08,0.17,0.0,0.0,0.0,0.0,0.0,0.17,0.17,8.33,13.6,5.25,2.09,2.58,0.81,0.0,11.94,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.29,0.1,0.1,0.06,0.01,0.0,0.0,0.0,5.06</t>
+  </si>
+  <si>
+    <t>13.0,6.54,0.4,0.52,0.78,0.0,9.51,0.0,0.62,0.0,7,0,0.0,0.0,0.0,0.54,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.86,56.0,5.55,1.72,0.52,3.35,1.0,16.22,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.11,0.21,0.05,0.05,0.13,0.04,0.13,0.0,0.0,4.79</t>
+  </si>
+  <si>
+    <t>12.5,5.32,0.77,1.03,0.75,0.5,10.76,0.0,0.16,1.0,0,0,0.0,0.04,6.67,0.32,0.04,0.16,0.04,0.04,0.12,0.0,0.0,0.0,0.0,0.88,13.0,6.54,0.4,0.52,0.78,0.0,9.51,0.0,0.62,0.0,7,0,0.0,0.0,0.0,0.54,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.86</t>
+  </si>
+  <si>
+    <t>9.67,5.14,0.89,1.55,0.58,0.67,11.77,0.0,0.0,1.33,0,0,0.0,0.14,0.0,0.24,0.1,0.1,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.0,9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23</t>
+  </si>
+  <si>
+    <t>17.0,5.0,0.52,0.52,1.02,2.0,9.78,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.29,0.12,0.06,0.06,0.0,0.06,0.0,0.0,0.0,5.29,16.0,27.0,0.49,0.52,0.96,1.0,141.11,1.0,0.63,0.0,0,0,0.0,0.25,0.0,0.56,0.06,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,0.5</t>
+  </si>
+  <si>
+    <t>11.0,5.45,0.34,0.52,0.66,0.0,8.19,0.0,0.09,4.0,0,0,0.0,0.0,0.0,0.18,0.18,0.36,0.09,0.09,0.0,0.0,0.0,0.0,0.0,7.25,19.33,5.5,1.79,1.55,1.16,1.0,14.29,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.17,0.19,0.21,0.1,0.1,0.02,0.07,0.0,0.0,0.0,4.29</t>
+  </si>
+  <si>
+    <t>19.33,5.5,1.79,1.55,1.16,1.0,14.29,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.17,0.19,0.21,0.1,0.1,0.02,0.07,0.0,0.0,0.0,4.29,77.0,4.45,2.37,0.52,4.6,0.0,10.01,0.0,0.01,0.0,0,0,0.0,0.0,0.0,0.23,0.1,0.19,0.01,0.01,0.17,0.0,0.0,0.33,0.33,2.42</t>
   </si>
   <si>
     <t>r it is like</t>
@@ -1344,10 +1344,10 @@
     <t>th</t>
   </si>
   <si>
-    <t>169,1.0,11.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.08,0.17,118,0.5,11.03,0.0,0.0,1.5,0.0,0.04,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>357,0.0,11.94,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.3,0.08,0.0,343,0.0,10.01,0.0,0.01,0.0,0.0,0.0,0.0,0.25,0.25,0.2,0.17,0.33</t>
+    <t>35.0,4.83,1.08,0.52,2.09,1.0,11.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.17,0.09,0.09,0.06,0.06,0.13,0.17,0.17,2.92,11.5,5.13,0.71,1.03,0.69,0.5,11.03,0.0,0.0,1.5,0,0,0.0,0.04,0.0,0.22,0.04,0.26,0.0,0.0,0.09,0.0,0.0,0.0,0.0,6.67</t>
+  </si>
+  <si>
+    <t>13.6,5.25,2.09,2.58,0.81,0.0,11.94,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.29,0.1,0.1,0.06,0.01,0.0,0.0,0.0,5.06,77.0,4.45,2.37,0.52,4.6,0.0,10.01,0.0,0.01,0.0,0,0,0.0,0.0,0.0,0.23,0.1,0.19,0.01,0.01,0.17,0.0,0.0,0.33,0.33,2.42</t>
   </si>
   <si>
     <t>school it is</t>
@@ -1401,10 +1401,10 @@
     <t>at you realize you just wasted your time reading this</t>
   </si>
   <si>
-    <t>251,3.0,14.85,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.25,0.25,0.08,0.0,71,1.0,9.67,1.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17,432,1.0,141.11,1.0,0.63,0.0,0.0,0.25,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>47.0,5.34,1.45,0.52,2.81,3.0,14.85,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.23,0.09,0.17,0.09,0.09,0.09,0.04,0.0,0.0,0.0,4.18,15.0,4.73,0.46,0.52,0.9,1.0,9.67,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.27,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5,16.0,27.0,0.49,0.52,0.96,1.0,141.11,1.0,0.63,0.0,0,0,0.0,0.25,0.0,0.56,0.06,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,0.5</t>
   </si>
   <si>
     <t>lollol lollo</t>
@@ -1416,43 +1416,43 @@
     <t>lollollol</t>
   </si>
   <si>
-    <t>174,0.0,20.48,0.0,0.0,1.67,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,65,0.0,9.65,0.0,0.08,1.5,0.0,0.33,0.0,0.15,0.2,0.2,0.08,0.17</t>
-  </si>
-  <si>
-    <t>311,1.0,16.22,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.3,0.35,0.0,0.0,71,1.0,9.67,1.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,0.0,9.51,0.0,0.62,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,0.0,20.48,0.0,0.0,1.67,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,71,1.0,9.67,1.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0,77,1.0,12.02,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.08,0.0</t>
-  </si>
-  <si>
-    <t>166,0.5,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,251,3.0,14.85,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.25,0.25,0.08,0.0</t>
-  </si>
-  <si>
-    <t>140,0.5,17.59,0.0,0.0,1.0,0.0,0.09,0.0,0.1,0.15,0.2,0.0,0.0,85,0.0,9.51,0.0,0.62,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>78,2.0,13.59,0.0,0.0,0.0,0.0,0.07,0.0,0.05,0.1,0.1,0.0,0.0,432,1.0,141.11,1.0,0.63,0.0,0.0,0.25,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>357,0.0,11.94,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.3,0.08,0.0,71,1.0,9.67,1.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>68,1.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,319,1.0,14.29,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>72,0.0,13.57,0.0,0.08,1.0,0.0,0.08,0.0,0.1,0.1,0.1,0.0,0.0,197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,2.0,9.78,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.1,0.0,0.0,319,1.0,14.29,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17,135,0.0,10.94,0.0,0.29,27.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>8.0,7.25,0.74,1.55,0.48,0.0,20.48,0.0,0.0,1.67,0,0,0.0,0.0,0.0,0.33,0.13,0.21,0.0,0.0,0.13,0.13,0.0,0.0,0.0,0.33,6.0,5.42,0.37,1.03,0.36,0.0,9.65,0.0,0.08,1.5,0,0,0.0,0.33,0.0,0.33,0.08,0.17,0.0,0.0,0.0,0.0,0.0,0.17,0.17,8.33</t>
+  </si>
+  <si>
+    <t>56.0,5.55,1.72,0.52,3.35,1.0,16.22,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.11,0.21,0.05,0.05,0.13,0.04,0.13,0.0,0.0,4.79,15.0,4.73,0.46,0.52,0.9,1.0,9.67,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.27,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>13.0,6.54,0.4,0.52,0.78,0.0,9.51,0.0,0.62,0.0,7,0,0.0,0.0,0.0,0.54,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.86,7.8,5.05,1.2,2.58,0.47,0.0,8.6,0.0,0.0,2.0,0,0,0.0,0.23,0.0,0.31,0.03,0.23,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.36</t>
+  </si>
+  <si>
+    <t>8.0,7.25,0.74,1.55,0.48,0.0,20.48,0.0,0.0,1.67,0,0,0.0,0.0,0.0,0.33,0.13,0.21,0.0,0.0,0.13,0.13,0.0,0.0,0.0,0.33,15.0,4.73,0.46,0.52,0.9,1.0,9.67,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.27,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08,15.0,5.13,0.46,0.52,0.9,1.0,12.02,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.13,0.13,0.07,0.0,0.0,0.0,0.0,1.6</t>
+  </si>
+  <si>
+    <t>16.5,5.03,1.02,1.03,0.99,0.5,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.27,0.03,0.03,0.21,0.06,0.13,0.0,0.0,3.43,47.0,5.34,1.45,0.52,2.81,3.0,14.85,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.23,0.09,0.17,0.09,0.09,0.09,0.04,0.0,0.0,0.0,4.18</t>
+  </si>
+  <si>
+    <t>11.0,6.36,0.68,1.03,0.66,0.5,17.59,0.0,0.0,1.0,0,0,0.0,0.09,0.0,0.27,0.09,0.14,0.0,0.0,0.09,0.09,0.25,0.0,0.0,3.8,13.0,6.54,0.4,0.52,0.78,0.0,9.51,0.0,0.62,0.0,7,0,0.0,0.0,0.0,0.54,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.86</t>
+  </si>
+  <si>
+    <t>15.0,5.2,0.46,0.52,0.9,2.0,13.59,0.0,0.0,0.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.07,0.07,0.13,0.07,0.13,0.0,0.0,6.75,16.0,27.0,0.49,0.52,0.96,1.0,141.11,1.0,0.63,0.0,0,0,0.0,0.25,0.0,0.56,0.06,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,0.5</t>
+  </si>
+  <si>
+    <t>13.6,5.25,2.09,2.58,0.81,0.0,11.94,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.29,0.1,0.1,0.06,0.01,0.0,0.0,0.0,5.06,15.0,4.73,0.46,0.52,0.9,1.0,9.67,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.27,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>13.0,5.23,0.4,0.52,0.78,1.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.15,0.31,0.08,0.08,0.08,0.0,0.0,0.0,0.0,9.8,19.33,5.5,1.79,1.55,1.16,1.0,14.29,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.17,0.19,0.21,0.1,0.1,0.02,0.07,0.0,0.0,0.0,4.29</t>
+  </si>
+  <si>
+    <t>6.0,6.0,0.37,1.03,0.36,0.0,13.57,0.0,0.08,1.0,0,0,0.0,0.08,0.0,0.42,0.08,0.25,0.0,0.0,0.0,0.08,0.13,0.0,0.0,1.0,7.8,5.05,1.2,2.58,0.47,0.0,8.6,0.0,0.0,2.0,0,0,0.0,0.23,0.0,0.31,0.03,0.23,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.36</t>
+  </si>
+  <si>
+    <t>17.0,5.0,0.52,0.52,1.02,2.0,9.78,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.29,0.12,0.06,0.06,0.0,0.06,0.0,0.0,0.0,5.29,19.33,5.5,1.79,1.55,1.16,1.0,14.29,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.17,0.19,0.21,0.1,0.1,0.02,0.07,0.0,0.0,0.0,4.29</t>
+  </si>
+  <si>
+    <t>15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82,24.0,5.63,0.74,0.52,1.43,0.0,10.94,0.0,0.29,27.0,0,0,0.0,0.0,0.0,0.46,0.08,0.13,0.04,0.04,0.04,0.0,0.0,0.0,0.0,1.82</t>
   </si>
   <si>
     <t>nowadayz no one can liv wdout</t>
@@ -1485,31 +1485,31 @@
     <t>........ t.v ix beter than bookxx.... evrybdy vot for t.v....</t>
   </si>
   <si>
-    <t>166,0.5,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,319,1.0,14.29,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,2.0,9.78,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.1,0.0,0.0,135,0.0,10.94,0.0,0.29,27.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>311,1.0,16.22,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.3,0.35,0.0,0.0,118,0.5,11.03,0.0,0.0,1.5,0.0,0.04,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>135,0.0,10.94,0.0,0.29,27.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,174,0.0,20.48,0.0,0.0,1.67,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0,68,1.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>389,0.33,11.81,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.35,0.35,0.0,0.0,140,0.5,17.59,0.0,0.0,1.0,0.0,0.09,0.0,0.1,0.15,0.2,0.0,0.0</t>
+    <t>16.5,5.03,1.02,1.03,0.99,0.5,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.27,0.03,0.03,0.21,0.06,0.13,0.0,0.0,3.43,19.33,5.5,1.79,1.55,1.16,1.0,14.29,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.17,0.19,0.21,0.1,0.1,0.02,0.07,0.0,0.0,0.0,4.29</t>
+  </si>
+  <si>
+    <t>17.0,5.0,0.52,0.52,1.02,2.0,9.78,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.29,0.12,0.06,0.06,0.0,0.06,0.0,0.0,0.0,5.29,24.0,5.63,0.74,0.52,1.43,0.0,10.94,0.0,0.29,27.0,0,0,0.0,0.0,0.0,0.46,0.08,0.13,0.04,0.04,0.04,0.0,0.0,0.0,0.0,1.82</t>
+  </si>
+  <si>
+    <t>56.0,5.55,1.72,0.52,3.35,1.0,16.22,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.11,0.21,0.05,0.05,0.13,0.04,0.13,0.0,0.0,4.79,11.5,5.13,0.71,1.03,0.69,0.5,11.03,0.0,0.0,1.5,0,0,0.0,0.04,0.0,0.22,0.04,0.26,0.0,0.0,0.09,0.0,0.0,0.0,0.0,6.67</t>
+  </si>
+  <si>
+    <t>24.0,5.63,0.74,0.52,1.43,0.0,10.94,0.0,0.29,27.0,0,0,0.0,0.0,0.0,0.46,0.08,0.13,0.04,0.04,0.04,0.0,0.0,0.0,0.0,1.82,8.0,7.25,0.74,1.55,0.48,0.0,20.48,0.0,0.0,1.67,0,0,0.0,0.0,0.0,0.33,0.13,0.21,0.0,0.0,0.13,0.13,0.0,0.0,0.0,0.33</t>
+  </si>
+  <si>
+    <t>9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23,13.0,5.23,0.4,0.52,0.78,1.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.15,0.31,0.08,0.08,0.08,0.0,0.0,0.0,0.0,9.8</t>
+  </si>
+  <si>
+    <t>7.78,5.56,2.16,4.64,0.47,0.33,11.81,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.19,0.03,0.24,0.03,0.03,0.07,0.04,0.0,0.0,0.0,4.7,11.0,6.36,0.68,1.03,0.66,0.5,17.59,0.0,0.0,1.0,0,0,0.0,0.09,0.0,0.27,0.09,0.14,0.0,0.0,0.09,0.09,0.25,0.0,0.0,3.8</t>
   </si>
   <si>
     <t>n books.</t>
   </si>
   <si>
-    <t>166,0.5,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,118,0.5,11.03,0.0,0.0,1.5,0.0,0.04,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17,126,0.0,10.54,0.0,0.04,0.0,0.0,0.0,0.0,0.05,0.15,0.15,0.25,0.0</t>
+    <t>16.5,5.03,1.02,1.03,0.99,0.5,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.27,0.03,0.03,0.21,0.06,0.13,0.0,0.0,3.43,11.5,5.13,0.71,1.03,0.69,0.5,11.03,0.0,0.0,1.5,0,0,0.0,0.04,0.0,0.22,0.04,0.26,0.0,0.0,0.09,0.0,0.0,0.0,0.0,6.67</t>
+  </si>
+  <si>
+    <t>15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82,27.0,4.67,0.83,0.52,1.61,0.0,10.54,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.22,0.0,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,3.25</t>
   </si>
   <si>
     <t>you can just sit on the couch</t>
@@ -1536,7 +1536,7 @@
     <t>atch tv when you cant be botherd to to anything else</t>
   </si>
   <si>
-    <t>319,1.0,14.29,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.3,0.3,0.0,0.0,432,1.0,141.11,1.0,0.63,0.0,0.0,0.25,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>19.33,5.5,1.79,1.55,1.16,1.0,14.29,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.17,0.19,0.21,0.1,0.1,0.02,0.07,0.0,0.0,0.0,4.29,16.0,27.0,0.49,0.52,0.96,1.0,141.11,1.0,0.63,0.0,0,0,0.0,0.25,0.0,0.56,0.06,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,0.5</t>
   </si>
   <si>
     <t>lollollollol</t>
@@ -1557,37 +1557,37 @@
     <t>llollollollollollollollollollollollol lollollollollollollollollollollollollollollollol</t>
   </si>
   <si>
-    <t>166,0.5,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,77,1.0,12.02,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.08,0.0</t>
-  </si>
-  <si>
-    <t>71,1.0,9.67,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.15,0.15,0.0,0.0,118,0.5,11.03,0.0,0.0,1.5,0.0,0.04,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>311,1.0,16.22,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.3,0.35,0.0,0.0,78,2.0,13.59,0.0,0.0,0.0,0.0,0.07,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>65,0.0,9.65,0.0,0.08,1.5,0.0,0.33,0.0,0.15,0.2,0.2,0.08,0.17,317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>131,0.0,8.97,0.0,0.07,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0,239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>77,1.0,12.02,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.08,0.0,317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>131,0.0,8.97,0.0,0.07,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0,311,1.0,16.22,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>68,1.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,85,0.0,9.51,0.0,0.62,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17,68,1.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0,79,0.0,4.55,0.0,0.0,3.33,0.0,0.47,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17,78,2.0,13.59,0.0,0.0,0.0,0.0,0.07,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>16.5,5.03,1.02,1.03,0.99,0.5,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.27,0.03,0.03,0.21,0.06,0.13,0.0,0.0,3.43,15.0,5.13,0.46,0.52,0.9,1.0,12.02,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.13,0.13,0.07,0.0,0.0,0.0,0.0,1.6</t>
+  </si>
+  <si>
+    <t>15.0,4.73,0.46,0.52,0.9,1.0,9.67,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.07,0.27,0.07,0.07,0.13,0.0,0.0,0.0,0.0,5.6,11.5,5.13,0.71,1.03,0.69,0.5,11.03,0.0,0.0,1.5,0,0,0.0,0.04,0.0,0.22,0.04,0.26,0.0,0.0,0.09,0.0,0.0,0.0,0.0,6.67</t>
+  </si>
+  <si>
+    <t>56.0,5.55,1.72,0.52,3.35,1.0,16.22,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.11,0.21,0.05,0.05,0.13,0.04,0.13,0.0,0.0,4.79,15.0,5.2,0.46,0.52,0.9,2.0,13.59,0.0,0.0,0.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.07,0.07,0.13,0.07,0.13,0.0,0.0,6.75</t>
+  </si>
+  <si>
+    <t>6.0,5.42,0.37,1.03,0.36,0.0,9.65,0.0,0.08,1.5,0,0,0.0,0.33,0.0,0.33,0.08,0.17,0.0,0.0,0.0,0.0,0.0,0.17,0.17,8.33,9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23</t>
+  </si>
+  <si>
+    <t>14.0,4.68,0.86,1.03,0.84,0.0,8.97,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.29,0.04,0.25,0.07,0.07,0.14,0.0,0.0,0.0,0.0,3.0,9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08</t>
+  </si>
+  <si>
+    <t>15.0,5.13,0.46,0.52,0.9,1.0,12.02,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.13,0.13,0.07,0.0,0.0,0.0,0.0,1.6,9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23</t>
+  </si>
+  <si>
+    <t>14.0,4.68,0.86,1.03,0.84,0.0,8.97,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.29,0.04,0.25,0.07,0.07,0.14,0.0,0.0,0.0,0.0,3.0,56.0,5.55,1.72,0.52,3.35,1.0,16.22,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.11,0.21,0.05,0.05,0.13,0.04,0.13,0.0,0.0,4.79</t>
+  </si>
+  <si>
+    <t>13.0,5.23,0.4,0.52,0.78,1.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.15,0.31,0.08,0.08,0.08,0.0,0.0,0.0,0.0,9.8,13.0,6.54,0.4,0.52,0.78,0.0,9.51,0.0,0.62,0.0,7,0,0.0,0.0,0.0,0.54,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.86</t>
+  </si>
+  <si>
+    <t>29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5,13.0,5.23,0.4,0.52,0.78,1.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.15,0.31,0.08,0.08,0.08,0.0,0.0,0.0,0.0,9.8</t>
+  </si>
+  <si>
+    <t>9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23,5.0,5.27,0.46,1.55,0.3,0.0,4.55,0.0,0.0,3.33,0,0,0.0,0.47,0.0,0.4,0.07,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,4.2</t>
+  </si>
+  <si>
+    <t>15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82,15.0,5.2,0.46,0.52,0.9,2.0,13.59,0.0,0.0,0.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.07,0.07,0.13,0.07,0.13,0.0,0.0,6.75</t>
   </si>
   <si>
     <t>Because it is a source of ent</t>
@@ -1608,19 +1608,19 @@
     <t>d :)</t>
   </si>
   <si>
-    <t>251,3.0,14.85,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.25,0.25,0.08,0.0,65,0.0,9.65,0.0,0.08,1.5,0.0,0.33,0.0,0.15,0.2,0.2,0.08,0.17</t>
-  </si>
-  <si>
-    <t>98,0.0,9.39,0.0,0.14,1.0,0.0,0.05,0.0,0.1,0.1,0.1,0.0,0.0,389,0.33,11.81,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17,65,0.0,9.65,0.0,0.08,1.5,0.0,0.33,0.0,0.15,0.2,0.2,0.08,0.17</t>
-  </si>
-  <si>
-    <t>131,0.0,8.97,0.0,0.07,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0,71,1.0,9.67,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>389,0.33,11.81,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.35,0.35,0.0,0.0,317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0</t>
+    <t>47.0,5.34,1.45,0.52,2.81,3.0,14.85,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.23,0.09,0.17,0.09,0.09,0.09,0.04,0.0,0.0,0.0,4.18,6.0,5.42,0.37,1.03,0.36,0.0,9.65,0.0,0.08,1.5,0,0,0.0,0.33,0.0,0.33,0.08,0.17,0.0,0.0,0.0,0.0,0.0,0.17,0.17,8.33</t>
+  </si>
+  <si>
+    <t>21.0,4.67,0.65,0.52,1.26,0.0,9.39,0.0,0.14,1.0,0,0,0.0,0.05,6.67,0.24,0.0,0.14,0.05,0.05,0.19,0.0,0.0,0.0,0.0,3.6,7.78,5.56,2.16,4.64,0.47,0.33,11.81,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.19,0.03,0.24,0.03,0.03,0.07,0.04,0.0,0.0,0.0,4.7</t>
+  </si>
+  <si>
+    <t>29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5,6.0,5.42,0.37,1.03,0.36,0.0,9.65,0.0,0.08,1.5,0,0,0.0,0.33,0.0,0.33,0.08,0.17,0.0,0.0,0.0,0.0,0.0,0.17,0.17,8.33</t>
+  </si>
+  <si>
+    <t>14.0,4.68,0.86,1.03,0.84,0.0,8.97,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.29,0.04,0.25,0.07,0.07,0.14,0.0,0.0,0.0,0.0,3.0,15.0,4.73,0.46,0.52,0.9,1.0,9.67,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.07,0.27,0.07,0.07,0.13,0.0,0.0,0.0,0.0,5.6</t>
+  </si>
+  <si>
+    <t>7.78,5.56,2.16,4.64,0.47,0.33,11.81,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.19,0.03,0.24,0.03,0.03,0.07,0.04,0.0,0.0,0.0,4.7,9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23</t>
   </si>
   <si>
     <t>Japan, Alab</t>
@@ -1680,7 +1680,7 @@
     <t>ke too much time. TV gives the info much faster.</t>
   </si>
   <si>
-    <t>131,0.0,8.97,0.0,0.07,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0,586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17</t>
+    <t>14.0,4.68,0.86,1.03,0.84,0.0,8.97,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.29,0.04,0.25,0.07,0.07,0.14,0.0,0.0,0.0,0.0,3.0,15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82</t>
   </si>
   <si>
     <t>n a limit, b</t>
@@ -1734,16 +1734,16 @@
     <t>10% of what he had read and 50% of what he had listened and watched.</t>
   </si>
   <si>
-    <t>135,0.0,10.94,0.0,0.29,27.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,319,1.0,14.29,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>126,0.0,10.54,0.0,0.04,0.0,0.0,0.0,0.0,0.05,0.15,0.15,0.25,0.0,319,1.0,14.29,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>169,1.0,11.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.08,0.17,251,3.0,14.85,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.25,0.25,0.08,0.0</t>
-  </si>
-  <si>
-    <t>239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0,343,0.0,10.01,0.0,0.01,0.0,0.0,0.0,0.0,0.25,0.25,0.2,0.17,0.33</t>
+    <t>24.0,5.63,0.74,0.52,1.43,0.0,10.94,0.0,0.29,27.0,0,0,0.0,0.0,0.0,0.46,0.08,0.13,0.04,0.04,0.04,0.0,0.0,0.0,0.0,1.82,19.33,5.5,1.79,1.55,1.16,1.0,14.29,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.17,0.19,0.21,0.1,0.1,0.02,0.07,0.0,0.0,0.0,4.29</t>
+  </si>
+  <si>
+    <t>27.0,4.67,0.83,0.52,1.61,0.0,10.54,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.22,0.0,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,3.25,19.33,5.5,1.79,1.55,1.16,1.0,14.29,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.17,0.19,0.21,0.1,0.1,0.02,0.07,0.0,0.0,0.0,4.29</t>
+  </si>
+  <si>
+    <t>35.0,4.83,1.08,0.52,2.09,1.0,11.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.17,0.09,0.09,0.06,0.06,0.13,0.17,0.17,2.92,47.0,5.34,1.45,0.52,2.81,3.0,14.85,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.23,0.09,0.17,0.09,0.09,0.09,0.04,0.0,0.0,0.0,4.18</t>
+  </si>
+  <si>
+    <t>9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08,77.0,4.45,2.37,0.52,4.6,0.0,10.01,0.0,0.01,0.0,0,0,0.0,0.0,0.0,0.23,0.1,0.19,0.01,0.01,0.17,0.0,0.0,0.33,0.33,2.42</t>
   </si>
   <si>
     <t>s like the d</t>
@@ -1779,16 +1779,16 @@
     <t>ing this</t>
   </si>
   <si>
-    <t>135,0.0,10.94,0.0,0.29,27.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,121,0.0,16.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>79,0.0,4.55,0.0,0.0,3.33,0.0,0.47,0.0,0.1,0.1,0.1,0.0,0.0,251,3.0,14.85,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.25,0.25,0.08,0.0</t>
-  </si>
-  <si>
-    <t>79,0.0,4.55,0.0,0.0,3.33,0.0,0.47,0.0,0.1,0.1,0.1,0.0,0.0,78,2.0,13.59,0.0,0.0,0.0,0.0,0.07,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17,140,0.5,17.59,0.0,0.0,1.0,0.0,0.09,0.0,0.1,0.15,0.2,0.0,0.0</t>
+    <t>24.0,5.63,0.74,0.52,1.43,0.0,10.94,0.0,0.29,27.0,0,0,0.0,0.0,0.0,0.46,0.08,0.13,0.04,0.04,0.04,0.0,0.0,0.0,0.0,1.82,21.0,5.76,0.65,0.52,1.26,0.0,16.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.19,0.0,0.0,0.05,0.14,0.13,0.0,0.0,4.22</t>
+  </si>
+  <si>
+    <t>5.0,5.27,0.46,1.55,0.3,0.0,4.55,0.0,0.0,3.33,0,0,0.0,0.47,0.0,0.4,0.07,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,4.2,47.0,5.34,1.45,0.52,2.81,3.0,14.85,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.23,0.09,0.17,0.09,0.09,0.09,0.04,0.0,0.0,0.0,4.18</t>
+  </si>
+  <si>
+    <t>5.0,5.27,0.46,1.55,0.3,0.0,4.55,0.0,0.0,3.33,0,0,0.0,0.47,0.0,0.4,0.07,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,4.2,15.0,5.2,0.46,0.52,0.9,2.0,13.59,0.0,0.0,0.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.07,0.07,0.13,0.07,0.13,0.0,0.0,6.75</t>
+  </si>
+  <si>
+    <t>15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82,11.0,6.36,0.68,1.03,0.66,0.5,17.59,0.0,0.0,1.0,0,0,0.0,0.09,0.0,0.27,0.09,0.14,0.0,0.0,0.09,0.09,0.25,0.0,0.0,3.8</t>
   </si>
   <si>
     <t>I learned English through TV.</t>
@@ -1818,10 +1818,10 @@
     <t>interaction with native speakers, but TV helped a lot more than books.</t>
   </si>
   <si>
-    <t>149,0.67,11.77,0.0,0.0,1.33,0.0,0.14,0.0,0.2,0.25,0.25,0.0,0.0,65,0.0,9.65,0.0,0.08,1.5,0.0,0.33,0.0,0.15,0.2,0.2,0.08,0.17</t>
-  </si>
-  <si>
-    <t>343,0.0,10.01,0.0,0.01,0.0,0.0,0.0,0.0,0.25,0.25,0.2,0.17,0.33,389,0.33,11.81,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>9.67,5.14,0.89,1.55,0.58,0.67,11.77,0.0,0.0,1.33,0,0,0.0,0.14,0.0,0.24,0.1,0.1,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.0,6.0,5.42,0.37,1.03,0.36,0.0,9.65,0.0,0.08,1.5,0,0,0.0,0.33,0.0,0.33,0.08,0.17,0.0,0.0,0.0,0.0,0.0,0.17,0.17,8.33</t>
+  </si>
+  <si>
+    <t>77.0,4.45,2.37,0.52,4.6,0.0,10.01,0.0,0.01,0.0,0,0,0.0,0.0,0.0,0.23,0.1,0.19,0.01,0.01,0.17,0.0,0.0,0.33,0.33,2.42,7.78,5.56,2.16,4.64,0.47,0.33,11.81,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.19,0.03,0.24,0.03,0.03,0.07,0.04,0.0,0.0,0.0,4.7</t>
   </si>
   <si>
     <t>d go left? T</t>
@@ -1881,13 +1881,13 @@
     <t>read a book you need the lights on. Which also wastes electricity.</t>
   </si>
   <si>
-    <t>197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0,79,0.0,4.55,0.0,0.0,3.33,0.0,0.47,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,0.0,20.48,0.0,0.0,1.67,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,98,0.0,9.39,0.0,0.14,1.0,0.0,0.05,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17,133,0.5,10.76,0.0,0.16,1.0,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
+    <t>7.8,5.05,1.2,2.58,0.47,0.0,8.6,0.0,0.0,2.0,0,0,0.0,0.23,0.0,0.31,0.03,0.23,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.36,5.0,5.27,0.46,1.55,0.3,0.0,4.55,0.0,0.0,3.33,0,0,0.0,0.47,0.0,0.4,0.07,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,4.2</t>
+  </si>
+  <si>
+    <t>8.0,7.25,0.74,1.55,0.48,0.0,20.48,0.0,0.0,1.67,0,0,0.0,0.0,0.0,0.33,0.13,0.21,0.0,0.0,0.13,0.13,0.0,0.0,0.0,0.33,21.0,4.67,0.65,0.52,1.26,0.0,9.39,0.0,0.14,1.0,0,0,0.0,0.05,6.67,0.24,0.0,0.14,0.05,0.05,0.19,0.0,0.0,0.0,0.0,3.6</t>
+  </si>
+  <si>
+    <t>15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82,12.5,5.32,0.77,1.03,0.75,0.5,10.76,0.0,0.16,1.0,0,0,0.0,0.04,6.67,0.32,0.04,0.16,0.04,0.04,0.12,0.0,0.0,0.0,0.0,0.88</t>
   </si>
   <si>
     <t>I'm not sayin this cuz I love</t>
@@ -1911,7 +1911,7 @@
     <t>you think in the tube. &lt;br/&gt; EX) News, Baseball, Spongebob, etc.</t>
   </si>
   <si>
-    <t>586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17,79,0.0,4.55,0.0,0.0,3.33,0.0,0.47,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82,5.0,5.27,0.46,1.55,0.3,0.0,4.55,0.0,0.0,3.33,0,0,0.0,0.47,0.0,0.4,0.07,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,4.2</t>
   </si>
   <si>
     <t>GO TV!!!!!! GO TV!!!! &lt;br/&gt; T</t>
@@ -1938,25 +1938,25 @@
     <t>watch anything</t>
   </si>
   <si>
-    <t>197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0,140,0.5,17.59,0.0,0.0,1.0,0.0,0.09,0.0,0.1,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>319,1.0,14.29,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.3,0.3,0.0,0.0,65,0.0,9.65,0.0,0.08,1.5,0.0,0.33,0.0,0.15,0.2,0.2,0.08,0.17</t>
-  </si>
-  <si>
-    <t>169,1.0,11.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.08,0.17,60,0.0,8.19,0.0,0.09,4.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>251,3.0,14.85,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.25,0.25,0.08,0.0,126,0.0,10.54,0.0,0.04,0.0,0.0,0.0,0.0,0.05,0.15,0.15,0.25,0.0</t>
-  </si>
-  <si>
-    <t>311,1.0,16.22,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.3,0.35,0.0,0.0,135,0.0,10.94,0.0,0.29,27.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0,239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>357,0.0,11.94,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.3,0.08,0.0,432,1.0,141.11,1.0,0.63,0.0,0.0,0.25,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>7.8,5.05,1.2,2.58,0.47,0.0,8.6,0.0,0.0,2.0,0,0,0.0,0.23,0.0,0.31,0.03,0.23,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.36,11.0,6.36,0.68,1.03,0.66,0.5,17.59,0.0,0.0,1.0,0,0,0.0,0.09,0.0,0.27,0.09,0.14,0.0,0.0,0.09,0.09,0.25,0.0,0.0,3.8</t>
+  </si>
+  <si>
+    <t>19.33,5.5,1.79,1.55,1.16,1.0,14.29,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.17,0.19,0.21,0.1,0.1,0.02,0.07,0.0,0.0,0.0,4.29,6.0,5.42,0.37,1.03,0.36,0.0,9.65,0.0,0.08,1.5,0,0,0.0,0.33,0.0,0.33,0.08,0.17,0.0,0.0,0.0,0.0,0.0,0.17,0.17,8.33</t>
+  </si>
+  <si>
+    <t>35.0,4.83,1.08,0.52,2.09,1.0,11.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.17,0.09,0.09,0.06,0.06,0.13,0.17,0.17,2.92,11.0,5.45,0.34,0.52,0.66,0.0,8.19,0.0,0.09,4.0,0,0,0.0,0.0,0.0,0.18,0.18,0.36,0.09,0.09,0.0,0.0,0.0,0.0,0.0,7.25</t>
+  </si>
+  <si>
+    <t>47.0,5.34,1.45,0.52,2.81,3.0,14.85,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.23,0.09,0.17,0.09,0.09,0.09,0.04,0.0,0.0,0.0,4.18,27.0,4.67,0.83,0.52,1.61,0.0,10.54,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.22,0.0,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>56.0,5.55,1.72,0.52,3.35,1.0,16.22,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.11,0.21,0.05,0.05,0.13,0.04,0.13,0.0,0.0,4.79,24.0,5.63,0.74,0.52,1.43,0.0,10.94,0.0,0.29,27.0,0,0,0.0,0.0,0.0,0.46,0.08,0.13,0.04,0.04,0.04,0.0,0.0,0.0,0.0,1.82</t>
+  </si>
+  <si>
+    <t>7.8,5.05,1.2,2.58,0.47,0.0,8.6,0.0,0.0,2.0,0,0,0.0,0.23,0.0,0.31,0.03,0.23,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.36,9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08</t>
+  </si>
+  <si>
+    <t>13.6,5.25,2.09,2.58,0.81,0.0,11.94,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.29,0.1,0.1,0.06,0.01,0.0,0.0,0.0,5.06,16.0,27.0,0.49,0.52,0.96,1.0,141.11,1.0,0.63,0.0,0,0,0.0,0.25,0.0,0.56,0.06,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,0.5</t>
   </si>
   <si>
     <t>llollollollo</t>
@@ -1983,37 +1983,37 @@
     <t>ollollollollollollollollollollollollollollol lollollollollollollollollollollollollollollollol lollollollollollollollollollollollollollollollol</t>
   </si>
   <si>
-    <t>197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0,135,0.0,10.94,0.0,0.29,27.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,0.0,9.51,0.0,0.62,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,131,0.0,8.97,0.0,0.07,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>311,1.0,16.22,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.3,0.35,0.0,0.0,65,0.0,9.65,0.0,0.08,1.5,0.0,0.33,0.0,0.15,0.2,0.2,0.08,0.17</t>
-  </si>
-  <si>
-    <t>140,0.5,17.59,0.0,0.0,1.0,0.0,0.09,0.0,0.1,0.15,0.2,0.0,0.0,432,1.0,141.11,1.0,0.63,0.0,0.0,0.25,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0,68,1.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,0.0,9.51,0.0,0.62,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,357,0.0,11.94,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.3,0.08,0.0</t>
-  </si>
-  <si>
-    <t>149,0.67,11.77,0.0,0.0,1.33,0.0,0.14,0.0,0.2,0.25,0.25,0.0,0.0,311,1.0,16.22,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0,126,0.0,10.54,0.0,0.04,0.0,0.0,0.0,0.0,0.05,0.15,0.15,0.25,0.0</t>
-  </si>
-  <si>
-    <t>85,0.0,9.51,0.0,0.62,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,71,1.0,9.67,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,0.0,20.48,0.0,0.0,1.67,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,343,0.0,10.01,0.0,0.01,0.0,0.0,0.0,0.0,0.25,0.25,0.2,0.17,0.33</t>
-  </si>
-  <si>
-    <t>251,3.0,14.85,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.25,0.25,0.08,0.0,586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17</t>
+    <t>7.8,5.05,1.2,2.58,0.47,0.0,8.6,0.0,0.0,2.0,0,0,0.0,0.23,0.0,0.31,0.03,0.23,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.36,24.0,5.63,0.74,0.52,1.43,0.0,10.94,0.0,0.29,27.0,0,0,0.0,0.0,0.0,0.46,0.08,0.13,0.04,0.04,0.04,0.0,0.0,0.0,0.0,1.82</t>
+  </si>
+  <si>
+    <t>13.0,6.54,0.4,0.52,0.78,0.0,9.51,0.0,0.62,0.0,7,0,0.0,0.0,0.0,0.54,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.86,14.0,4.68,0.86,1.03,0.84,0.0,8.97,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.29,0.04,0.25,0.07,0.07,0.14,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>56.0,5.55,1.72,0.52,3.35,1.0,16.22,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.11,0.21,0.05,0.05,0.13,0.04,0.13,0.0,0.0,4.79,6.0,5.42,0.37,1.03,0.36,0.0,9.65,0.0,0.08,1.5,0,0,0.0,0.33,0.0,0.33,0.08,0.17,0.0,0.0,0.0,0.0,0.0,0.17,0.17,8.33</t>
+  </si>
+  <si>
+    <t>11.0,6.36,0.68,1.03,0.66,0.5,17.59,0.0,0.0,1.0,0,0,0.0,0.09,0.0,0.27,0.09,0.14,0.0,0.0,0.09,0.09,0.25,0.0,0.0,3.8,16.0,27.0,0.49,0.52,0.96,1.0,141.11,1.0,0.63,0.0,0,0,0.0,0.25,0.0,0.56,0.06,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,0.5</t>
+  </si>
+  <si>
+    <t>9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08,13.0,5.23,0.4,0.52,0.78,1.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.15,0.31,0.08,0.08,0.08,0.0,0.0,0.0,0.0,9.8</t>
+  </si>
+  <si>
+    <t>13.0,6.54,0.4,0.52,0.78,0.0,9.51,0.0,0.62,0.0,7,0,0.0,0.0,0.0,0.54,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.86,13.6,5.25,2.09,2.58,0.81,0.0,11.94,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.29,0.1,0.1,0.06,0.01,0.0,0.0,0.0,5.06</t>
+  </si>
+  <si>
+    <t>9.67,5.14,0.89,1.55,0.58,0.67,11.77,0.0,0.0,1.33,0,0,0.0,0.14,0.0,0.24,0.1,0.1,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.0,56.0,5.55,1.72,0.52,3.35,1.0,16.22,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.11,0.21,0.05,0.05,0.13,0.04,0.13,0.0,0.0,4.79</t>
+  </si>
+  <si>
+    <t>7.8,5.05,1.2,2.58,0.47,0.0,8.6,0.0,0.0,2.0,0,0,0.0,0.23,0.0,0.31,0.03,0.23,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.36,27.0,4.67,0.83,0.52,1.61,0.0,10.54,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.22,0.0,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>13.0,6.54,0.4,0.52,0.78,0.0,9.51,0.0,0.62,0.0,7,0,0.0,0.0,0.0,0.54,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.86,15.0,4.73,0.46,0.52,0.9,1.0,9.67,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.07,0.27,0.07,0.07,0.13,0.0,0.0,0.0,0.0,5.6</t>
+  </si>
+  <si>
+    <t>8.0,7.25,0.74,1.55,0.48,0.0,20.48,0.0,0.0,1.67,0,0,0.0,0.0,0.0,0.33,0.13,0.21,0.0,0.0,0.13,0.13,0.0,0.0,0.0,0.33,77.0,4.45,2.37,0.52,4.6,0.0,10.01,0.0,0.01,0.0,0,0,0.0,0.0,0.0,0.23,0.1,0.19,0.01,0.01,0.17,0.0,0.0,0.33,0.33,2.42</t>
+  </si>
+  <si>
+    <t>47.0,5.34,1.45,0.52,2.81,3.0,14.85,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.23,0.09,0.17,0.09,0.09,0.09,0.04,0.0,0.0,0.0,4.18,15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82</t>
   </si>
   <si>
     <t>can't even</t>
@@ -2076,10 +2076,10 @@
     <t>cess of everything is harmful, even reading of books. &lt;br/&gt; Surveys have found that a normal person can remember 10% of what he had read and 50% of what he had listened and watched.</t>
   </si>
   <si>
-    <t>239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0,60,0.0,8.19,0.0,0.09,4.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0,432,1.0,141.11,1.0,0.63,0.0,0.0,0.25,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08,11.0,5.45,0.34,0.52,0.66,0.0,8.19,0.0,0.09,4.0,0,0,0.0,0.0,0.0,0.18,0.18,0.36,0.09,0.09,0.0,0.0,0.0,0.0,0.0,7.25</t>
+  </si>
+  <si>
+    <t>7.8,5.05,1.2,2.58,0.47,0.0,8.6,0.0,0.0,2.0,0,0,0.0,0.23,0.0,0.31,0.03,0.23,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.36,16.0,27.0,0.49,0.52,0.96,1.0,141.11,1.0,0.63,0.0,0,0,0.0,0.25,0.0,0.56,0.06,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,0.5</t>
   </si>
   <si>
     <t>ollol lollol</t>
@@ -2094,40 +2094,40 @@
     <t>ollollollol</t>
   </si>
   <si>
-    <t>169,1.0,11.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.08,0.17,317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17,126,0.0,10.54,0.0,0.04,0.0,0.0,0.0,0.0,0.05,0.15,0.15,0.25,0.0</t>
-  </si>
-  <si>
-    <t>166,0.5,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17</t>
-  </si>
-  <si>
-    <t>239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0,135,0.0,10.94,0.0,0.29,27.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>319,1.0,14.29,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.3,0.3,0.0,0.0,71,1.0,9.67,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>149,0.67,11.77,0.0,0.0,1.33,0.0,0.14,0.0,0.2,0.25,0.25,0.0,0.0,60,0.0,8.19,0.0,0.09,4.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>60,0.0,8.19,0.0,0.09,4.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,98,0.0,9.39,0.0,0.14,1.0,0.0,0.05,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>78,2.0,13.59,0.0,0.0,0.0,0.0,0.07,0.0,0.05,0.1,0.1,0.0,0.0,239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>60,0.0,8.19,0.0,0.09,4.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,174,0.0,20.48,0.0,0.0,1.67,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>166,0.5,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,0.5,17.59,0.0,0.0,1.0,0.0,0.09,0.0,0.1,0.15,0.2,0.0,0.0,319,1.0,14.29,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17,68,1.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
+    <t>35.0,4.83,1.08,0.52,2.09,1.0,11.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.17,0.09,0.09,0.06,0.06,0.13,0.17,0.17,2.92,9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23</t>
+  </si>
+  <si>
+    <t>29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5,27.0,4.67,0.83,0.52,1.61,0.0,10.54,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.22,0.0,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>16.5,5.03,1.02,1.03,0.99,0.5,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.27,0.03,0.03,0.21,0.06,0.13,0.0,0.0,3.43,29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5</t>
+  </si>
+  <si>
+    <t>9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08,24.0,5.63,0.74,0.52,1.43,0.0,10.94,0.0,0.29,27.0,0,0,0.0,0.0,0.0,0.46,0.08,0.13,0.04,0.04,0.04,0.0,0.0,0.0,0.0,1.82</t>
+  </si>
+  <si>
+    <t>19.33,5.5,1.79,1.55,1.16,1.0,14.29,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.17,0.19,0.21,0.1,0.1,0.02,0.07,0.0,0.0,0.0,4.29,15.0,4.73,0.46,0.52,0.9,1.0,9.67,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.07,0.27,0.07,0.07,0.13,0.0,0.0,0.0,0.0,5.6</t>
+  </si>
+  <si>
+    <t>9.67,5.14,0.89,1.55,0.58,0.67,11.77,0.0,0.0,1.33,0,0,0.0,0.14,0.0,0.24,0.1,0.1,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.0,11.0,5.45,0.34,0.52,0.66,0.0,8.19,0.0,0.09,4.0,0,0,0.0,0.0,0.0,0.18,0.18,0.36,0.09,0.09,0.0,0.0,0.0,0.0,0.0,7.25</t>
+  </si>
+  <si>
+    <t>11.0,5.45,0.34,0.52,0.66,0.0,8.19,0.0,0.09,4.0,0,0,0.0,0.0,0.0,0.18,0.18,0.36,0.09,0.09,0.0,0.0,0.0,0.0,0.0,7.25,21.0,4.67,0.65,0.52,1.26,0.0,9.39,0.0,0.14,1.0,0,0,0.0,0.05,6.67,0.24,0.0,0.14,0.05,0.05,0.19,0.0,0.0,0.0,0.0,3.6</t>
+  </si>
+  <si>
+    <t>15.0,5.2,0.46,0.52,0.9,2.0,13.59,0.0,0.0,0.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.07,0.07,0.13,0.07,0.13,0.0,0.0,6.75,9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08</t>
+  </si>
+  <si>
+    <t>11.0,5.45,0.34,0.52,0.66,0.0,8.19,0.0,0.09,4.0,0,0,0.0,0.0,0.0,0.18,0.18,0.36,0.09,0.09,0.0,0.0,0.0,0.0,0.0,7.25,8.0,7.25,0.74,1.55,0.48,0.0,20.48,0.0,0.0,1.67,0,0,0.0,0.0,0.0,0.33,0.13,0.21,0.0,0.0,0.13,0.13,0.0,0.0,0.0,0.33</t>
+  </si>
+  <si>
+    <t>16.5,5.03,1.02,1.03,0.99,0.5,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.27,0.03,0.03,0.21,0.06,0.13,0.0,0.0,3.43,9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23</t>
+  </si>
+  <si>
+    <t>11.0,6.36,0.68,1.03,0.66,0.5,17.59,0.0,0.0,1.0,0,0,0.0,0.09,0.0,0.27,0.09,0.14,0.0,0.0,0.09,0.09,0.25,0.0,0.0,3.8,19.33,5.5,1.79,1.55,1.16,1.0,14.29,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.17,0.19,0.21,0.1,0.1,0.02,0.07,0.0,0.0,0.0,4.29</t>
+  </si>
+  <si>
+    <t>15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82,13.0,5.23,0.4,0.52,0.78,1.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.15,0.31,0.08,0.08,0.08,0.0,0.0,0.0,0.0,9.8</t>
   </si>
   <si>
     <t>tv is better than books becau</t>
@@ -2145,37 +2145,37 @@
     <t>not</t>
   </si>
   <si>
-    <t>118,0.5,11.03,0.0,0.0,1.5,0.0,0.04,0.0,0.15,0.15,0.15,0.0,0.0,317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>135,0.0,10.94,0.0,0.29,27.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>432,1.0,141.11,1.0,0.63,0.0,0.0,0.25,0.0,0.05,0.05,0.05,0.0,0.0,98,0.0,9.39,0.0,0.14,1.0,0.0,0.05,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>11.5,5.13,0.71,1.03,0.69,0.5,11.03,0.0,0.0,1.5,0,0,0.0,0.04,0.0,0.22,0.04,0.26,0.0,0.0,0.09,0.0,0.0,0.0,0.0,6.67,9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23</t>
+  </si>
+  <si>
+    <t>24.0,5.63,0.74,0.52,1.43,0.0,10.94,0.0,0.29,27.0,0,0,0.0,0.0,0.0,0.46,0.08,0.13,0.04,0.04,0.04,0.0,0.0,0.0,0.0,1.82,9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23</t>
+  </si>
+  <si>
+    <t>16.0,27.0,0.49,0.52,0.96,1.0,141.11,1.0,0.63,0.0,0,0,0.0,0.25,0.0,0.56,0.06,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,0.5,21.0,4.67,0.65,0.52,1.26,0.0,9.39,0.0,0.14,1.0,0,0,0.0,0.05,6.67,0.24,0.0,0.14,0.05,0.05,0.19,0.0,0.0,0.0,0.0,3.6</t>
   </si>
   <si>
     <t>you want.</t>
   </si>
   <si>
-    <t>85,0.0,9.51,0.0,0.62,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17</t>
-  </si>
-  <si>
-    <t>78,2.0,13.59,0.0,0.0,0.0,0.0,0.07,0.0,0.05,0.1,0.1,0.0,0.0,357,0.0,11.94,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.3,0.08,0.0</t>
-  </si>
-  <si>
-    <t>65,0.0,9.65,0.0,0.08,1.5,0.0,0.33,0.0,0.15,0.2,0.2,0.08,0.17,169,1.0,11.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.08,0.17</t>
-  </si>
-  <si>
-    <t>174,0.0,20.48,0.0,0.0,1.67,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,118,0.5,11.03,0.0,0.0,1.5,0.0,0.04,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>357,0.0,11.94,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.3,0.08,0.0,60,0.0,8.19,0.0,0.09,4.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>343,0.0,10.01,0.0,0.01,0.0,0.0,0.0,0.0,0.25,0.25,0.2,0.17,0.33,72,0.0,13.57,0.0,0.08,1.0,0.0,0.08,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,0.0,9.51,0.0,0.62,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17</t>
+    <t>13.0,6.54,0.4,0.52,0.78,0.0,9.51,0.0,0.62,0.0,7,0,0.0,0.0,0.0,0.54,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.86,29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5</t>
+  </si>
+  <si>
+    <t>15.0,5.2,0.46,0.52,0.9,2.0,13.59,0.0,0.0,0.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.07,0.07,0.13,0.07,0.13,0.0,0.0,6.75,13.6,5.25,2.09,2.58,0.81,0.0,11.94,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.29,0.1,0.1,0.06,0.01,0.0,0.0,0.0,5.06</t>
+  </si>
+  <si>
+    <t>6.0,5.42,0.37,1.03,0.36,0.0,9.65,0.0,0.08,1.5,0,0,0.0,0.33,0.0,0.33,0.08,0.17,0.0,0.0,0.0,0.0,0.0,0.17,0.17,8.33,35.0,4.83,1.08,0.52,2.09,1.0,11.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.17,0.09,0.09,0.06,0.06,0.13,0.17,0.17,2.92</t>
+  </si>
+  <si>
+    <t>8.0,7.25,0.74,1.55,0.48,0.0,20.48,0.0,0.0,1.67,0,0,0.0,0.0,0.0,0.33,0.13,0.21,0.0,0.0,0.13,0.13,0.0,0.0,0.0,0.33,11.5,5.13,0.71,1.03,0.69,0.5,11.03,0.0,0.0,1.5,0,0,0.0,0.04,0.0,0.22,0.04,0.26,0.0,0.0,0.09,0.0,0.0,0.0,0.0,6.67</t>
+  </si>
+  <si>
+    <t>13.6,5.25,2.09,2.58,0.81,0.0,11.94,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.29,0.1,0.1,0.06,0.01,0.0,0.0,0.0,5.06,11.0,5.45,0.34,0.52,0.66,0.0,8.19,0.0,0.09,4.0,0,0,0.0,0.0,0.0,0.18,0.18,0.36,0.09,0.09,0.0,0.0,0.0,0.0,0.0,7.25</t>
+  </si>
+  <si>
+    <t>77.0,4.45,2.37,0.52,4.6,0.0,10.01,0.0,0.01,0.0,0,0,0.0,0.0,0.0,0.23,0.1,0.19,0.01,0.01,0.17,0.0,0.0,0.33,0.33,2.42,6.0,6.0,0.37,1.03,0.36,0.0,13.57,0.0,0.08,1.0,0,0,0.0,0.08,0.0,0.42,0.08,0.25,0.0,0.0,0.0,0.08,0.13,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>13.0,6.54,0.4,0.52,0.78,0.0,9.51,0.0,0.62,0.0,7,0,0.0,0.0,0.0,0.54,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.86,15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82</t>
   </si>
   <si>
     <t>even reading</t>
@@ -2214,7 +2214,7 @@
     <t>and watched.</t>
   </si>
   <si>
-    <t>251,3.0,14.85,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.25,0.25,0.08,0.0,317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0</t>
+    <t>47.0,5.34,1.45,0.52,2.81,3.0,14.85,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.23,0.09,0.17,0.09,0.09,0.09,0.04,0.0,0.0,0.0,4.18,9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23</t>
   </si>
   <si>
     <t>ake too much</t>
@@ -2241,19 +2241,19 @@
     <t>h faster.</t>
   </si>
   <si>
-    <t>72,0.0,13.57,0.0,0.08,1.0,0.0,0.08,0.0,0.1,0.1,0.1,0.0,0.0,586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17</t>
-  </si>
-  <si>
-    <t>147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17,118,0.5,11.03,0.0,0.0,1.5,0.0,0.04,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>311,1.0,16.22,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.3,0.35,0.0,0.0,85,2.0,9.78,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.0,16.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,118,0.5,11.03,0.0,0.0,1.5,0.0,0.04,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>432,1.0,141.11,1.0,0.63,0.0,0.0,0.25,0.0,0.05,0.05,0.05,0.0,0.0,174,0.0,20.48,0.0,0.0,1.67,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>6.0,6.0,0.37,1.03,0.36,0.0,13.57,0.0,0.08,1.0,0,0,0.0,0.08,0.0,0.42,0.08,0.25,0.0,0.0,0.0,0.08,0.13,0.0,0.0,1.0,15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82</t>
+  </si>
+  <si>
+    <t>29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5,11.5,5.13,0.71,1.03,0.69,0.5,11.03,0.0,0.0,1.5,0,0,0.0,0.04,0.0,0.22,0.04,0.26,0.0,0.0,0.09,0.0,0.0,0.0,0.0,6.67</t>
+  </si>
+  <si>
+    <t>56.0,5.55,1.72,0.52,3.35,1.0,16.22,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.11,0.21,0.05,0.05,0.13,0.04,0.13,0.0,0.0,4.79,17.0,5.0,0.52,0.52,1.02,2.0,9.78,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.29,0.12,0.06,0.06,0.0,0.06,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>21.0,5.76,0.65,0.52,1.26,0.0,16.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.19,0.0,0.0,0.05,0.14,0.13,0.0,0.0,4.22,11.5,5.13,0.71,1.03,0.69,0.5,11.03,0.0,0.0,1.5,0,0,0.0,0.04,0.0,0.22,0.04,0.26,0.0,0.0,0.09,0.0,0.0,0.0,0.0,6.67</t>
+  </si>
+  <si>
+    <t>16.0,27.0,0.49,0.52,0.96,1.0,141.11,1.0,0.63,0.0,0,0,0.0,0.25,0.0,0.56,0.06,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,0.5,8.0,7.25,0.74,1.55,0.48,0.0,20.48,0.0,0.0,1.67,0,0,0.0,0.0,0.0,0.33,0.13,0.21,0.0,0.0,0.13,0.13,0.0,0.0,0.0,0.33</t>
   </si>
   <si>
     <t>fident. &lt;br/</t>
@@ -2292,79 +2292,79 @@
     <t>eir ideas and innovations!!!</t>
   </si>
   <si>
-    <t>60,0.0,8.19,0.0,0.09,4.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17</t>
-  </si>
-  <si>
-    <t>251,3.0,14.85,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.25,0.25,0.08,0.0,121,0.0,16.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>389,0.33,11.81,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.35,0.35,0.0,0.0,126,0.0,10.54,0.0,0.04,0.0,0.0,0.0,0.0,0.05,0.15,0.15,0.25,0.0</t>
-  </si>
-  <si>
-    <t>432,1.0,141.11,1.0,0.63,0.0,0.0,0.25,0.0,0.05,0.05,0.05,0.0,0.0,77,1.0,12.02,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.08,0.0</t>
-  </si>
-  <si>
-    <t>77,1.0,12.02,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.08,0.0,79,0.0,4.55,0.0,0.0,3.33,0.0,0.47,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>166,0.5,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,131,0.0,8.97,0.0,0.07,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>72,0.0,13.57,0.0,0.08,1.0,0.0,0.08,0.0,0.1,0.1,0.1,0.0,0.0,174,0.0,20.48,0.0,0.0,1.67,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>135,0.0,10.94,0.0,0.29,27.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,78,2.0,13.59,0.0,0.0,0.0,0.0,0.07,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>71,1.0,9.67,1.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17</t>
-  </si>
-  <si>
-    <t>68,1.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,389,0.33,11.81,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>71,1.0,9.67,1.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>98,0.0,9.39,0.0,0.14,1.0,0.0,0.05,0.0,0.1,0.1,0.1,0.0,0.0,317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,0.0,20.48,0.0,0.0,1.67,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,133,0.5,10.76,0.0,0.16,1.0,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17,169,1.0,11.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.08,0.17</t>
-  </si>
-  <si>
-    <t>98,0.0,9.39,0.0,0.14,1.0,0.0,0.05,0.0,0.1,0.1,0.1,0.0,0.0,197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0,133,0.5,10.76,0.0,0.16,1.0,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,0.5,17.59,0.0,0.0,1.0,0.0,0.09,0.0,0.1,0.15,0.2,0.0,0.0,118,0.5,11.03,0.0,0.0,1.5,0.0,0.04,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,0.5,17.59,0.0,0.0,1.0,0.0,0.09,0.0,0.1,0.15,0.2,0.0,0.0,169,1.0,11.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.08,0.17</t>
-  </si>
-  <si>
-    <t>118,0.5,11.03,0.0,0.0,1.5,0.0,0.04,0.0,0.15,0.15,0.15,0.0,0.0,197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>343,0.0,10.01,0.0,0.01,0.0,0.0,0.0,0.0,0.25,0.25,0.2,0.17,0.33,166,0.5,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>77,1.0,12.02,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.08,0.0,389,0.33,11.81,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0,169,1.0,11.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.08,0.17</t>
-  </si>
-  <si>
-    <t>311,1.0,16.22,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.3,0.35,0.0,0.0,71,1.0,9.67,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>71,1.0,9.67,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.15,0.15,0.0,0.0,239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>169,1.0,11.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.08,0.17,357,0.0,11.94,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.3,0.08,0.0</t>
+    <t>11.0,5.45,0.34,0.52,0.66,0.0,8.19,0.0,0.09,4.0,0,0,0.0,0.0,0.0,0.18,0.18,0.36,0.09,0.09,0.0,0.0,0.0,0.0,0.0,7.25,29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5</t>
+  </si>
+  <si>
+    <t>47.0,5.34,1.45,0.52,2.81,3.0,14.85,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.23,0.09,0.17,0.09,0.09,0.09,0.04,0.0,0.0,0.0,4.18,21.0,5.76,0.65,0.52,1.26,0.0,16.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.19,0.0,0.0,0.05,0.14,0.13,0.0,0.0,4.22</t>
+  </si>
+  <si>
+    <t>7.78,5.56,2.16,4.64,0.47,0.33,11.81,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.19,0.03,0.24,0.03,0.03,0.07,0.04,0.0,0.0,0.0,4.7,27.0,4.67,0.83,0.52,1.61,0.0,10.54,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.22,0.0,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>16.0,27.0,0.49,0.52,0.96,1.0,141.11,1.0,0.63,0.0,0,0,0.0,0.25,0.0,0.56,0.06,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,0.5,15.0,5.13,0.46,0.52,0.9,1.0,12.02,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.13,0.13,0.07,0.0,0.0,0.0,0.0,1.6</t>
+  </si>
+  <si>
+    <t>15.0,5.13,0.46,0.52,0.9,1.0,12.02,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.13,0.13,0.07,0.0,0.0,0.0,0.0,1.6,5.0,5.27,0.46,1.55,0.3,0.0,4.55,0.0,0.0,3.33,0,0,0.0,0.47,0.0,0.4,0.07,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,4.2</t>
+  </si>
+  <si>
+    <t>16.5,5.03,1.02,1.03,0.99,0.5,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.27,0.03,0.03,0.21,0.06,0.13,0.0,0.0,3.43,14.0,4.68,0.86,1.03,0.84,0.0,8.97,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.29,0.04,0.25,0.07,0.07,0.14,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>6.0,6.0,0.37,1.03,0.36,0.0,13.57,0.0,0.08,1.0,0,0,0.0,0.08,0.0,0.42,0.08,0.25,0.0,0.0,0.0,0.08,0.13,0.0,0.0,1.0,8.0,7.25,0.74,1.55,0.48,0.0,20.48,0.0,0.0,1.67,0,0,0.0,0.0,0.0,0.33,0.13,0.21,0.0,0.0,0.13,0.13,0.0,0.0,0.0,0.33</t>
+  </si>
+  <si>
+    <t>24.0,5.63,0.74,0.52,1.43,0.0,10.94,0.0,0.29,27.0,0,0,0.0,0.0,0.0,0.46,0.08,0.13,0.04,0.04,0.04,0.0,0.0,0.0,0.0,1.82,15.0,5.2,0.46,0.52,0.9,2.0,13.59,0.0,0.0,0.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.07,0.07,0.13,0.07,0.13,0.0,0.0,6.75</t>
+  </si>
+  <si>
+    <t>15.0,4.73,0.46,0.52,0.9,1.0,9.67,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.27,0.0,0.0,0.0,0.0,5.0,29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5</t>
+  </si>
+  <si>
+    <t>13.0,5.23,0.4,0.52,0.78,1.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.15,0.31,0.08,0.08,0.08,0.0,0.0,0.0,0.0,9.8,7.78,5.56,2.16,4.64,0.47,0.33,11.81,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.19,0.03,0.24,0.03,0.03,0.07,0.04,0.0,0.0,0.0,4.7</t>
+  </si>
+  <si>
+    <t>15.0,4.73,0.46,0.52,0.9,1.0,9.67,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.27,0.0,0.0,0.0,0.0,5.0,9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23</t>
+  </si>
+  <si>
+    <t>21.0,4.67,0.65,0.52,1.26,0.0,9.39,0.0,0.14,1.0,0,0,0.0,0.05,6.67,0.24,0.0,0.14,0.05,0.05,0.19,0.0,0.0,0.0,0.0,3.6,9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23</t>
+  </si>
+  <si>
+    <t>8.0,7.25,0.74,1.55,0.48,0.0,20.48,0.0,0.0,1.67,0,0,0.0,0.0,0.0,0.33,0.13,0.21,0.0,0.0,0.13,0.13,0.0,0.0,0.0,0.33,12.5,5.32,0.77,1.03,0.75,0.5,10.76,0.0,0.16,1.0,0,0,0.0,0.04,6.67,0.32,0.04,0.16,0.04,0.04,0.12,0.0,0.0,0.0,0.0,0.88</t>
+  </si>
+  <si>
+    <t>29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5,35.0,4.83,1.08,0.52,2.09,1.0,11.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.17,0.09,0.09,0.06,0.06,0.13,0.17,0.17,2.92</t>
+  </si>
+  <si>
+    <t>21.0,4.67,0.65,0.52,1.26,0.0,9.39,0.0,0.14,1.0,0,0,0.0,0.05,6.67,0.24,0.0,0.14,0.05,0.05,0.19,0.0,0.0,0.0,0.0,3.6,7.8,5.05,1.2,2.58,0.47,0.0,8.6,0.0,0.0,2.0,0,0,0.0,0.23,0.0,0.31,0.03,0.23,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.36</t>
+  </si>
+  <si>
+    <t>9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08,12.5,5.32,0.77,1.03,0.75,0.5,10.76,0.0,0.16,1.0,0,0,0.0,0.04,6.67,0.32,0.04,0.16,0.04,0.04,0.12,0.0,0.0,0.0,0.0,0.88</t>
+  </si>
+  <si>
+    <t>11.0,6.36,0.68,1.03,0.66,0.5,17.59,0.0,0.0,1.0,0,0,0.0,0.09,0.0,0.27,0.09,0.14,0.0,0.0,0.09,0.09,0.25,0.0,0.0,3.8,11.5,5.13,0.71,1.03,0.69,0.5,11.03,0.0,0.0,1.5,0,0,0.0,0.04,0.0,0.22,0.04,0.26,0.0,0.0,0.09,0.0,0.0,0.0,0.0,6.67</t>
+  </si>
+  <si>
+    <t>11.0,6.36,0.68,1.03,0.66,0.5,17.59,0.0,0.0,1.0,0,0,0.0,0.09,0.0,0.27,0.09,0.14,0.0,0.0,0.09,0.09,0.25,0.0,0.0,3.8,35.0,4.83,1.08,0.52,2.09,1.0,11.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.17,0.09,0.09,0.06,0.06,0.13,0.17,0.17,2.92</t>
+  </si>
+  <si>
+    <t>11.5,5.13,0.71,1.03,0.69,0.5,11.03,0.0,0.0,1.5,0,0,0.0,0.04,0.0,0.22,0.04,0.26,0.0,0.0,0.09,0.0,0.0,0.0,0.0,6.67,7.8,5.05,1.2,2.58,0.47,0.0,8.6,0.0,0.0,2.0,0,0,0.0,0.23,0.0,0.31,0.03,0.23,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.36</t>
+  </si>
+  <si>
+    <t>77.0,4.45,2.37,0.52,4.6,0.0,10.01,0.0,0.01,0.0,0,0,0.0,0.0,0.0,0.23,0.1,0.19,0.01,0.01,0.17,0.0,0.0,0.33,0.33,2.42,16.5,5.03,1.02,1.03,0.99,0.5,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.27,0.03,0.03,0.21,0.06,0.13,0.0,0.0,3.43</t>
+  </si>
+  <si>
+    <t>15.0,5.13,0.46,0.52,0.9,1.0,12.02,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.13,0.13,0.07,0.0,0.0,0.0,0.0,1.6,7.78,5.56,2.16,4.64,0.47,0.33,11.81,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.19,0.03,0.24,0.03,0.03,0.07,0.04,0.0,0.0,0.0,4.7</t>
+  </si>
+  <si>
+    <t>9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08,35.0,4.83,1.08,0.52,2.09,1.0,11.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.17,0.09,0.09,0.06,0.06,0.13,0.17,0.17,2.92</t>
+  </si>
+  <si>
+    <t>56.0,5.55,1.72,0.52,3.35,1.0,16.22,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.11,0.21,0.05,0.05,0.13,0.04,0.13,0.0,0.0,4.79,15.0,4.73,0.46,0.52,0.9,1.0,9.67,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.07,0.27,0.07,0.07,0.13,0.0,0.0,0.0,0.0,5.6</t>
+  </si>
+  <si>
+    <t>15.0,4.73,0.46,0.52,0.9,1.0,9.67,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.07,0.27,0.07,0.07,0.13,0.0,0.0,0.0,0.0,5.6,9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08</t>
+  </si>
+  <si>
+    <t>35.0,4.83,1.08,0.52,2.09,1.0,11.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.17,0.09,0.09,0.06,0.06,0.13,0.17,0.17,2.92,13.6,5.25,2.09,2.58,0.81,0.0,11.94,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.29,0.1,0.1,0.06,0.01,0.0,0.0,0.0,5.06</t>
   </si>
   <si>
     <t>ulating than</t>
@@ -2376,16 +2376,16 @@
     <t>s.</t>
   </si>
   <si>
-    <t>169,1.0,11.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.08,0.17,79,0.0,4.55,0.0,0.0,3.33,0.0,0.47,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,0.5,17.59,0.0,0.0,1.0,0.0,0.09,0.0,0.1,0.15,0.2,0.0,0.0,357,0.0,11.94,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.3,0.08,0.0</t>
-  </si>
-  <si>
-    <t>357,0.0,11.94,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.3,0.08,0.0,71,1.0,9.67,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>251,3.0,14.85,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.25,0.25,0.08,0.0,432,1.0,141.11,1.0,0.63,0.0,0.0,0.25,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>35.0,4.83,1.08,0.52,2.09,1.0,11.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.17,0.09,0.09,0.06,0.06,0.13,0.17,0.17,2.92,5.0,5.27,0.46,1.55,0.3,0.0,4.55,0.0,0.0,3.33,0,0,0.0,0.47,0.0,0.4,0.07,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,4.2</t>
+  </si>
+  <si>
+    <t>11.0,6.36,0.68,1.03,0.66,0.5,17.59,0.0,0.0,1.0,0,0,0.0,0.09,0.0,0.27,0.09,0.14,0.0,0.0,0.09,0.09,0.25,0.0,0.0,3.8,13.6,5.25,2.09,2.58,0.81,0.0,11.94,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.29,0.1,0.1,0.06,0.01,0.0,0.0,0.0,5.06</t>
+  </si>
+  <si>
+    <t>13.6,5.25,2.09,2.58,0.81,0.0,11.94,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.29,0.1,0.1,0.06,0.01,0.0,0.0,0.0,5.06,15.0,4.73,0.46,0.52,0.9,1.0,9.67,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.07,0.27,0.07,0.07,0.13,0.0,0.0,0.0,0.0,5.6</t>
+  </si>
+  <si>
+    <t>47.0,5.34,1.45,0.52,2.81,3.0,14.85,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.23,0.09,0.17,0.09,0.09,0.09,0.04,0.0,0.0,0.0,4.18,16.0,27.0,0.49,0.52,0.96,1.0,141.11,1.0,0.63,0.0,0,0,0.0,0.25,0.0,0.56,0.06,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,0.5</t>
   </si>
   <si>
     <t>lollollollollollollollollollol</t>
@@ -2397,10 +2397,10 @@
     <t>llollollollollollollol</t>
   </si>
   <si>
-    <t>319,1.0,14.29,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.3,0.3,0.0,0.0,147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17</t>
-  </si>
-  <si>
-    <t>98,0.0,9.39,0.0,0.14,1.0,0.0,0.05,0.0,0.1,0.1,0.1,0.0,0.0,586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17</t>
+    <t>19.33,5.5,1.79,1.55,1.16,1.0,14.29,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.17,0.19,0.21,0.1,0.1,0.02,0.07,0.0,0.0,0.0,4.29,29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5</t>
+  </si>
+  <si>
+    <t>21.0,4.67,0.65,0.52,1.26,0.0,9.39,0.0,0.14,1.0,0,0,0.0,0.05,6.67,0.24,0.0,0.14,0.05,0.05,0.19,0.0,0.0,0.0,0.0,3.6,15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82</t>
   </si>
   <si>
     <t>ing is harmf</t>
@@ -2436,10 +2436,10 @@
     <t>he had listened and watched.</t>
   </si>
   <si>
-    <t>126,0.0,10.54,0.0,0.04,0.0,0.0,0.0,0.0,0.05,0.15,0.15,0.25,0.0,174,0.0,20.48,0.0,0.0,1.67,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>169,1.0,11.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.08,0.17,586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17</t>
+    <t>27.0,4.67,0.83,0.52,1.61,0.0,10.54,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.22,0.0,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,3.25,8.0,7.25,0.74,1.55,0.48,0.0,20.48,0.0,0.0,1.67,0,0,0.0,0.0,0.0,0.33,0.13,0.21,0.0,0.0,0.13,0.13,0.0,0.0,0.0,0.33</t>
+  </si>
+  <si>
+    <t>35.0,4.83,1.08,0.52,2.09,1.0,11.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.17,0.09,0.09,0.06,0.06,0.13,0.17,0.17,2.92,15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82</t>
   </si>
   <si>
     <t>our eyes, we</t>
@@ -2487,7 +2487,7 @@
     <t>hat a normal person can remember 10% of what he had read and 50% of what he had listened and watched.</t>
   </si>
   <si>
-    <t>317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0,357,0.0,11.94,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.3,0.08,0.0</t>
+    <t>9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23,13.6,5.25,2.09,2.58,0.81,0.0,11.94,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.29,0.1,0.1,0.06,0.01,0.0,0.0,0.0,5.06</t>
   </si>
   <si>
     <t>a book. &lt;br/</t>
@@ -2544,22 +2544,22 @@
     <t>even more stimulating than books.</t>
   </si>
   <si>
-    <t>68,1.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,60,0.0,8.19,0.0,0.09,4.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0,131,0.0,8.97,0.0,0.07,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.0,16.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,71,1.0,9.67,1.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.0,16.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,72,0.0,13.57,0.0,0.08,1.0,0.0,0.08,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>78,2.0,13.59,0.0,0.0,0.0,0.0,0.07,0.0,0.05,0.1,0.1,0.0,0.0,174,0.0,20.48,0.0,0.0,1.67,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>357,0.0,11.94,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.3,0.08,0.0,166,0.5,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
+    <t>13.0,5.23,0.4,0.52,0.78,1.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.15,0.31,0.08,0.08,0.08,0.0,0.0,0.0,0.0,9.8,11.0,5.45,0.34,0.52,0.66,0.0,8.19,0.0,0.09,4.0,0,0,0.0,0.0,0.0,0.18,0.18,0.36,0.09,0.09,0.0,0.0,0.0,0.0,0.0,7.25</t>
+  </si>
+  <si>
+    <t>7.8,5.05,1.2,2.58,0.47,0.0,8.6,0.0,0.0,2.0,0,0,0.0,0.23,0.0,0.31,0.03,0.23,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.36,14.0,4.68,0.86,1.03,0.84,0.0,8.97,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.29,0.04,0.25,0.07,0.07,0.14,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>21.0,5.76,0.65,0.52,1.26,0.0,16.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.19,0.0,0.0,0.05,0.14,0.13,0.0,0.0,4.22,15.0,4.73,0.46,0.52,0.9,1.0,9.67,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.27,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>21.0,5.76,0.65,0.52,1.26,0.0,16.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.19,0.0,0.0,0.05,0.14,0.13,0.0,0.0,4.22,6.0,6.0,0.37,1.03,0.36,0.0,13.57,0.0,0.08,1.0,0,0,0.0,0.08,0.0,0.42,0.08,0.25,0.0,0.0,0.0,0.08,0.13,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>15.0,5.2,0.46,0.52,0.9,2.0,13.59,0.0,0.0,0.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.07,0.07,0.13,0.07,0.13,0.0,0.0,6.75,8.0,7.25,0.74,1.55,0.48,0.0,20.48,0.0,0.0,1.67,0,0,0.0,0.0,0.0,0.33,0.13,0.21,0.0,0.0,0.13,0.13,0.0,0.0,0.0,0.33</t>
+  </si>
+  <si>
+    <t>13.6,5.25,2.09,2.58,0.81,0.0,11.94,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.29,0.1,0.1,0.06,0.01,0.0,0.0,0.0,5.06,16.5,5.03,1.02,1.03,0.99,0.5,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.27,0.03,0.03,0.21,0.06,0.13,0.0,0.0,3.43</t>
   </si>
   <si>
     <t>ing they are</t>
@@ -2568,10 +2568,10 @@
     <t>?</t>
   </si>
   <si>
-    <t>71,1.0,9.67,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.15,0.15,0.0,0.0,343,0.0,10.01,0.0,0.01,0.0,0.0,0.0,0.0,0.25,0.25,0.2,0.17,0.33</t>
-  </si>
-  <si>
-    <t>586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17,319,1.0,14.29,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.3,0.3,0.0,0.0</t>
+    <t>15.0,4.73,0.46,0.52,0.9,1.0,9.67,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.07,0.27,0.07,0.07,0.13,0.0,0.0,0.0,0.0,5.6,77.0,4.45,2.37,0.52,4.6,0.0,10.01,0.0,0.01,0.0,0,0,0.0,0.0,0.0,0.23,0.1,0.19,0.01,0.01,0.17,0.0,0.0,0.33,0.33,2.42</t>
+  </si>
+  <si>
+    <t>15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82,19.33,5.5,1.79,1.55,1.16,1.0,14.29,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.17,0.19,0.21,0.1,0.1,0.02,0.07,0.0,0.0,0.0,4.29</t>
   </si>
   <si>
     <t>TV is better than books becau</t>
@@ -2598,25 +2598,25 @@
     <t>re convenient and easy to understand. It is also easy to use for people who cannot see or hear. Books are also likely to be not updated with latest information about a certain topic while information from TV can be much more accurate and useful.</t>
   </si>
   <si>
-    <t>65,0.0,9.65,0.0,0.08,1.5,0.0,0.33,0.0,0.15,0.2,0.2,0.08,0.17,131,0.0,8.97,0.0,0.07,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>319,1.0,14.29,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.3,0.3,0.0,0.0,72,0.0,13.57,0.0,0.08,1.0,0.0,0.08,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>357,0.0,11.94,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.3,0.08,0.0,131,0.0,8.97,0.0,0.07,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>78,2.0,13.59,0.0,0.0,0.0,0.0,0.07,0.0,0.05,0.1,0.1,0.0,0.0,147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17</t>
-  </si>
-  <si>
-    <t>68,1.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,357,0.0,11.94,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.3,0.08,0.0</t>
-  </si>
-  <si>
-    <t>147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17,343,0.0,10.01,0.0,0.01,0.0,0.0,0.0,0.0,0.25,0.25,0.2,0.17,0.33</t>
-  </si>
-  <si>
-    <t>317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0,586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17</t>
+    <t>6.0,5.42,0.37,1.03,0.36,0.0,9.65,0.0,0.08,1.5,0,0,0.0,0.33,0.0,0.33,0.08,0.17,0.0,0.0,0.0,0.0,0.0,0.17,0.17,8.33,14.0,4.68,0.86,1.03,0.84,0.0,8.97,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.29,0.04,0.25,0.07,0.07,0.14,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>19.33,5.5,1.79,1.55,1.16,1.0,14.29,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.17,0.19,0.21,0.1,0.1,0.02,0.07,0.0,0.0,0.0,4.29,6.0,6.0,0.37,1.03,0.36,0.0,13.57,0.0,0.08,1.0,0,0,0.0,0.08,0.0,0.42,0.08,0.25,0.0,0.0,0.0,0.08,0.13,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>13.6,5.25,2.09,2.58,0.81,0.0,11.94,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.29,0.1,0.1,0.06,0.01,0.0,0.0,0.0,5.06,14.0,4.68,0.86,1.03,0.84,0.0,8.97,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.29,0.04,0.25,0.07,0.07,0.14,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>15.0,5.2,0.46,0.52,0.9,2.0,13.59,0.0,0.0,0.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.07,0.07,0.13,0.07,0.13,0.0,0.0,6.75,29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5</t>
+  </si>
+  <si>
+    <t>13.0,5.23,0.4,0.52,0.78,1.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.15,0.31,0.08,0.08,0.08,0.0,0.0,0.0,0.0,9.8,13.6,5.25,2.09,2.58,0.81,0.0,11.94,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.29,0.1,0.1,0.06,0.01,0.0,0.0,0.0,5.06</t>
+  </si>
+  <si>
+    <t>29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5,77.0,4.45,2.37,0.52,4.6,0.0,10.01,0.0,0.01,0.0,0,0,0.0,0.0,0.0,0.23,0.1,0.19,0.01,0.01,0.17,0.0,0.0,0.33,0.33,2.42</t>
+  </si>
+  <si>
+    <t>9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23,15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82</t>
   </si>
   <si>
     <t>ch the anima</t>
@@ -2667,28 +2667,28 @@
     <t>mit or harm to our eyes, we should watch T.V. in a limit, because the excess of everything is harmful, even reading of books. &lt;br/&gt; Surveys have found that a normal person can remember 10% of what he had read and 50% of what he had listened and watched.</t>
   </si>
   <si>
-    <t>98,0.0,9.39,0.0,0.14,1.0,0.0,0.05,0.0,0.1,0.1,0.1,0.0,0.0,121,0.0,16.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>343,0.0,10.01,0.0,0.01,0.0,0.0,0.0,0.0,0.25,0.25,0.2,0.17,0.33,140,0.5,17.59,0.0,0.0,1.0,0.0,0.09,0.0,0.1,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0,121,0.0,16.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>166,0.5,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,311,1.0,16.22,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>65,0.0,9.65,0.0,0.08,1.5,0.0,0.33,0.0,0.15,0.2,0.2,0.08,0.17,77,1.0,12.02,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.08,0.0</t>
-  </si>
-  <si>
-    <t>197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0,65,0.0,9.65,0.0,0.08,1.5,0.0,0.33,0.0,0.15,0.2,0.2,0.08,0.17</t>
-  </si>
-  <si>
-    <t>251,3.0,14.85,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.25,0.25,0.08,0.0,343,0.0,10.01,0.0,0.01,0.0,0.0,0.0,0.0,0.25,0.25,0.2,0.17,0.33</t>
-  </si>
-  <si>
-    <t>586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17,197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0</t>
+    <t>21.0,4.67,0.65,0.52,1.26,0.0,9.39,0.0,0.14,1.0,0,0,0.0,0.05,6.67,0.24,0.0,0.14,0.05,0.05,0.19,0.0,0.0,0.0,0.0,3.6,21.0,5.76,0.65,0.52,1.26,0.0,16.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.19,0.0,0.0,0.05,0.14,0.13,0.0,0.0,4.22</t>
+  </si>
+  <si>
+    <t>77.0,4.45,2.37,0.52,4.6,0.0,10.01,0.0,0.01,0.0,0,0,0.0,0.0,0.0,0.23,0.1,0.19,0.01,0.01,0.17,0.0,0.0,0.33,0.33,2.42,11.0,6.36,0.68,1.03,0.66,0.5,17.59,0.0,0.0,1.0,0,0,0.0,0.09,0.0,0.27,0.09,0.14,0.0,0.0,0.09,0.09,0.25,0.0,0.0,3.8</t>
+  </si>
+  <si>
+    <t>9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08,21.0,5.76,0.65,0.52,1.26,0.0,16.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.19,0.0,0.0,0.05,0.14,0.13,0.0,0.0,4.22</t>
+  </si>
+  <si>
+    <t>16.5,5.03,1.02,1.03,0.99,0.5,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.27,0.03,0.03,0.21,0.06,0.13,0.0,0.0,3.43,56.0,5.55,1.72,0.52,3.35,1.0,16.22,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.11,0.21,0.05,0.05,0.13,0.04,0.13,0.0,0.0,4.79</t>
+  </si>
+  <si>
+    <t>6.0,5.42,0.37,1.03,0.36,0.0,9.65,0.0,0.08,1.5,0,0,0.0,0.33,0.0,0.33,0.08,0.17,0.0,0.0,0.0,0.0,0.0,0.17,0.17,8.33,15.0,5.13,0.46,0.52,0.9,1.0,12.02,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.13,0.13,0.07,0.0,0.0,0.0,0.0,1.6</t>
+  </si>
+  <si>
+    <t>7.8,5.05,1.2,2.58,0.47,0.0,8.6,0.0,0.0,2.0,0,0,0.0,0.23,0.0,0.31,0.03,0.23,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.36,6.0,5.42,0.37,1.03,0.36,0.0,9.65,0.0,0.08,1.5,0,0,0.0,0.33,0.0,0.33,0.08,0.17,0.0,0.0,0.0,0.0,0.0,0.17,0.17,8.33</t>
+  </si>
+  <si>
+    <t>47.0,5.34,1.45,0.52,2.81,3.0,14.85,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.23,0.09,0.17,0.09,0.09,0.09,0.04,0.0,0.0,0.0,4.18,77.0,4.45,2.37,0.52,4.6,0.0,10.01,0.0,0.01,0.0,0,0,0.0,0.0,0.0,0.23,0.1,0.19,0.01,0.01,0.17,0.0,0.0,0.33,0.33,2.42</t>
+  </si>
+  <si>
+    <t>15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82,7.8,5.05,1.2,2.58,0.47,0.0,8.6,0.0,0.0,2.0,0,0,0.0,0.23,0.0,0.31,0.03,0.23,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.36</t>
   </si>
   <si>
     <t>You can watch TV in one sitti</t>
@@ -2712,25 +2712,25 @@
     <t>no physical exercise will get done reading books. Exercise shows on TV make you move. SO TV IS WAY BETTER THEN BOOKS!!!!!!!</t>
   </si>
   <si>
-    <t>149,0.67,11.77,0.0,0.0,1.33,0.0,0.14,0.0,0.2,0.25,0.25,0.0,0.0,166,0.5,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>71,1.0,9.67,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.15,0.15,0.0,0.0,79,0.0,4.55,0.0,0.0,3.33,0.0,0.47,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>71,1.0,9.67,1.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,389,0.33,11.81,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>133,0.5,10.76,0.0,0.16,1.0,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0,121,0.0,16.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>77,1.0,12.02,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.08,0.0,251,3.0,14.85,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.25,0.25,0.08,0.0</t>
-  </si>
-  <si>
-    <t>131,0.0,8.97,0.0,0.07,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0,78,2.0,13.59,0.0,0.0,0.0,0.0,0.07,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>432,1.0,141.11,1.0,0.63,0.0,0.0,0.25,0.0,0.05,0.05,0.05,0.0,0.0,149,0.67,11.77,0.0,0.0,1.33,0.0,0.14,0.0,0.2,0.25,0.25,0.0,0.0</t>
+    <t>9.67,5.14,0.89,1.55,0.58,0.67,11.77,0.0,0.0,1.33,0,0,0.0,0.14,0.0,0.24,0.1,0.1,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.0,16.5,5.03,1.02,1.03,0.99,0.5,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.27,0.03,0.03,0.21,0.06,0.13,0.0,0.0,3.43</t>
+  </si>
+  <si>
+    <t>15.0,4.73,0.46,0.52,0.9,1.0,9.67,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.07,0.27,0.07,0.07,0.13,0.0,0.0,0.0,0.0,5.6,5.0,5.27,0.46,1.55,0.3,0.0,4.55,0.0,0.0,3.33,0,0,0.0,0.47,0.0,0.4,0.07,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,4.2</t>
+  </si>
+  <si>
+    <t>15.0,4.73,0.46,0.52,0.9,1.0,9.67,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.27,0.0,0.0,0.0,0.0,5.0,7.78,5.56,2.16,4.64,0.47,0.33,11.81,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.19,0.03,0.24,0.03,0.03,0.07,0.04,0.0,0.0,0.0,4.7</t>
+  </si>
+  <si>
+    <t>12.5,5.32,0.77,1.03,0.75,0.5,10.76,0.0,0.16,1.0,0,0,0.0,0.04,6.67,0.32,0.04,0.16,0.04,0.04,0.12,0.0,0.0,0.0,0.0,0.88,21.0,5.76,0.65,0.52,1.26,0.0,16.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.19,0.0,0.0,0.05,0.14,0.13,0.0,0.0,4.22</t>
+  </si>
+  <si>
+    <t>15.0,5.13,0.46,0.52,0.9,1.0,12.02,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.13,0.13,0.07,0.0,0.0,0.0,0.0,1.6,47.0,5.34,1.45,0.52,2.81,3.0,14.85,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.23,0.09,0.17,0.09,0.09,0.09,0.04,0.0,0.0,0.0,4.18</t>
+  </si>
+  <si>
+    <t>14.0,4.68,0.86,1.03,0.84,0.0,8.97,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.29,0.04,0.25,0.07,0.07,0.14,0.0,0.0,0.0,0.0,3.0,15.0,5.2,0.46,0.52,0.9,2.0,13.59,0.0,0.0,0.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.07,0.07,0.13,0.07,0.13,0.0,0.0,6.75</t>
+  </si>
+  <si>
+    <t>16.0,27.0,0.49,0.52,0.96,1.0,141.11,1.0,0.63,0.0,0,0,0.0,0.25,0.0,0.56,0.06,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,0.5,9.67,5.14,0.89,1.55,0.58,0.67,11.77,0.0,0.0,1.33,0,0,0.0,0.14,0.0,0.24,0.1,0.1,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.0</t>
   </si>
   <si>
     <t>Books you mu</t>
@@ -2763,16 +2763,16 @@
     <t>tion !!</t>
   </si>
   <si>
-    <t>174,0.0,20.48,0.0,0.0,1.67,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,131,0.0,8.97,0.0,0.07,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>98,0.0,9.39,0.0,0.14,1.0,0.0,0.05,0.0,0.1,0.1,0.1,0.0,0.0,77,1.0,12.02,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.08,0.0</t>
-  </si>
-  <si>
-    <t>71,1.0,9.67,1.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,71,1.0,9.67,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17,311,1.0,16.22,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.3,0.35,0.0,0.0</t>
+    <t>8.0,7.25,0.74,1.55,0.48,0.0,20.48,0.0,0.0,1.67,0,0,0.0,0.0,0.0,0.33,0.13,0.21,0.0,0.0,0.13,0.13,0.0,0.0,0.0,0.33,14.0,4.68,0.86,1.03,0.84,0.0,8.97,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.29,0.04,0.25,0.07,0.07,0.14,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>21.0,4.67,0.65,0.52,1.26,0.0,9.39,0.0,0.14,1.0,0,0,0.0,0.05,6.67,0.24,0.0,0.14,0.05,0.05,0.19,0.0,0.0,0.0,0.0,3.6,15.0,5.13,0.46,0.52,0.9,1.0,12.02,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.13,0.13,0.07,0.0,0.0,0.0,0.0,1.6</t>
+  </si>
+  <si>
+    <t>15.0,4.73,0.46,0.52,0.9,1.0,9.67,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.27,0.0,0.0,0.0,0.0,5.0,15.0,4.73,0.46,0.52,0.9,1.0,9.67,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.07,0.27,0.07,0.07,0.13,0.0,0.0,0.0,0.0,5.6</t>
+  </si>
+  <si>
+    <t>15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82,56.0,5.55,1.72,0.52,3.35,1.0,16.22,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.11,0.21,0.05,0.05,0.13,0.04,0.13,0.0,0.0,4.79</t>
   </si>
   <si>
     <t>I think TV is better if you a</t>
@@ -2799,22 +2799,22 @@
     <t>s better than books because you can switch to different informational channels an search documentaries on different subjects and when you are done learning and ready to relax you can switch to a funny show or what ever you want to watch.</t>
   </si>
   <si>
-    <t>85,0.0,9.51,0.0,0.62,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,126,0.0,10.54,0.0,0.04,0.0,0.0,0.0,0.0,0.05,0.15,0.15,0.25,0.0</t>
-  </si>
-  <si>
-    <t>85,0.0,9.51,0.0,0.62,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,85,2.0,9.78,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>149,0.67,11.77,0.0,0.0,1.33,0.0,0.14,0.0,0.2,0.25,0.25,0.0,0.0,72,0.0,13.57,0.0,0.08,1.0,0.0,0.08,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>169,1.0,11.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.08,0.17,72,0.0,13.57,0.0,0.08,1.0,0.0,0.08,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.0,16.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,357,0.0,11.94,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.3,0.08,0.0</t>
-  </si>
-  <si>
-    <t>586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17,239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0</t>
+    <t>13.0,6.54,0.4,0.52,0.78,0.0,9.51,0.0,0.62,0.0,7,0,0.0,0.0,0.0,0.54,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.86,27.0,4.67,0.83,0.52,1.61,0.0,10.54,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.22,0.0,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>13.0,6.54,0.4,0.52,0.78,0.0,9.51,0.0,0.62,0.0,7,0,0.0,0.0,0.0,0.54,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.86,17.0,5.0,0.52,0.52,1.02,2.0,9.78,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.29,0.12,0.06,0.06,0.0,0.06,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>9.67,5.14,0.89,1.55,0.58,0.67,11.77,0.0,0.0,1.33,0,0,0.0,0.14,0.0,0.24,0.1,0.1,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.0,6.0,6.0,0.37,1.03,0.36,0.0,13.57,0.0,0.08,1.0,0,0,0.0,0.08,0.0,0.42,0.08,0.25,0.0,0.0,0.0,0.08,0.13,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>35.0,4.83,1.08,0.52,2.09,1.0,11.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.17,0.09,0.09,0.06,0.06,0.13,0.17,0.17,2.92,6.0,6.0,0.37,1.03,0.36,0.0,13.57,0.0,0.08,1.0,0,0,0.0,0.08,0.0,0.42,0.08,0.25,0.0,0.0,0.0,0.08,0.13,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>21.0,5.76,0.65,0.52,1.26,0.0,16.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.19,0.0,0.0,0.05,0.14,0.13,0.0,0.0,4.22,13.6,5.25,2.09,2.58,0.81,0.0,11.94,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.29,0.1,0.1,0.06,0.01,0.0,0.0,0.0,5.06</t>
+  </si>
+  <si>
+    <t>15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82,9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08</t>
   </si>
   <si>
     <t>Without TV actors/actresses w</t>
@@ -2841,28 +2841,28 @@
     <t>n't know what's happening around the world. I mean the newspapers can't fit all that in. &lt;br/&gt; Books and newspapers can't give you emergency warnings or updates or new flashes</t>
   </si>
   <si>
-    <t>118,0.5,11.03,0.0,0.0,1.5,0.0,0.04,0.0,0.15,0.15,0.15,0.0,0.0,133,0.5,10.76,0.0,0.16,1.0,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>71,1.0,9.67,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.15,0.15,0.0,0.0,60,0.0,8.19,0.0,0.09,4.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,0.0,9.51,0.0,0.62,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,98,0.0,9.39,0.0,0.14,1.0,0.0,0.05,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>343,0.0,10.01,0.0,0.01,0.0,0.0,0.0,0.0,0.25,0.25,0.2,0.17,0.33,85,2.0,9.78,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>133,0.5,10.76,0.0,0.16,1.0,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0,319,1.0,14.29,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0,98,0.0,9.39,0.0,0.14,1.0,0.0,0.05,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,0.0,20.48,0.0,0.0,1.67,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,166,0.5,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>251,3.0,14.85,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.25,0.25,0.08,0.0,389,0.33,11.81,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>11.5,5.13,0.71,1.03,0.69,0.5,11.03,0.0,0.0,1.5,0,0,0.0,0.04,0.0,0.22,0.04,0.26,0.0,0.0,0.09,0.0,0.0,0.0,0.0,6.67,12.5,5.32,0.77,1.03,0.75,0.5,10.76,0.0,0.16,1.0,0,0,0.0,0.04,6.67,0.32,0.04,0.16,0.04,0.04,0.12,0.0,0.0,0.0,0.0,0.88</t>
+  </si>
+  <si>
+    <t>15.0,4.73,0.46,0.52,0.9,1.0,9.67,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.07,0.27,0.07,0.07,0.13,0.0,0.0,0.0,0.0,5.6,11.0,5.45,0.34,0.52,0.66,0.0,8.19,0.0,0.09,4.0,0,0,0.0,0.0,0.0,0.18,0.18,0.36,0.09,0.09,0.0,0.0,0.0,0.0,0.0,7.25</t>
+  </si>
+  <si>
+    <t>13.0,6.54,0.4,0.52,0.78,0.0,9.51,0.0,0.62,0.0,7,0,0.0,0.0,0.0,0.54,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.86,21.0,4.67,0.65,0.52,1.26,0.0,9.39,0.0,0.14,1.0,0,0,0.0,0.05,6.67,0.24,0.0,0.14,0.05,0.05,0.19,0.0,0.0,0.0,0.0,3.6</t>
+  </si>
+  <si>
+    <t>77.0,4.45,2.37,0.52,4.6,0.0,10.01,0.0,0.01,0.0,0,0,0.0,0.0,0.0,0.23,0.1,0.19,0.01,0.01,0.17,0.0,0.0,0.33,0.33,2.42,17.0,5.0,0.52,0.52,1.02,2.0,9.78,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.29,0.12,0.06,0.06,0.0,0.06,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>12.5,5.32,0.77,1.03,0.75,0.5,10.76,0.0,0.16,1.0,0,0,0.0,0.04,6.67,0.32,0.04,0.16,0.04,0.04,0.12,0.0,0.0,0.0,0.0,0.88,19.33,5.5,1.79,1.55,1.16,1.0,14.29,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.17,0.19,0.21,0.1,0.1,0.02,0.07,0.0,0.0,0.0,4.29</t>
+  </si>
+  <si>
+    <t>9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08,21.0,4.67,0.65,0.52,1.26,0.0,9.39,0.0,0.14,1.0,0,0,0.0,0.05,6.67,0.24,0.0,0.14,0.05,0.05,0.19,0.0,0.0,0.0,0.0,3.6</t>
+  </si>
+  <si>
+    <t>8.0,7.25,0.74,1.55,0.48,0.0,20.48,0.0,0.0,1.67,0,0,0.0,0.0,0.0,0.33,0.13,0.21,0.0,0.0,0.13,0.13,0.0,0.0,0.0,0.33,16.5,5.03,1.02,1.03,0.99,0.5,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.27,0.03,0.03,0.21,0.06,0.13,0.0,0.0,3.43</t>
+  </si>
+  <si>
+    <t>47.0,5.34,1.45,0.52,2.81,3.0,14.85,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.23,0.09,0.17,0.09,0.09,0.09,0.04,0.0,0.0,0.0,4.18,7.78,5.56,2.16,4.64,0.47,0.33,11.81,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.19,0.03,0.24,0.03,0.03,0.07,0.04,0.0,0.0,0.0,4.7</t>
   </si>
   <si>
     <t>eover we can</t>
@@ -2901,22 +2901,22 @@
     <t>ty.</t>
   </si>
   <si>
-    <t>169,1.0,11.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.08,0.17,135,0.0,10.94,0.0,0.29,27.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,2.0,9.78,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.1,0.0,0.0,357,0.0,11.94,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.3,0.08,0.0</t>
-  </si>
-  <si>
-    <t>85,2.0,9.78,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.1,0.0,0.0,317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>71,1.0,9.67,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.15,0.15,0.0,0.0,317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,0.0,20.48,0.0,0.0,1.67,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,319,1.0,14.29,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>432,1.0,141.11,1.0,0.63,0.0,0.0,0.25,0.0,0.05,0.05,0.05,0.0,0.0,118,0.5,11.03,0.0,0.0,1.5,0.0,0.04,0.0,0.15,0.15,0.15,0.0,0.0</t>
+    <t>35.0,4.83,1.08,0.52,2.09,1.0,11.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.17,0.09,0.09,0.06,0.06,0.13,0.17,0.17,2.92,24.0,5.63,0.74,0.52,1.43,0.0,10.94,0.0,0.29,27.0,0,0,0.0,0.0,0.0,0.46,0.08,0.13,0.04,0.04,0.04,0.0,0.0,0.0,0.0,1.82</t>
+  </si>
+  <si>
+    <t>17.0,5.0,0.52,0.52,1.02,2.0,9.78,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.29,0.12,0.06,0.06,0.0,0.06,0.0,0.0,0.0,5.29,13.6,5.25,2.09,2.58,0.81,0.0,11.94,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.29,0.1,0.1,0.06,0.01,0.0,0.0,0.0,5.06</t>
+  </si>
+  <si>
+    <t>17.0,5.0,0.52,0.52,1.02,2.0,9.78,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.29,0.12,0.06,0.06,0.0,0.06,0.0,0.0,0.0,5.29,9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23</t>
+  </si>
+  <si>
+    <t>15.0,4.73,0.46,0.52,0.9,1.0,9.67,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.07,0.27,0.07,0.07,0.13,0.0,0.0,0.0,0.0,5.6,9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23</t>
+  </si>
+  <si>
+    <t>8.0,7.25,0.74,1.55,0.48,0.0,20.48,0.0,0.0,1.67,0,0,0.0,0.0,0.0,0.33,0.13,0.21,0.0,0.0,0.13,0.13,0.0,0.0,0.0,0.33,19.33,5.5,1.79,1.55,1.16,1.0,14.29,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.17,0.19,0.21,0.1,0.1,0.02,0.07,0.0,0.0,0.0,4.29</t>
+  </si>
+  <si>
+    <t>16.0,27.0,0.49,0.52,0.96,1.0,141.11,1.0,0.63,0.0,0,0,0.0,0.25,0.0,0.56,0.06,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,0.5,11.5,5.13,0.71,1.03,0.69,0.5,11.03,0.0,0.0,1.5,0,0,0.0,0.04,0.0,0.22,0.04,0.26,0.0,0.0,0.09,0.0,0.0,0.0,0.0,6.67</t>
   </si>
   <si>
     <t>debate can y</t>
@@ -2937,31 +2937,31 @@
     <t>!</t>
   </si>
   <si>
-    <t>343,0.0,10.01,0.0,0.01,0.0,0.0,0.0,0.0,0.25,0.25,0.2,0.17,0.33,169,1.0,11.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.08,0.17</t>
-  </si>
-  <si>
-    <t>319,1.0,14.29,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.3,0.3,0.0,0.0,71,1.0,9.67,1.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>133,0.5,10.76,0.0,0.16,1.0,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0,197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>77,1.0,12.02,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.08,0.0,60,0.0,8.19,0.0,0.09,4.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0,317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>319,1.0,14.29,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.3,0.3,0.0,0.0,149,0.67,11.77,0.0,0.0,1.33,0.0,0.14,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>251,3.0,14.85,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.25,0.25,0.08,0.0,133,0.5,10.76,0.0,0.16,1.0,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0,147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17</t>
-  </si>
-  <si>
-    <t>343,0.0,10.01,0.0,0.01,0.0,0.0,0.0,0.0,0.25,0.25,0.2,0.17,0.33,311,1.0,16.22,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.3,0.35,0.0,0.0</t>
+    <t>77.0,4.45,2.37,0.52,4.6,0.0,10.01,0.0,0.01,0.0,0,0,0.0,0.0,0.0,0.23,0.1,0.19,0.01,0.01,0.17,0.0,0.0,0.33,0.33,2.42,35.0,4.83,1.08,0.52,2.09,1.0,11.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.17,0.09,0.09,0.06,0.06,0.13,0.17,0.17,2.92</t>
+  </si>
+  <si>
+    <t>19.33,5.5,1.79,1.55,1.16,1.0,14.29,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.17,0.19,0.21,0.1,0.1,0.02,0.07,0.0,0.0,0.0,4.29,15.0,4.73,0.46,0.52,0.9,1.0,9.67,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.27,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>12.5,5.32,0.77,1.03,0.75,0.5,10.76,0.0,0.16,1.0,0,0,0.0,0.04,6.67,0.32,0.04,0.16,0.04,0.04,0.12,0.0,0.0,0.0,0.0,0.88,7.8,5.05,1.2,2.58,0.47,0.0,8.6,0.0,0.0,2.0,0,0,0.0,0.23,0.0,0.31,0.03,0.23,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.36</t>
+  </si>
+  <si>
+    <t>15.0,5.13,0.46,0.52,0.9,1.0,12.02,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.13,0.13,0.07,0.0,0.0,0.0,0.0,1.6,11.0,5.45,0.34,0.52,0.66,0.0,8.19,0.0,0.09,4.0,0,0,0.0,0.0,0.0,0.18,0.18,0.36,0.09,0.09,0.0,0.0,0.0,0.0,0.0,7.25</t>
+  </si>
+  <si>
+    <t>7.8,5.05,1.2,2.58,0.47,0.0,8.6,0.0,0.0,2.0,0,0,0.0,0.23,0.0,0.31,0.03,0.23,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.36,9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23</t>
+  </si>
+  <si>
+    <t>19.33,5.5,1.79,1.55,1.16,1.0,14.29,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.17,0.19,0.21,0.1,0.1,0.02,0.07,0.0,0.0,0.0,4.29,9.67,5.14,0.89,1.55,0.58,0.67,11.77,0.0,0.0,1.33,0,0,0.0,0.14,0.0,0.24,0.1,0.1,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>47.0,5.34,1.45,0.52,2.81,3.0,14.85,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.23,0.09,0.17,0.09,0.09,0.09,0.04,0.0,0.0,0.0,4.18,12.5,5.32,0.77,1.03,0.75,0.5,10.76,0.0,0.16,1.0,0,0,0.0,0.04,6.67,0.32,0.04,0.16,0.04,0.04,0.12,0.0,0.0,0.0,0.0,0.88</t>
+  </si>
+  <si>
+    <t>9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23,29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5</t>
+  </si>
+  <si>
+    <t>77.0,4.45,2.37,0.52,4.6,0.0,10.01,0.0,0.01,0.0,0,0,0.0,0.0,0.0,0.23,0.1,0.19,0.01,0.01,0.17,0.0,0.0,0.33,0.33,2.42,56.0,5.55,1.72,0.52,3.35,1.0,16.22,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.11,0.21,0.05,0.05,0.13,0.04,0.13,0.0,0.0,4.79</t>
   </si>
   <si>
     <t>rent subject</t>
@@ -3003,22 +3003,22 @@
     <t>ant to w</t>
   </si>
   <si>
-    <t>133,0.5,10.76,0.0,0.16,1.0,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0,343,0.0,10.01,0.0,0.01,0.0,0.0,0.0,0.0,0.25,0.25,0.2,0.17,0.33</t>
-  </si>
-  <si>
-    <t>85,2.0,9.78,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.1,0.0,0.0,71,1.0,9.67,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>71,1.0,9.67,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.15,0.15,0.0,0.0,147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17</t>
-  </si>
-  <si>
-    <t>239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0,126,0.0,10.54,0.0,0.04,0.0,0.0,0.0,0.0,0.05,0.15,0.15,0.25,0.0</t>
-  </si>
-  <si>
-    <t>126,0.0,10.54,0.0,0.04,0.0,0.0,0.0,0.0,0.05,0.15,0.15,0.25,0.0,71,1.0,9.67,1.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>166,0.5,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,389,0.33,11.81,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>12.5,5.32,0.77,1.03,0.75,0.5,10.76,0.0,0.16,1.0,0,0,0.0,0.04,6.67,0.32,0.04,0.16,0.04,0.04,0.12,0.0,0.0,0.0,0.0,0.88,77.0,4.45,2.37,0.52,4.6,0.0,10.01,0.0,0.01,0.0,0,0,0.0,0.0,0.0,0.23,0.1,0.19,0.01,0.01,0.17,0.0,0.0,0.33,0.33,2.42</t>
+  </si>
+  <si>
+    <t>17.0,5.0,0.52,0.52,1.02,2.0,9.78,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.29,0.12,0.06,0.06,0.0,0.06,0.0,0.0,0.0,5.29,15.0,4.73,0.46,0.52,0.9,1.0,9.67,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.07,0.27,0.07,0.07,0.13,0.0,0.0,0.0,0.0,5.6</t>
+  </si>
+  <si>
+    <t>15.0,4.73,0.46,0.52,0.9,1.0,9.67,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.07,0.27,0.07,0.07,0.13,0.0,0.0,0.0,0.0,5.6,29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5</t>
+  </si>
+  <si>
+    <t>9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08,27.0,4.67,0.83,0.52,1.61,0.0,10.54,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.22,0.0,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>27.0,4.67,0.83,0.52,1.61,0.0,10.54,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.22,0.0,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,3.25,15.0,4.73,0.46,0.52,0.9,1.0,9.67,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.27,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>16.5,5.03,1.02,1.03,0.99,0.5,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.27,0.03,0.03,0.21,0.06,0.13,0.0,0.0,3.43,7.78,5.56,2.16,4.64,0.47,0.33,11.81,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.19,0.03,0.24,0.03,0.03,0.07,0.04,0.0,0.0,0.0,4.7</t>
   </si>
   <si>
     <t>ich also was</t>
@@ -3033,70 +3033,70 @@
     <t>rici</t>
   </si>
   <si>
-    <t>133,0.5,10.76,0.0,0.16,1.0,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0,65,0.0,9.65,0.0,0.08,1.5,0.0,0.33,0.0,0.15,0.2,0.2,0.08,0.17</t>
-  </si>
-  <si>
-    <t>149,0.67,11.77,0.0,0.0,1.33,0.0,0.14,0.0,0.2,0.25,0.25,0.0,0.0,135,0.0,10.94,0.0,0.29,27.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>251,3.0,14.85,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.25,0.25,0.08,0.0,85,0.0,9.51,0.0,0.62,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,0.5,11.03,0.0,0.0,1.5,0.0,0.04,0.0,0.15,0.15,0.15,0.0,0.0,78,2.0,13.59,0.0,0.0,0.0,0.0,0.07,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.0,16.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,79,0.0,4.55,0.0,0.0,3.33,0.0,0.47,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>149,0.67,11.77,0.0,0.0,1.33,0.0,0.14,0.0,0.2,0.25,0.25,0.0,0.0,68,1.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>79,0.0,4.55,0.0,0.0,3.33,0.0,0.47,0.0,0.1,0.1,0.1,0.0,0.0,357,0.0,11.94,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.3,0.08,0.0</t>
-  </si>
-  <si>
-    <t>72,0.0,13.57,0.0,0.08,1.0,0.0,0.08,0.0,0.1,0.1,0.1,0.0,0.0,140,0.5,17.59,0.0,0.0,1.0,0.0,0.09,0.0,0.1,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>65,0.0,9.65,0.0,0.08,1.5,0.0,0.33,0.0,0.15,0.2,0.2,0.08,0.17,72,0.0,13.57,0.0,0.08,1.0,0.0,0.08,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>60,0.0,8.19,0.0,0.09,4.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,140,0.5,17.59,0.0,0.0,1.0,0.0,0.09,0.0,0.1,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>389,0.33,11.81,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.35,0.35,0.0,0.0,147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17</t>
+    <t>12.5,5.32,0.77,1.03,0.75,0.5,10.76,0.0,0.16,1.0,0,0,0.0,0.04,6.67,0.32,0.04,0.16,0.04,0.04,0.12,0.0,0.0,0.0,0.0,0.88,6.0,5.42,0.37,1.03,0.36,0.0,9.65,0.0,0.08,1.5,0,0,0.0,0.33,0.0,0.33,0.08,0.17,0.0,0.0,0.0,0.0,0.0,0.17,0.17,8.33</t>
+  </si>
+  <si>
+    <t>9.67,5.14,0.89,1.55,0.58,0.67,11.77,0.0,0.0,1.33,0,0,0.0,0.14,0.0,0.24,0.1,0.1,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.0,24.0,5.63,0.74,0.52,1.43,0.0,10.94,0.0,0.29,27.0,0,0,0.0,0.0,0.0,0.46,0.08,0.13,0.04,0.04,0.04,0.0,0.0,0.0,0.0,1.82</t>
+  </si>
+  <si>
+    <t>47.0,5.34,1.45,0.52,2.81,3.0,14.85,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.23,0.09,0.17,0.09,0.09,0.09,0.04,0.0,0.0,0.0,4.18,13.0,6.54,0.4,0.52,0.78,0.0,9.51,0.0,0.62,0.0,7,0,0.0,0.0,0.0,0.54,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.86</t>
+  </si>
+  <si>
+    <t>11.5,5.13,0.71,1.03,0.69,0.5,11.03,0.0,0.0,1.5,0,0,0.0,0.04,0.0,0.22,0.04,0.26,0.0,0.0,0.09,0.0,0.0,0.0,0.0,6.67,15.0,5.2,0.46,0.52,0.9,2.0,13.59,0.0,0.0,0.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.07,0.07,0.13,0.07,0.13,0.0,0.0,6.75</t>
+  </si>
+  <si>
+    <t>21.0,5.76,0.65,0.52,1.26,0.0,16.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.19,0.0,0.0,0.05,0.14,0.13,0.0,0.0,4.22,5.0,5.27,0.46,1.55,0.3,0.0,4.55,0.0,0.0,3.33,0,0,0.0,0.47,0.0,0.4,0.07,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,4.2</t>
+  </si>
+  <si>
+    <t>9.67,5.14,0.89,1.55,0.58,0.67,11.77,0.0,0.0,1.33,0,0,0.0,0.14,0.0,0.24,0.1,0.1,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.0,13.0,5.23,0.4,0.52,0.78,1.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.15,0.31,0.08,0.08,0.08,0.0,0.0,0.0,0.0,9.8</t>
+  </si>
+  <si>
+    <t>5.0,5.27,0.46,1.55,0.3,0.0,4.55,0.0,0.0,3.33,0,0,0.0,0.47,0.0,0.4,0.07,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,4.2,13.6,5.25,2.09,2.58,0.81,0.0,11.94,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.29,0.1,0.1,0.06,0.01,0.0,0.0,0.0,5.06</t>
+  </si>
+  <si>
+    <t>6.0,6.0,0.37,1.03,0.36,0.0,13.57,0.0,0.08,1.0,0,0,0.0,0.08,0.0,0.42,0.08,0.25,0.0,0.0,0.0,0.08,0.13,0.0,0.0,1.0,11.0,6.36,0.68,1.03,0.66,0.5,17.59,0.0,0.0,1.0,0,0,0.0,0.09,0.0,0.27,0.09,0.14,0.0,0.0,0.09,0.09,0.25,0.0,0.0,3.8</t>
+  </si>
+  <si>
+    <t>6.0,5.42,0.37,1.03,0.36,0.0,9.65,0.0,0.08,1.5,0,0,0.0,0.33,0.0,0.33,0.08,0.17,0.0,0.0,0.0,0.0,0.0,0.17,0.17,8.33,6.0,6.0,0.37,1.03,0.36,0.0,13.57,0.0,0.08,1.0,0,0,0.0,0.08,0.0,0.42,0.08,0.25,0.0,0.0,0.0,0.08,0.13,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>11.0,5.45,0.34,0.52,0.66,0.0,8.19,0.0,0.09,4.0,0,0,0.0,0.0,0.0,0.18,0.18,0.36,0.09,0.09,0.0,0.0,0.0,0.0,0.0,7.25,11.0,6.36,0.68,1.03,0.66,0.5,17.59,0.0,0.0,1.0,0,0,0.0,0.09,0.0,0.27,0.09,0.14,0.0,0.0,0.09,0.09,0.25,0.0,0.0,3.8</t>
+  </si>
+  <si>
+    <t>7.78,5.56,2.16,4.64,0.47,0.33,11.81,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.19,0.03,0.24,0.03,0.03,0.07,0.04,0.0,0.0,0.0,4.7,29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5</t>
   </si>
   <si>
     <t>om a book.</t>
   </si>
   <si>
-    <t>68,1.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,71,1.0,9.67,1.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>78,2.0,13.59,0.0,0.0,0.0,0.0,0.07,0.0,0.05,0.1,0.1,0.0,0.0,140,0.5,17.59,0.0,0.0,1.0,0.0,0.09,0.0,0.1,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>149,0.67,11.77,0.0,0.0,1.33,0.0,0.14,0.0,0.2,0.25,0.25,0.0,0.0,118,0.5,11.03,0.0,0.0,1.5,0.0,0.04,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>78,2.0,13.59,0.0,0.0,0.0,0.0,0.07,0.0,0.05,0.1,0.1,0.0,0.0,343,0.0,10.01,0.0,0.01,0.0,0.0,0.0,0.0,0.25,0.25,0.2,0.17,0.33</t>
-  </si>
-  <si>
-    <t>239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0,149,0.67,11.77,0.0,0.0,1.33,0.0,0.14,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>71,1.0,9.67,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.15,0.15,0.0,0.0,586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17</t>
-  </si>
-  <si>
-    <t>85,0.0,9.51,0.0,0.62,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>71,1.0,9.67,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.15,0.15,0.0,0.0,98,0.0,9.39,0.0,0.14,1.0,0.0,0.05,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>135,0.0,10.94,0.0,0.29,27.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,357,0.0,11.94,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.3,0.08,0.0</t>
-  </si>
-  <si>
-    <t>586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17,357,0.0,11.94,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.3,0.08,0.0</t>
+    <t>13.0,5.23,0.4,0.52,0.78,1.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.15,0.31,0.08,0.08,0.08,0.0,0.0,0.0,0.0,9.8,15.0,4.73,0.46,0.52,0.9,1.0,9.67,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.27,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>15.0,5.2,0.46,0.52,0.9,2.0,13.59,0.0,0.0,0.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.07,0.07,0.13,0.07,0.13,0.0,0.0,6.75,11.0,6.36,0.68,1.03,0.66,0.5,17.59,0.0,0.0,1.0,0,0,0.0,0.09,0.0,0.27,0.09,0.14,0.0,0.0,0.09,0.09,0.25,0.0,0.0,3.8</t>
+  </si>
+  <si>
+    <t>9.67,5.14,0.89,1.55,0.58,0.67,11.77,0.0,0.0,1.33,0,0,0.0,0.14,0.0,0.24,0.1,0.1,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.0,11.5,5.13,0.71,1.03,0.69,0.5,11.03,0.0,0.0,1.5,0,0,0.0,0.04,0.0,0.22,0.04,0.26,0.0,0.0,0.09,0.0,0.0,0.0,0.0,6.67</t>
+  </si>
+  <si>
+    <t>15.0,5.2,0.46,0.52,0.9,2.0,13.59,0.0,0.0,0.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.07,0.07,0.13,0.07,0.13,0.0,0.0,6.75,77.0,4.45,2.37,0.52,4.6,0.0,10.01,0.0,0.01,0.0,0,0,0.0,0.0,0.0,0.23,0.1,0.19,0.01,0.01,0.17,0.0,0.0,0.33,0.33,2.42</t>
+  </si>
+  <si>
+    <t>9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08,9.67,5.14,0.89,1.55,0.58,0.67,11.77,0.0,0.0,1.33,0,0,0.0,0.14,0.0,0.24,0.1,0.1,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>15.0,4.73,0.46,0.52,0.9,1.0,9.67,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.07,0.27,0.07,0.07,0.13,0.0,0.0,0.0,0.0,5.6,15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82</t>
+  </si>
+  <si>
+    <t>13.0,6.54,0.4,0.52,0.78,0.0,9.51,0.0,0.62,0.0,7,0,0.0,0.0,0.0,0.54,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.86,9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08</t>
+  </si>
+  <si>
+    <t>15.0,4.73,0.46,0.52,0.9,1.0,9.67,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.07,0.27,0.07,0.07,0.13,0.0,0.0,0.0,0.0,5.6,21.0,4.67,0.65,0.52,1.26,0.0,9.39,0.0,0.14,1.0,0,0,0.0,0.05,6.67,0.24,0.0,0.14,0.05,0.05,0.19,0.0,0.0,0.0,0.0,3.6</t>
+  </si>
+  <si>
+    <t>24.0,5.63,0.74,0.52,1.43,0.0,10.94,0.0,0.29,27.0,0,0,0.0,0.0,0.0,0.46,0.08,0.13,0.04,0.04,0.04,0.0,0.0,0.0,0.0,1.82,13.6,5.25,2.09,2.58,0.81,0.0,11.94,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.29,0.1,0.1,0.06,0.01,0.0,0.0,0.0,5.06</t>
+  </si>
+  <si>
+    <t>15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82,13.6,5.25,2.09,2.58,0.81,0.0,11.94,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.29,0.1,0.1,0.06,0.01,0.0,0.0,0.0,5.06</t>
   </si>
   <si>
     <t>People who are against tv kee</t>
@@ -3129,16 +3129,16 @@
     <t>not going to go for a run and bring a book to read on the way. I think it is much easier to exercise watching tv then reading a book. &lt;br/&gt; In gyms people do not have books infront of them, instead they have telvisions. &lt;br/&gt; Studies have shown that telivision is even more stimulating than books.</t>
   </si>
   <si>
-    <t>140,0.5,17.59,0.0,0.0,1.0,0.0,0.09,0.0,0.1,0.15,0.2,0.0,0.0,85,2.0,9.78,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.0,16.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,60,0.0,8.19,0.0,0.09,4.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>251,3.0,14.85,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.25,0.25,0.08,0.0,78,2.0,13.59,0.0,0.0,0.0,0.0,0.07,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>432,1.0,141.11,1.0,0.63,0.0,0.0,0.25,0.0,0.05,0.05,0.05,0.0,0.0,343,0.0,10.01,0.0,0.01,0.0,0.0,0.0,0.0,0.25,0.25,0.2,0.17,0.33</t>
+    <t>11.0,6.36,0.68,1.03,0.66,0.5,17.59,0.0,0.0,1.0,0,0,0.0,0.09,0.0,0.27,0.09,0.14,0.0,0.0,0.09,0.09,0.25,0.0,0.0,3.8,17.0,5.0,0.52,0.52,1.02,2.0,9.78,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.29,0.12,0.06,0.06,0.0,0.06,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>21.0,5.76,0.65,0.52,1.26,0.0,16.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.19,0.0,0.0,0.05,0.14,0.13,0.0,0.0,4.22,11.0,5.45,0.34,0.52,0.66,0.0,8.19,0.0,0.09,4.0,0,0,0.0,0.0,0.0,0.18,0.18,0.36,0.09,0.09,0.0,0.0,0.0,0.0,0.0,7.25</t>
+  </si>
+  <si>
+    <t>47.0,5.34,1.45,0.52,2.81,3.0,14.85,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.23,0.09,0.17,0.09,0.09,0.09,0.04,0.0,0.0,0.0,4.18,15.0,5.2,0.46,0.52,0.9,2.0,13.59,0.0,0.0,0.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.07,0.07,0.13,0.07,0.13,0.0,0.0,6.75</t>
+  </si>
+  <si>
+    <t>16.0,27.0,0.49,0.52,0.96,1.0,141.11,1.0,0.63,0.0,0,0,0.0,0.25,0.0,0.56,0.06,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,0.5,77.0,4.45,2.37,0.52,4.6,0.0,10.01,0.0,0.01,0.0,0,0,0.0,0.0,0.0,0.23,0.1,0.19,0.01,0.01,0.17,0.0,0.0,0.33,0.33,2.42</t>
   </si>
   <si>
     <t>the morning</t>
@@ -3195,61 +3195,61 @@
     <t>day when you find out that you are lesbian it is like the day that you realize you just wasted your time reading this</t>
   </si>
   <si>
-    <t>98,0.0,9.39,0.0,0.14,1.0,0.0,0.05,0.0,0.1,0.1,0.1,0.0,0.0,147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17</t>
-  </si>
-  <si>
-    <t>121,0.0,16.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,174,0.0,20.48,0.0,0.0,1.67,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>68,1.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,135,0.0,10.94,0.0,0.29,27.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>71,1.0,9.67,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.15,0.15,0.0,0.0,65,0.0,9.65,0.0,0.08,1.5,0.0,0.33,0.0,0.15,0.2,0.2,0.08,0.17</t>
-  </si>
-  <si>
-    <t>343,0.0,10.01,0.0,0.01,0.0,0.0,0.0,0.0,0.25,0.25,0.2,0.17,0.33,149,0.67,11.77,0.0,0.0,1.33,0.0,0.14,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>68,1.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,126,0.0,10.54,0.0,0.04,0.0,0.0,0.0,0.0,0.05,0.15,0.15,0.25,0.0</t>
-  </si>
-  <si>
-    <t>140,0.5,17.59,0.0,0.0,1.0,0.0,0.09,0.0,0.1,0.15,0.2,0.0,0.0,121,0.0,16.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>389,0.33,11.81,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.35,0.35,0.0,0.0,79,0.0,4.55,0.0,0.0,3.33,0.0,0.47,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,0.0,20.48,0.0,0.0,1.67,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,251,3.0,14.85,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.25,0.25,0.08,0.0</t>
-  </si>
-  <si>
-    <t>357,0.0,11.94,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.3,0.08,0.0,126,0.0,10.54,0.0,0.04,0.0,0.0,0.0,0.0,0.05,0.15,0.15,0.25,0.0</t>
-  </si>
-  <si>
-    <t>98,0.0,9.39,0.0,0.14,1.0,0.0,0.05,0.0,0.1,0.1,0.1,0.0,0.0,118,0.5,11.03,0.0,0.0,1.5,0.0,0.04,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,0.0,9.51,0.0,0.62,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,166,0.5,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>251,3.0,14.85,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.25,0.25,0.08,0.0,149,0.67,11.77,0.0,0.0,1.33,0.0,0.14,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,0.0,20.48,0.0,0.0,1.67,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17</t>
-  </si>
-  <si>
-    <t>71,1.0,9.67,1.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,60,0.0,8.19,0.0,0.09,4.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>166,0.5,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,135,0.0,10.94,0.0,0.29,27.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>78,2.0,13.59,0.0,0.0,0.0,0.0,0.07,0.0,0.05,0.1,0.1,0.0,0.0,77,1.0,12.02,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.08,0.0</t>
-  </si>
-  <si>
-    <t>311,1.0,16.22,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.3,0.35,0.0,0.0,121,0.0,16.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0,239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0</t>
+    <t>21.0,4.67,0.65,0.52,1.26,0.0,9.39,0.0,0.14,1.0,0,0,0.0,0.05,6.67,0.24,0.0,0.14,0.05,0.05,0.19,0.0,0.0,0.0,0.0,3.6,29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5</t>
+  </si>
+  <si>
+    <t>21.0,5.76,0.65,0.52,1.26,0.0,16.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.19,0.0,0.0,0.05,0.14,0.13,0.0,0.0,4.22,8.0,7.25,0.74,1.55,0.48,0.0,20.48,0.0,0.0,1.67,0,0,0.0,0.0,0.0,0.33,0.13,0.21,0.0,0.0,0.13,0.13,0.0,0.0,0.0,0.33</t>
+  </si>
+  <si>
+    <t>13.0,5.23,0.4,0.52,0.78,1.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.15,0.31,0.08,0.08,0.08,0.0,0.0,0.0,0.0,9.8,24.0,5.63,0.74,0.52,1.43,0.0,10.94,0.0,0.29,27.0,0,0,0.0,0.0,0.0,0.46,0.08,0.13,0.04,0.04,0.04,0.0,0.0,0.0,0.0,1.82</t>
+  </si>
+  <si>
+    <t>15.0,4.73,0.46,0.52,0.9,1.0,9.67,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.07,0.27,0.07,0.07,0.13,0.0,0.0,0.0,0.0,5.6,6.0,5.42,0.37,1.03,0.36,0.0,9.65,0.0,0.08,1.5,0,0,0.0,0.33,0.0,0.33,0.08,0.17,0.0,0.0,0.0,0.0,0.0,0.17,0.17,8.33</t>
+  </si>
+  <si>
+    <t>77.0,4.45,2.37,0.52,4.6,0.0,10.01,0.0,0.01,0.0,0,0,0.0,0.0,0.0,0.23,0.1,0.19,0.01,0.01,0.17,0.0,0.0,0.33,0.33,2.42,9.67,5.14,0.89,1.55,0.58,0.67,11.77,0.0,0.0,1.33,0,0,0.0,0.14,0.0,0.24,0.1,0.1,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>13.0,5.23,0.4,0.52,0.78,1.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.15,0.31,0.08,0.08,0.08,0.0,0.0,0.0,0.0,9.8,27.0,4.67,0.83,0.52,1.61,0.0,10.54,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.22,0.0,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>11.0,6.36,0.68,1.03,0.66,0.5,17.59,0.0,0.0,1.0,0,0,0.0,0.09,0.0,0.27,0.09,0.14,0.0,0.0,0.09,0.09,0.25,0.0,0.0,3.8,21.0,5.76,0.65,0.52,1.26,0.0,16.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.19,0.0,0.0,0.05,0.14,0.13,0.0,0.0,4.22</t>
+  </si>
+  <si>
+    <t>7.78,5.56,2.16,4.64,0.47,0.33,11.81,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.19,0.03,0.24,0.03,0.03,0.07,0.04,0.0,0.0,0.0,4.7,5.0,5.27,0.46,1.55,0.3,0.0,4.55,0.0,0.0,3.33,0,0,0.0,0.47,0.0,0.4,0.07,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,4.2</t>
+  </si>
+  <si>
+    <t>8.0,7.25,0.74,1.55,0.48,0.0,20.48,0.0,0.0,1.67,0,0,0.0,0.0,0.0,0.33,0.13,0.21,0.0,0.0,0.13,0.13,0.0,0.0,0.0,0.33,47.0,5.34,1.45,0.52,2.81,3.0,14.85,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.23,0.09,0.17,0.09,0.09,0.09,0.04,0.0,0.0,0.0,4.18</t>
+  </si>
+  <si>
+    <t>13.6,5.25,2.09,2.58,0.81,0.0,11.94,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.29,0.1,0.1,0.06,0.01,0.0,0.0,0.0,5.06,27.0,4.67,0.83,0.52,1.61,0.0,10.54,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.22,0.0,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>21.0,4.67,0.65,0.52,1.26,0.0,9.39,0.0,0.14,1.0,0,0,0.0,0.05,6.67,0.24,0.0,0.14,0.05,0.05,0.19,0.0,0.0,0.0,0.0,3.6,11.5,5.13,0.71,1.03,0.69,0.5,11.03,0.0,0.0,1.5,0,0,0.0,0.04,0.0,0.22,0.04,0.26,0.0,0.0,0.09,0.0,0.0,0.0,0.0,6.67</t>
+  </si>
+  <si>
+    <t>13.0,6.54,0.4,0.52,0.78,0.0,9.51,0.0,0.62,0.0,7,0,0.0,0.0,0.0,0.54,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.86,16.5,5.03,1.02,1.03,0.99,0.5,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.27,0.03,0.03,0.21,0.06,0.13,0.0,0.0,3.43</t>
+  </si>
+  <si>
+    <t>47.0,5.34,1.45,0.52,2.81,3.0,14.85,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.23,0.09,0.17,0.09,0.09,0.09,0.04,0.0,0.0,0.0,4.18,9.67,5.14,0.89,1.55,0.58,0.67,11.77,0.0,0.0,1.33,0,0,0.0,0.14,0.0,0.24,0.1,0.1,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>8.0,7.25,0.74,1.55,0.48,0.0,20.48,0.0,0.0,1.67,0,0,0.0,0.0,0.0,0.33,0.13,0.21,0.0,0.0,0.13,0.13,0.0,0.0,0.0,0.33,29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5</t>
+  </si>
+  <si>
+    <t>15.0,4.73,0.46,0.52,0.9,1.0,9.67,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.27,0.0,0.0,0.0,0.0,5.0,11.0,5.45,0.34,0.52,0.66,0.0,8.19,0.0,0.09,4.0,0,0,0.0,0.0,0.0,0.18,0.18,0.36,0.09,0.09,0.0,0.0,0.0,0.0,0.0,7.25</t>
+  </si>
+  <si>
+    <t>16.5,5.03,1.02,1.03,0.99,0.5,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.27,0.03,0.03,0.21,0.06,0.13,0.0,0.0,3.43,24.0,5.63,0.74,0.52,1.43,0.0,10.94,0.0,0.29,27.0,0,0,0.0,0.0,0.0,0.46,0.08,0.13,0.04,0.04,0.04,0.0,0.0,0.0,0.0,1.82</t>
+  </si>
+  <si>
+    <t>15.0,5.2,0.46,0.52,0.9,2.0,13.59,0.0,0.0,0.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.07,0.07,0.13,0.07,0.13,0.0,0.0,6.75,15.0,5.13,0.46,0.52,0.9,1.0,12.02,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.13,0.13,0.07,0.0,0.0,0.0,0.0,1.6</t>
+  </si>
+  <si>
+    <t>56.0,5.55,1.72,0.52,3.35,1.0,16.22,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.11,0.21,0.05,0.05,0.13,0.04,0.13,0.0,0.0,4.79,21.0,5.76,0.65,0.52,1.26,0.0,16.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.19,0.0,0.0,0.05,0.14,0.13,0.0,0.0,4.22</t>
+  </si>
+  <si>
+    <t>9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23,9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08</t>
   </si>
   <si>
     <t>you emergenc</t>
@@ -3273,7 +3273,7 @@
     <t>flashes</t>
   </si>
   <si>
-    <t>319,1.0,14.29,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.3,0.3,0.0,0.0,311,1.0,16.22,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.3,0.35,0.0,0.0</t>
+    <t>19.33,5.5,1.79,1.55,1.16,1.0,14.29,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.17,0.19,0.21,0.1,0.1,0.02,0.07,0.0,0.0,0.0,4.29,56.0,5.55,1.72,0.52,3.35,1.0,16.22,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.11,0.21,0.05,0.05,0.13,0.04,0.13,0.0,0.0,4.79</t>
   </si>
   <si>
     <t>ou are done</t>
@@ -3306,97 +3306,97 @@
     <t>to watch.</t>
   </si>
   <si>
-    <t>197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0,147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17</t>
-  </si>
-  <si>
-    <t>72,0.0,13.57,0.0,0.08,1.0,0.0,0.08,0.0,0.1,0.1,0.1,0.0,0.0,60,0.0,8.19,0.0,0.09,4.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>149,0.67,11.77,0.0,0.0,1.33,0.0,0.14,0.0,0.2,0.25,0.25,0.0,0.0,197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0,121,0.0,16.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>311,1.0,16.22,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.3,0.35,0.0,0.0,126,0.0,10.54,0.0,0.04,0.0,0.0,0.0,0.0,0.05,0.15,0.15,0.25,0.0</t>
-  </si>
-  <si>
-    <t>78,2.0,13.59,0.0,0.0,0.0,0.0,0.07,0.0,0.05,0.1,0.1,0.0,0.0,166,0.5,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>68,1.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,118,0.5,11.03,0.0,0.0,1.5,0.0,0.04,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,0.0,9.51,0.0,0.62,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,135,0.0,10.94,0.0,0.29,27.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.0,16.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,126,0.0,10.54,0.0,0.04,0.0,0.0,0.0,0.0,0.05,0.15,0.15,0.25,0.0</t>
-  </si>
-  <si>
-    <t>85,2.0,9.78,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.1,0.0,0.0,174,0.0,20.48,0.0,0.0,1.67,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>65,0.0,9.65,0.0,0.08,1.5,0.0,0.33,0.0,0.15,0.2,0.2,0.08,0.17,166,0.5,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17,239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>68,1.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,432,1.0,141.11,1.0,0.63,0.0,0.0,0.25,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,0.5,17.59,0.0,0.0,1.0,0.0,0.09,0.0,0.1,0.15,0.2,0.0,0.0,98,0.0,9.39,0.0,0.14,1.0,0.0,0.05,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>131,0.0,8.97,0.0,0.07,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0,343,0.0,10.01,0.0,0.01,0.0,0.0,0.0,0.0,0.25,0.25,0.2,0.17,0.33</t>
-  </si>
-  <si>
-    <t>169,1.0,11.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.08,0.17,311,1.0,16.22,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>135,0.0,10.94,0.0,0.29,27.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,133,0.5,10.76,0.0,0.16,1.0,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>389,0.33,11.81,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.35,0.35,0.0,0.0,135,0.0,10.94,0.0,0.29,27.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>357,0.0,11.94,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.3,0.08,0.0,133,0.5,10.76,0.0,0.16,1.0,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>166,0.5,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>311,1.0,16.22,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.3,0.35,0.0,0.0,147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17</t>
-  </si>
-  <si>
-    <t>149,0.67,11.77,0.0,0.0,1.33,0.0,0.14,0.0,0.2,0.25,0.25,0.0,0.0,133,0.5,10.76,0.0,0.16,1.0,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.0,16.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,343,0.0,10.01,0.0,0.01,0.0,0.0,0.0,0.0,0.25,0.25,0.2,0.17,0.33</t>
-  </si>
-  <si>
-    <t>131,0.0,8.97,0.0,0.07,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0,389,0.33,11.81,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>7.8,5.05,1.2,2.58,0.47,0.0,8.6,0.0,0.0,2.0,0,0,0.0,0.23,0.0,0.31,0.03,0.23,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.36,29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5</t>
+  </si>
+  <si>
+    <t>6.0,6.0,0.37,1.03,0.36,0.0,13.57,0.0,0.08,1.0,0,0,0.0,0.08,0.0,0.42,0.08,0.25,0.0,0.0,0.0,0.08,0.13,0.0,0.0,1.0,11.0,5.45,0.34,0.52,0.66,0.0,8.19,0.0,0.09,4.0,0,0,0.0,0.0,0.0,0.18,0.18,0.36,0.09,0.09,0.0,0.0,0.0,0.0,0.0,7.25</t>
+  </si>
+  <si>
+    <t>9.67,5.14,0.89,1.55,0.58,0.67,11.77,0.0,0.0,1.33,0,0,0.0,0.14,0.0,0.24,0.1,0.1,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.0,7.8,5.05,1.2,2.58,0.47,0.0,8.6,0.0,0.0,2.0,0,0,0.0,0.23,0.0,0.31,0.03,0.23,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.36</t>
+  </si>
+  <si>
+    <t>9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23,21.0,5.76,0.65,0.52,1.26,0.0,16.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.19,0.0,0.0,0.05,0.14,0.13,0.0,0.0,4.22</t>
+  </si>
+  <si>
+    <t>56.0,5.55,1.72,0.52,3.35,1.0,16.22,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.11,0.21,0.05,0.05,0.13,0.04,0.13,0.0,0.0,4.79,27.0,4.67,0.83,0.52,1.61,0.0,10.54,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.22,0.0,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>15.0,5.2,0.46,0.52,0.9,2.0,13.59,0.0,0.0,0.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.07,0.07,0.13,0.07,0.13,0.0,0.0,6.75,16.5,5.03,1.02,1.03,0.99,0.5,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.27,0.03,0.03,0.21,0.06,0.13,0.0,0.0,3.43</t>
+  </si>
+  <si>
+    <t>13.0,5.23,0.4,0.52,0.78,1.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.15,0.31,0.08,0.08,0.08,0.0,0.0,0.0,0.0,9.8,11.5,5.13,0.71,1.03,0.69,0.5,11.03,0.0,0.0,1.5,0,0,0.0,0.04,0.0,0.22,0.04,0.26,0.0,0.0,0.09,0.0,0.0,0.0,0.0,6.67</t>
+  </si>
+  <si>
+    <t>13.0,6.54,0.4,0.52,0.78,0.0,9.51,0.0,0.62,0.0,7,0,0.0,0.0,0.0,0.54,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.86,24.0,5.63,0.74,0.52,1.43,0.0,10.94,0.0,0.29,27.0,0,0,0.0,0.0,0.0,0.46,0.08,0.13,0.04,0.04,0.04,0.0,0.0,0.0,0.0,1.82</t>
+  </si>
+  <si>
+    <t>21.0,5.76,0.65,0.52,1.26,0.0,16.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.19,0.0,0.0,0.05,0.14,0.13,0.0,0.0,4.22,27.0,4.67,0.83,0.52,1.61,0.0,10.54,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.22,0.0,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>17.0,5.0,0.52,0.52,1.02,2.0,9.78,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.29,0.12,0.06,0.06,0.0,0.06,0.0,0.0,0.0,5.29,8.0,7.25,0.74,1.55,0.48,0.0,20.48,0.0,0.0,1.67,0,0,0.0,0.0,0.0,0.33,0.13,0.21,0.0,0.0,0.13,0.13,0.0,0.0,0.0,0.33</t>
+  </si>
+  <si>
+    <t>6.0,5.42,0.37,1.03,0.36,0.0,9.65,0.0,0.08,1.5,0,0,0.0,0.33,0.0,0.33,0.08,0.17,0.0,0.0,0.0,0.0,0.0,0.17,0.17,8.33,16.5,5.03,1.02,1.03,0.99,0.5,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.27,0.03,0.03,0.21,0.06,0.13,0.0,0.0,3.43</t>
+  </si>
+  <si>
+    <t>29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5,9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08</t>
+  </si>
+  <si>
+    <t>13.0,5.23,0.4,0.52,0.78,1.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.15,0.31,0.08,0.08,0.08,0.0,0.0,0.0,0.0,9.8,16.0,27.0,0.49,0.52,0.96,1.0,141.11,1.0,0.63,0.0,0,0,0.0,0.25,0.0,0.56,0.06,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,0.5</t>
+  </si>
+  <si>
+    <t>11.0,6.36,0.68,1.03,0.66,0.5,17.59,0.0,0.0,1.0,0,0,0.0,0.09,0.0,0.27,0.09,0.14,0.0,0.0,0.09,0.09,0.25,0.0,0.0,3.8,21.0,4.67,0.65,0.52,1.26,0.0,9.39,0.0,0.14,1.0,0,0,0.0,0.05,6.67,0.24,0.0,0.14,0.05,0.05,0.19,0.0,0.0,0.0,0.0,3.6</t>
+  </si>
+  <si>
+    <t>14.0,4.68,0.86,1.03,0.84,0.0,8.97,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.29,0.04,0.25,0.07,0.07,0.14,0.0,0.0,0.0,0.0,3.0,77.0,4.45,2.37,0.52,4.6,0.0,10.01,0.0,0.01,0.0,0,0,0.0,0.0,0.0,0.23,0.1,0.19,0.01,0.01,0.17,0.0,0.0,0.33,0.33,2.42</t>
+  </si>
+  <si>
+    <t>35.0,4.83,1.08,0.52,2.09,1.0,11.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.17,0.09,0.09,0.06,0.06,0.13,0.17,0.17,2.92,56.0,5.55,1.72,0.52,3.35,1.0,16.22,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.11,0.21,0.05,0.05,0.13,0.04,0.13,0.0,0.0,4.79</t>
+  </si>
+  <si>
+    <t>24.0,5.63,0.74,0.52,1.43,0.0,10.94,0.0,0.29,27.0,0,0,0.0,0.0,0.0,0.46,0.08,0.13,0.04,0.04,0.04,0.0,0.0,0.0,0.0,1.82,12.5,5.32,0.77,1.03,0.75,0.5,10.76,0.0,0.16,1.0,0,0,0.0,0.04,6.67,0.32,0.04,0.16,0.04,0.04,0.12,0.0,0.0,0.0,0.0,0.88</t>
+  </si>
+  <si>
+    <t>7.78,5.56,2.16,4.64,0.47,0.33,11.81,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.19,0.03,0.24,0.03,0.03,0.07,0.04,0.0,0.0,0.0,4.7,24.0,5.63,0.74,0.52,1.43,0.0,10.94,0.0,0.29,27.0,0,0,0.0,0.0,0.0,0.46,0.08,0.13,0.04,0.04,0.04,0.0,0.0,0.0,0.0,1.82</t>
+  </si>
+  <si>
+    <t>13.6,5.25,2.09,2.58,0.81,0.0,11.94,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.29,0.1,0.1,0.06,0.01,0.0,0.0,0.0,5.06,12.5,5.32,0.77,1.03,0.75,0.5,10.76,0.0,0.16,1.0,0,0,0.0,0.04,6.67,0.32,0.04,0.16,0.04,0.04,0.12,0.0,0.0,0.0,0.0,0.88</t>
+  </si>
+  <si>
+    <t>16.5,5.03,1.02,1.03,0.99,0.5,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.27,0.03,0.03,0.21,0.06,0.13,0.0,0.0,3.43,7.8,5.05,1.2,2.58,0.47,0.0,8.6,0.0,0.0,2.0,0,0,0.0,0.23,0.0,0.31,0.03,0.23,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.36</t>
+  </si>
+  <si>
+    <t>56.0,5.55,1.72,0.52,3.35,1.0,16.22,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.11,0.21,0.05,0.05,0.13,0.04,0.13,0.0,0.0,4.79,29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5</t>
+  </si>
+  <si>
+    <t>9.67,5.14,0.89,1.55,0.58,0.67,11.77,0.0,0.0,1.33,0,0,0.0,0.14,0.0,0.24,0.1,0.1,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.0,12.5,5.32,0.77,1.03,0.75,0.5,10.76,0.0,0.16,1.0,0,0,0.0,0.04,6.67,0.32,0.04,0.16,0.04,0.04,0.12,0.0,0.0,0.0,0.0,0.88</t>
+  </si>
+  <si>
+    <t>21.0,5.76,0.65,0.52,1.26,0.0,16.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.19,0.0,0.0,0.05,0.14,0.13,0.0,0.0,4.22,77.0,4.45,2.37,0.52,4.6,0.0,10.01,0.0,0.01,0.0,0,0,0.0,0.0,0.0,0.23,0.1,0.19,0.01,0.01,0.17,0.0,0.0,0.33,0.33,2.42</t>
+  </si>
+  <si>
+    <t>14.0,4.68,0.86,1.03,0.84,0.0,8.97,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.29,0.04,0.25,0.07,0.07,0.14,0.0,0.0,0.0,0.0,3.0,7.78,5.56,2.16,4.64,0.47,0.33,11.81,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.19,0.03,0.24,0.03,0.03,0.07,0.04,0.0,0.0,0.0,4.7</t>
   </si>
   <si>
     <t>ity.</t>
   </si>
   <si>
-    <t>147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17,251,3.0,14.85,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.25,0.25,0.08,0.0</t>
-  </si>
-  <si>
-    <t>311,1.0,16.22,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.3,0.35,0.0,0.0,140,0.5,17.59,0.0,0.0,1.0,0.0,0.09,0.0,0.1,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,0.0,20.48,0.0,0.0,1.67,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,68,1.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0,169,1.0,11.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.08,0.17</t>
-  </si>
-  <si>
-    <t>72,0.0,13.57,0.0,0.08,1.0,0.0,0.08,0.0,0.1,0.1,0.1,0.0,0.0,239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0,389,0.33,11.81,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5,47.0,5.34,1.45,0.52,2.81,3.0,14.85,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.23,0.09,0.17,0.09,0.09,0.09,0.04,0.0,0.0,0.0,4.18</t>
+  </si>
+  <si>
+    <t>56.0,5.55,1.72,0.52,3.35,1.0,16.22,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.11,0.21,0.05,0.05,0.13,0.04,0.13,0.0,0.0,4.79,11.0,6.36,0.68,1.03,0.66,0.5,17.59,0.0,0.0,1.0,0,0,0.0,0.09,0.0,0.27,0.09,0.14,0.0,0.0,0.09,0.09,0.25,0.0,0.0,3.8</t>
+  </si>
+  <si>
+    <t>8.0,7.25,0.74,1.55,0.48,0.0,20.48,0.0,0.0,1.67,0,0,0.0,0.0,0.0,0.33,0.13,0.21,0.0,0.0,0.13,0.13,0.0,0.0,0.0,0.33,13.0,5.23,0.4,0.52,0.78,1.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.15,0.31,0.08,0.08,0.08,0.0,0.0,0.0,0.0,9.8</t>
+  </si>
+  <si>
+    <t>7.8,5.05,1.2,2.58,0.47,0.0,8.6,0.0,0.0,2.0,0,0,0.0,0.23,0.0,0.31,0.03,0.23,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.36,35.0,4.83,1.08,0.52,2.09,1.0,11.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.17,0.09,0.09,0.06,0.06,0.13,0.17,0.17,2.92</t>
+  </si>
+  <si>
+    <t>6.0,6.0,0.37,1.03,0.36,0.0,13.57,0.0,0.08,1.0,0,0,0.0,0.08,0.0,0.42,0.08,0.25,0.0,0.0,0.0,0.08,0.13,0.0,0.0,1.0,9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08</t>
+  </si>
+  <si>
+    <t>7.8,5.05,1.2,2.58,0.47,0.0,8.6,0.0,0.0,2.0,0,0,0.0,0.23,0.0,0.31,0.03,0.23,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.36,7.78,5.56,2.16,4.64,0.47,0.33,11.81,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.19,0.03,0.24,0.03,0.03,0.07,0.04,0.0,0.0,0.0,4.7</t>
   </si>
   <si>
     <t>book you ne</t>
@@ -3423,43 +3423,43 @@
     <t>ricity.</t>
   </si>
   <si>
-    <t>77,1.0,12.02,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.08,0.0,169,1.0,11.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.08,0.17</t>
-  </si>
-  <si>
-    <t>140,0.5,17.59,0.0,0.0,1.0,0.0,0.09,0.0,0.1,0.15,0.2,0.0,0.0,126,0.0,10.54,0.0,0.04,0.0,0.0,0.0,0.0,0.05,0.15,0.15,0.25,0.0</t>
-  </si>
-  <si>
-    <t>133,0.5,10.76,0.0,0.16,1.0,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0,71,1.0,9.67,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0,77,1.0,12.02,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.08,0.0</t>
-  </si>
-  <si>
-    <t>133,0.5,10.76,0.0,0.16,1.0,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0,131,0.0,8.97,0.0,0.07,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0,60,0.0,8.19,0.0,0.09,4.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>311,1.0,16.22,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.3,0.35,0.0,0.0,60,0.0,8.19,0.0,0.09,4.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>78,2.0,13.59,0.0,0.0,0.0,0.0,0.07,0.0,0.05,0.1,0.1,0.0,0.0,68,1.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>77,1.0,12.02,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.08,0.0,71,1.0,9.67,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>78,2.0,13.59,0.0,0.0,0.0,0.0,0.07,0.0,0.05,0.1,0.1,0.0,0.0,71,1.0,9.67,1.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>79,0.0,4.55,0.0,0.0,3.33,0.0,0.47,0.0,0.1,0.1,0.1,0.0,0.0,68,1.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17,77,1.0,12.02,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.08,0.0</t>
-  </si>
-  <si>
-    <t>432,1.0,141.11,1.0,0.63,0.0,0.0,0.25,0.0,0.05,0.05,0.05,0.0,0.0,389,0.33,11.81,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>15.0,5.13,0.46,0.52,0.9,1.0,12.02,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.13,0.13,0.07,0.0,0.0,0.0,0.0,1.6,35.0,4.83,1.08,0.52,2.09,1.0,11.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.17,0.09,0.09,0.06,0.06,0.13,0.17,0.17,2.92</t>
+  </si>
+  <si>
+    <t>11.0,6.36,0.68,1.03,0.66,0.5,17.59,0.0,0.0,1.0,0,0,0.0,0.09,0.0,0.27,0.09,0.14,0.0,0.0,0.09,0.09,0.25,0.0,0.0,3.8,27.0,4.67,0.83,0.52,1.61,0.0,10.54,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.22,0.0,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>12.5,5.32,0.77,1.03,0.75,0.5,10.76,0.0,0.16,1.0,0,0,0.0,0.04,6.67,0.32,0.04,0.16,0.04,0.04,0.12,0.0,0.0,0.0,0.0,0.88,15.0,4.73,0.46,0.52,0.9,1.0,9.67,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.07,0.27,0.07,0.07,0.13,0.0,0.0,0.0,0.0,5.6</t>
+  </si>
+  <si>
+    <t>7.8,5.05,1.2,2.58,0.47,0.0,8.6,0.0,0.0,2.0,0,0,0.0,0.23,0.0,0.31,0.03,0.23,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.36,15.0,5.13,0.46,0.52,0.9,1.0,12.02,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.13,0.13,0.07,0.0,0.0,0.0,0.0,1.6</t>
+  </si>
+  <si>
+    <t>12.5,5.32,0.77,1.03,0.75,0.5,10.76,0.0,0.16,1.0,0,0,0.0,0.04,6.67,0.32,0.04,0.16,0.04,0.04,0.12,0.0,0.0,0.0,0.0,0.88,14.0,4.68,0.86,1.03,0.84,0.0,8.97,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.29,0.04,0.25,0.07,0.07,0.14,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>7.8,5.05,1.2,2.58,0.47,0.0,8.6,0.0,0.0,2.0,0,0,0.0,0.23,0.0,0.31,0.03,0.23,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.36,11.0,5.45,0.34,0.52,0.66,0.0,8.19,0.0,0.09,4.0,0,0,0.0,0.0,0.0,0.18,0.18,0.36,0.09,0.09,0.0,0.0,0.0,0.0,0.0,7.25</t>
+  </si>
+  <si>
+    <t>56.0,5.55,1.72,0.52,3.35,1.0,16.22,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.11,0.21,0.05,0.05,0.13,0.04,0.13,0.0,0.0,4.79,11.0,5.45,0.34,0.52,0.66,0.0,8.19,0.0,0.09,4.0,0,0,0.0,0.0,0.0,0.18,0.18,0.36,0.09,0.09,0.0,0.0,0.0,0.0,0.0,7.25</t>
+  </si>
+  <si>
+    <t>15.0,5.2,0.46,0.52,0.9,2.0,13.59,0.0,0.0,0.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.07,0.07,0.13,0.07,0.13,0.0,0.0,6.75,13.0,5.23,0.4,0.52,0.78,1.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.15,0.31,0.08,0.08,0.08,0.0,0.0,0.0,0.0,9.8</t>
+  </si>
+  <si>
+    <t>15.0,5.13,0.46,0.52,0.9,1.0,12.02,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.13,0.13,0.07,0.0,0.0,0.0,0.0,1.6,15.0,4.73,0.46,0.52,0.9,1.0,9.67,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.07,0.27,0.07,0.07,0.13,0.0,0.0,0.0,0.0,5.6</t>
+  </si>
+  <si>
+    <t>15.0,5.2,0.46,0.52,0.9,2.0,13.59,0.0,0.0,0.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.07,0.07,0.13,0.07,0.13,0.0,0.0,6.75,15.0,4.73,0.46,0.52,0.9,1.0,9.67,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.27,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>5.0,5.27,0.46,1.55,0.3,0.0,4.55,0.0,0.0,3.33,0,0,0.0,0.47,0.0,0.4,0.07,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,4.2,13.0,5.23,0.4,0.52,0.78,1.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.15,0.31,0.08,0.08,0.08,0.0,0.0,0.0,0.0,9.8</t>
+  </si>
+  <si>
+    <t>29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5,15.0,5.13,0.46,0.52,0.9,1.0,12.02,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.13,0.13,0.07,0.0,0.0,0.0,0.0,1.6</t>
+  </si>
+  <si>
+    <t>16.0,27.0,0.49,0.52,0.96,1.0,141.11,1.0,0.63,0.0,0,0,0.0,0.25,0.0,0.56,0.06,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,0.5,7.78,5.56,2.16,4.64,0.47,0.33,11.81,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.19,0.03,0.24,0.03,0.03,0.07,0.04,0.0,0.0,0.0,4.7</t>
   </si>
   <si>
     <t>watching the</t>
@@ -3522,40 +3522,40 @@
     <t>they?" Even viewing tv requires brains. And moreover we can watch television in the dark. But to read a book you need the lights on. Which also wastes electricity.</t>
   </si>
   <si>
-    <t>121,0.0,16.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,149,0.67,11.77,0.0,0.0,1.33,0.0,0.14,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,2.0,9.78,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.1,0.0,0.0,79,0.0,4.55,0.0,0.0,3.33,0.0,0.47,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0,72,0.0,13.57,0.0,0.08,1.0,0.0,0.08,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>389,0.33,11.81,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.35,0.35,0.0,0.0,72,0.0,13.57,0.0,0.08,1.0,0.0,0.08,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,2.0,9.78,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.1,0.0,0.0,251,3.0,14.85,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.25,0.25,0.08,0.0</t>
-  </si>
-  <si>
-    <t>174,0.0,20.48,0.0,0.0,1.67,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,77,1.0,12.02,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.08,0.0</t>
-  </si>
-  <si>
-    <t>389,0.33,11.81,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.35,0.35,0.0,0.0,71,1.0,9.67,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17,357,0.0,11.94,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.3,0.08,0.0</t>
-  </si>
-  <si>
-    <t>149,0.67,11.77,0.0,0.0,1.33,0.0,0.14,0.0,0.2,0.25,0.25,0.0,0.0,78,2.0,13.59,0.0,0.0,0.0,0.0,0.07,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>126,0.0,10.54,0.0,0.04,0.0,0.0,0.0,0.0,0.05,0.15,0.15,0.25,0.0,98,0.0,9.39,0.0,0.14,1.0,0.0,0.05,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>72,0.0,13.57,0.0,0.08,1.0,0.0,0.08,0.0,0.1,0.1,0.1,0.0,0.0,166,0.5,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0,311,1.0,16.22,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.3,0.35,0.0,0.0</t>
+    <t>21.0,5.76,0.65,0.52,1.26,0.0,16.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.19,0.0,0.0,0.05,0.14,0.13,0.0,0.0,4.22,9.67,5.14,0.89,1.55,0.58,0.67,11.77,0.0,0.0,1.33,0,0,0.0,0.14,0.0,0.24,0.1,0.1,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>17.0,5.0,0.52,0.52,1.02,2.0,9.78,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.29,0.12,0.06,0.06,0.0,0.06,0.0,0.0,0.0,5.29,5.0,5.27,0.46,1.55,0.3,0.0,4.55,0.0,0.0,3.33,0,0,0.0,0.47,0.0,0.4,0.07,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,4.2</t>
+  </si>
+  <si>
+    <t>9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23,6.0,6.0,0.37,1.03,0.36,0.0,13.57,0.0,0.08,1.0,0,0,0.0,0.08,0.0,0.42,0.08,0.25,0.0,0.0,0.0,0.08,0.13,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>7.78,5.56,2.16,4.64,0.47,0.33,11.81,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.19,0.03,0.24,0.03,0.03,0.07,0.04,0.0,0.0,0.0,4.7,6.0,6.0,0.37,1.03,0.36,0.0,13.57,0.0,0.08,1.0,0,0,0.0,0.08,0.0,0.42,0.08,0.25,0.0,0.0,0.0,0.08,0.13,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>17.0,5.0,0.52,0.52,1.02,2.0,9.78,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.29,0.12,0.06,0.06,0.0,0.06,0.0,0.0,0.0,5.29,47.0,5.34,1.45,0.52,2.81,3.0,14.85,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.23,0.09,0.17,0.09,0.09,0.09,0.04,0.0,0.0,0.0,4.18</t>
+  </si>
+  <si>
+    <t>8.0,7.25,0.74,1.55,0.48,0.0,20.48,0.0,0.0,1.67,0,0,0.0,0.0,0.0,0.33,0.13,0.21,0.0,0.0,0.13,0.13,0.0,0.0,0.0,0.33,15.0,5.13,0.46,0.52,0.9,1.0,12.02,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.13,0.13,0.07,0.0,0.0,0.0,0.0,1.6</t>
+  </si>
+  <si>
+    <t>7.78,5.56,2.16,4.64,0.47,0.33,11.81,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.19,0.03,0.24,0.03,0.03,0.07,0.04,0.0,0.0,0.0,4.7,15.0,4.73,0.46,0.52,0.9,1.0,9.67,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.07,0.27,0.07,0.07,0.13,0.0,0.0,0.0,0.0,5.6</t>
+  </si>
+  <si>
+    <t>29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5,13.6,5.25,2.09,2.58,0.81,0.0,11.94,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.29,0.1,0.1,0.06,0.01,0.0,0.0,0.0,5.06</t>
+  </si>
+  <si>
+    <t>9.67,5.14,0.89,1.55,0.58,0.67,11.77,0.0,0.0,1.33,0,0,0.0,0.14,0.0,0.24,0.1,0.1,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.0,15.0,5.2,0.46,0.52,0.9,2.0,13.59,0.0,0.0,0.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.07,0.07,0.13,0.07,0.13,0.0,0.0,6.75</t>
+  </si>
+  <si>
+    <t>27.0,4.67,0.83,0.52,1.61,0.0,10.54,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.22,0.0,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,3.25,21.0,4.67,0.65,0.52,1.26,0.0,9.39,0.0,0.14,1.0,0,0,0.0,0.05,6.67,0.24,0.0,0.14,0.05,0.05,0.19,0.0,0.0,0.0,0.0,3.6</t>
+  </si>
+  <si>
+    <t>6.0,6.0,0.37,1.03,0.36,0.0,13.57,0.0,0.08,1.0,0,0,0.0,0.08,0.0,0.42,0.08,0.25,0.0,0.0,0.0,0.08,0.13,0.0,0.0,1.0,16.5,5.03,1.02,1.03,0.99,0.5,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.27,0.03,0.03,0.21,0.06,0.13,0.0,0.0,3.43</t>
+  </si>
+  <si>
+    <t>9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08,56.0,5.55,1.72,0.52,3.35,1.0,16.22,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.11,0.21,0.05,0.05,0.13,0.04,0.13,0.0,0.0,4.79</t>
   </si>
   <si>
     <t>y show or wh</t>
@@ -3582,49 +3582,49 @@
     <t>h.</t>
   </si>
   <si>
-    <t>169,1.0,11.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.08,0.17,68,1.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0,174,0.0,20.48,0.0,0.0,1.67,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>126,0.0,10.54,0.0,0.04,0.0,0.0,0.0,0.0,0.05,0.15,0.15,0.25,0.0,85,2.0,9.78,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>131,0.0,8.97,0.0,0.07,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0,432,1.0,141.11,1.0,0.63,0.0,0.0,0.25,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>131,0.0,8.97,0.0,0.07,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0,79,0.0,4.55,0.0,0.0,3.33,0.0,0.47,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>77,1.0,12.02,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.08,0.0,135,0.0,10.94,0.0,0.29,27.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,0.5,11.03,0.0,0.0,1.5,0.0,0.04,0.0,0.15,0.15,0.15,0.0,0.0,71,1.0,9.67,1.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,0.0,9.51,0.0,0.62,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,78,2.0,13.59,0.0,0.0,0.0,0.0,0.07,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0,71,1.0,9.67,1.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,2.0,9.78,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.1,0.0,0.0,239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>133,0.5,10.76,0.0,0.16,1.0,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0,126,0.0,10.54,0.0,0.04,0.0,0.0,0.0,0.0,0.05,0.15,0.15,0.25,0.0</t>
-  </si>
-  <si>
-    <t>121,0.0,16.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>343,0.0,10.01,0.0,0.01,0.0,0.0,0.0,0.0,0.25,0.25,0.2,0.17,0.33,77,1.0,12.02,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.08,0.0</t>
-  </si>
-  <si>
-    <t>389,0.33,11.81,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.35,0.35,0.0,0.0,78,2.0,13.59,0.0,0.0,0.0,0.0,0.07,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>432,1.0,141.11,1.0,0.63,0.0,0.0,0.25,0.0,0.05,0.05,0.05,0.0,0.0,166,0.5,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
+    <t>35.0,4.83,1.08,0.52,2.09,1.0,11.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.17,0.09,0.09,0.06,0.06,0.13,0.17,0.17,2.92,13.0,5.23,0.4,0.52,0.78,1.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.15,0.31,0.08,0.08,0.08,0.0,0.0,0.0,0.0,9.8</t>
+  </si>
+  <si>
+    <t>9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08,8.0,7.25,0.74,1.55,0.48,0.0,20.48,0.0,0.0,1.67,0,0,0.0,0.0,0.0,0.33,0.13,0.21,0.0,0.0,0.13,0.13,0.0,0.0,0.0,0.33</t>
+  </si>
+  <si>
+    <t>27.0,4.67,0.83,0.52,1.61,0.0,10.54,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.22,0.0,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,3.25,17.0,5.0,0.52,0.52,1.02,2.0,9.78,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.29,0.12,0.06,0.06,0.0,0.06,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>14.0,4.68,0.86,1.03,0.84,0.0,8.97,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.29,0.04,0.25,0.07,0.07,0.14,0.0,0.0,0.0,0.0,3.0,16.0,27.0,0.49,0.52,0.96,1.0,141.11,1.0,0.63,0.0,0,0,0.0,0.25,0.0,0.56,0.06,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,0.5</t>
+  </si>
+  <si>
+    <t>14.0,4.68,0.86,1.03,0.84,0.0,8.97,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.29,0.04,0.25,0.07,0.07,0.14,0.0,0.0,0.0,0.0,3.0,5.0,5.27,0.46,1.55,0.3,0.0,4.55,0.0,0.0,3.33,0,0,0.0,0.47,0.0,0.4,0.07,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,4.2</t>
+  </si>
+  <si>
+    <t>15.0,5.13,0.46,0.52,0.9,1.0,12.02,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.13,0.13,0.07,0.0,0.0,0.0,0.0,1.6,24.0,5.63,0.74,0.52,1.43,0.0,10.94,0.0,0.29,27.0,0,0,0.0,0.0,0.0,0.46,0.08,0.13,0.04,0.04,0.04,0.0,0.0,0.0,0.0,1.82</t>
+  </si>
+  <si>
+    <t>11.5,5.13,0.71,1.03,0.69,0.5,11.03,0.0,0.0,1.5,0,0,0.0,0.04,0.0,0.22,0.04,0.26,0.0,0.0,0.09,0.0,0.0,0.0,0.0,6.67,15.0,4.73,0.46,0.52,0.9,1.0,9.67,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.27,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>13.0,6.54,0.4,0.52,0.78,0.0,9.51,0.0,0.62,0.0,7,0,0.0,0.0,0.0,0.54,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.86,15.0,5.2,0.46,0.52,0.9,2.0,13.59,0.0,0.0,0.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.07,0.07,0.13,0.07,0.13,0.0,0.0,6.75</t>
+  </si>
+  <si>
+    <t>7.8,5.05,1.2,2.58,0.47,0.0,8.6,0.0,0.0,2.0,0,0,0.0,0.23,0.0,0.31,0.03,0.23,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.36,15.0,4.73,0.46,0.52,0.9,1.0,9.67,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.27,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>17.0,5.0,0.52,0.52,1.02,2.0,9.78,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.29,0.12,0.06,0.06,0.0,0.06,0.0,0.0,0.0,5.29,9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08</t>
+  </si>
+  <si>
+    <t>12.5,5.32,0.77,1.03,0.75,0.5,10.76,0.0,0.16,1.0,0,0,0.0,0.04,6.67,0.32,0.04,0.16,0.04,0.04,0.12,0.0,0.0,0.0,0.0,0.88,27.0,4.67,0.83,0.52,1.61,0.0,10.54,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.22,0.0,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>21.0,5.76,0.65,0.52,1.26,0.0,16.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.19,0.0,0.0,0.05,0.14,0.13,0.0,0.0,4.22,7.8,5.05,1.2,2.58,0.47,0.0,8.6,0.0,0.0,2.0,0,0,0.0,0.23,0.0,0.31,0.03,0.23,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.36</t>
+  </si>
+  <si>
+    <t>77.0,4.45,2.37,0.52,4.6,0.0,10.01,0.0,0.01,0.0,0,0,0.0,0.0,0.0,0.23,0.1,0.19,0.01,0.01,0.17,0.0,0.0,0.33,0.33,2.42,15.0,5.13,0.46,0.52,0.9,1.0,12.02,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.13,0.13,0.07,0.0,0.0,0.0,0.0,1.6</t>
+  </si>
+  <si>
+    <t>7.78,5.56,2.16,4.64,0.47,0.33,11.81,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.19,0.03,0.24,0.03,0.03,0.07,0.04,0.0,0.0,0.0,4.7,15.0,5.2,0.46,0.52,0.9,2.0,13.59,0.0,0.0,0.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.07,0.07,0.13,0.07,0.13,0.0,0.0,6.75</t>
+  </si>
+  <si>
+    <t>16.0,27.0,0.49,0.52,0.96,1.0,141.11,1.0,0.63,0.0,0,0,0.0,0.25,0.0,0.56,0.06,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,0.5,16.5,5.03,1.02,1.03,0.99,0.5,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.27,0.03,0.03,0.21,0.06,0.13,0.0,0.0,3.43</t>
   </si>
   <si>
     <t>lus have you</t>
@@ -3663,49 +3663,49 @@
     <t>oying they are?</t>
   </si>
   <si>
-    <t>343,0.0,10.01,0.0,0.01,0.0,0.0,0.0,0.0,0.25,0.25,0.2,0.17,0.33,79,0.0,4.55,0.0,0.0,3.33,0.0,0.47,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.0,16.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,71,1.0,9.67,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>71,1.0,9.67,1.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,133,0.5,10.76,0.0,0.16,1.0,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>149,0.67,11.77,0.0,0.0,1.33,0.0,0.14,0.0,0.2,0.25,0.25,0.0,0.0,98,0.0,9.39,0.0,0.14,1.0,0.0,0.05,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>133,0.5,10.76,0.0,0.16,1.0,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0,147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17</t>
-  </si>
-  <si>
-    <t>68,1.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>65,0.0,9.65,0.0,0.08,1.5,0.0,0.33,0.0,0.15,0.2,0.2,0.08,0.17,432,1.0,141.11,1.0,0.63,0.0,0.0,0.25,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,2.0,9.78,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.1,0.0,0.0,78,2.0,13.59,0.0,0.0,0.0,0.0,0.07,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>251,3.0,14.85,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.25,0.25,0.08,0.0,68,1.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>71,1.0,9.67,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.15,0.15,0.0,0.0,126,0.0,10.54,0.0,0.04,0.0,0.0,0.0,0.0,0.05,0.15,0.15,0.25,0.0</t>
-  </si>
-  <si>
-    <t>71,1.0,9.67,1.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,85,2.0,9.78,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>131,0.0,8.97,0.0,0.07,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0,60,0.0,8.19,0.0,0.09,4.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>389,0.33,11.81,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.35,0.35,0.0,0.0,65,0.0,9.65,0.0,0.08,1.5,0.0,0.33,0.0,0.15,0.2,0.2,0.08,0.17</t>
-  </si>
-  <si>
-    <t>121,0.0,16.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,77,1.0,12.02,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.08,0.0</t>
-  </si>
-  <si>
-    <t>357,0.0,11.94,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.3,0.08,0.0,197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0</t>
+    <t>77.0,4.45,2.37,0.52,4.6,0.0,10.01,0.0,0.01,0.0,0,0,0.0,0.0,0.0,0.23,0.1,0.19,0.01,0.01,0.17,0.0,0.0,0.33,0.33,2.42,5.0,5.27,0.46,1.55,0.3,0.0,4.55,0.0,0.0,3.33,0,0,0.0,0.47,0.0,0.4,0.07,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,4.2</t>
+  </si>
+  <si>
+    <t>21.0,5.76,0.65,0.52,1.26,0.0,16.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.19,0.0,0.0,0.05,0.14,0.13,0.0,0.0,4.22,15.0,4.73,0.46,0.52,0.9,1.0,9.67,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.07,0.27,0.07,0.07,0.13,0.0,0.0,0.0,0.0,5.6</t>
+  </si>
+  <si>
+    <t>15.0,4.73,0.46,0.52,0.9,1.0,9.67,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.27,0.0,0.0,0.0,0.0,5.0,12.5,5.32,0.77,1.03,0.75,0.5,10.76,0.0,0.16,1.0,0,0,0.0,0.04,6.67,0.32,0.04,0.16,0.04,0.04,0.12,0.0,0.0,0.0,0.0,0.88</t>
+  </si>
+  <si>
+    <t>9.67,5.14,0.89,1.55,0.58,0.67,11.77,0.0,0.0,1.33,0,0,0.0,0.14,0.0,0.24,0.1,0.1,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.0,21.0,4.67,0.65,0.52,1.26,0.0,9.39,0.0,0.14,1.0,0,0,0.0,0.05,6.67,0.24,0.0,0.14,0.05,0.05,0.19,0.0,0.0,0.0,0.0,3.6</t>
+  </si>
+  <si>
+    <t>12.5,5.32,0.77,1.03,0.75,0.5,10.76,0.0,0.16,1.0,0,0,0.0,0.04,6.67,0.32,0.04,0.16,0.04,0.04,0.12,0.0,0.0,0.0,0.0,0.88,29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5</t>
+  </si>
+  <si>
+    <t>13.0,5.23,0.4,0.52,0.78,1.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.15,0.31,0.08,0.08,0.08,0.0,0.0,0.0,0.0,9.8,7.8,5.05,1.2,2.58,0.47,0.0,8.6,0.0,0.0,2.0,0,0,0.0,0.23,0.0,0.31,0.03,0.23,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.36</t>
+  </si>
+  <si>
+    <t>6.0,5.42,0.37,1.03,0.36,0.0,9.65,0.0,0.08,1.5,0,0,0.0,0.33,0.0,0.33,0.08,0.17,0.0,0.0,0.0,0.0,0.0,0.17,0.17,8.33,16.0,27.0,0.49,0.52,0.96,1.0,141.11,1.0,0.63,0.0,0,0,0.0,0.25,0.0,0.56,0.06,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,0.5</t>
+  </si>
+  <si>
+    <t>17.0,5.0,0.52,0.52,1.02,2.0,9.78,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.29,0.12,0.06,0.06,0.0,0.06,0.0,0.0,0.0,5.29,15.0,5.2,0.46,0.52,0.9,2.0,13.59,0.0,0.0,0.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.07,0.07,0.13,0.07,0.13,0.0,0.0,6.75</t>
+  </si>
+  <si>
+    <t>47.0,5.34,1.45,0.52,2.81,3.0,14.85,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.23,0.09,0.17,0.09,0.09,0.09,0.04,0.0,0.0,0.0,4.18,13.0,5.23,0.4,0.52,0.78,1.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.15,0.31,0.08,0.08,0.08,0.0,0.0,0.0,0.0,9.8</t>
+  </si>
+  <si>
+    <t>15.0,4.73,0.46,0.52,0.9,1.0,9.67,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.07,0.27,0.07,0.07,0.13,0.0,0.0,0.0,0.0,5.6,27.0,4.67,0.83,0.52,1.61,0.0,10.54,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.22,0.0,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>15.0,4.73,0.46,0.52,0.9,1.0,9.67,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.27,0.0,0.0,0.0,0.0,5.0,17.0,5.0,0.52,0.52,1.02,2.0,9.78,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.29,0.12,0.06,0.06,0.0,0.06,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>14.0,4.68,0.86,1.03,0.84,0.0,8.97,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.29,0.04,0.25,0.07,0.07,0.14,0.0,0.0,0.0,0.0,3.0,11.0,5.45,0.34,0.52,0.66,0.0,8.19,0.0,0.09,4.0,0,0,0.0,0.0,0.0,0.18,0.18,0.36,0.09,0.09,0.0,0.0,0.0,0.0,0.0,7.25</t>
+  </si>
+  <si>
+    <t>7.78,5.56,2.16,4.64,0.47,0.33,11.81,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.19,0.03,0.24,0.03,0.03,0.07,0.04,0.0,0.0,0.0,4.7,6.0,5.42,0.37,1.03,0.36,0.0,9.65,0.0,0.08,1.5,0,0,0.0,0.33,0.0,0.33,0.08,0.17,0.0,0.0,0.0,0.0,0.0,0.17,0.17,8.33</t>
+  </si>
+  <si>
+    <t>21.0,5.76,0.65,0.52,1.26,0.0,16.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.19,0.0,0.0,0.05,0.14,0.13,0.0,0.0,4.22,15.0,5.13,0.46,0.52,0.9,1.0,12.02,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.13,0.13,0.07,0.0,0.0,0.0,0.0,1.6</t>
+  </si>
+  <si>
+    <t>13.6,5.25,2.09,2.58,0.81,0.0,11.94,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.29,0.1,0.1,0.06,0.01,0.0,0.0,0.0,5.06,7.8,5.05,1.2,2.58,0.47,0.0,8.6,0.0,0.0,2.0,0,0,0.0,0.23,0.0,0.31,0.03,0.23,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.36</t>
   </si>
   <si>
     <t>move. SO TV</t>
@@ -3735,37 +3735,37 @@
     <t>!!!!</t>
   </si>
   <si>
-    <t>357,0.0,11.94,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.3,0.08,0.0,149,0.67,11.77,0.0,0.0,1.33,0.0,0.14,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>68,1.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,121,0.0,16.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>60,0.0,8.19,0.0,0.09,4.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,85,2.0,9.78,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>149,0.67,11.77,0.0,0.0,1.33,0.0,0.14,0.0,0.2,0.25,0.25,0.0,0.0,147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17</t>
-  </si>
-  <si>
-    <t>166,0.5,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,126,0.0,10.54,0.0,0.04,0.0,0.0,0.0,0.0,0.05,0.15,0.15,0.25,0.0</t>
-  </si>
-  <si>
-    <t>131,0.0,8.97,0.0,0.07,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0,77,1.0,12.02,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.08,0.0</t>
-  </si>
-  <si>
-    <t>126,0.0,10.54,0.0,0.04,0.0,0.0,0.0,0.0,0.05,0.15,0.15,0.25,0.0,78,2.0,13.59,0.0,0.0,0.0,0.0,0.07,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,0.5,17.59,0.0,0.0,1.0,0.0,0.09,0.0,0.1,0.15,0.2,0.0,0.0,317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>135,0.0,10.94,0.0,0.29,27.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,126,0.0,10.54,0.0,0.04,0.0,0.0,0.0,0.0,0.05,0.15,0.15,0.25,0.0</t>
-  </si>
-  <si>
-    <t>71,1.0,9.67,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.15,0.15,0.0,0.0,140,0.5,17.59,0.0,0.0,1.0,0.0,0.09,0.0,0.1,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>311,1.0,16.22,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.3,0.35,0.0,0.0,317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0</t>
+    <t>13.6,5.25,2.09,2.58,0.81,0.0,11.94,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.29,0.1,0.1,0.06,0.01,0.0,0.0,0.0,5.06,9.67,5.14,0.89,1.55,0.58,0.67,11.77,0.0,0.0,1.33,0,0,0.0,0.14,0.0,0.24,0.1,0.1,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>13.0,5.23,0.4,0.52,0.78,1.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.15,0.31,0.08,0.08,0.08,0.0,0.0,0.0,0.0,9.8,21.0,5.76,0.65,0.52,1.26,0.0,16.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.19,0.0,0.0,0.05,0.14,0.13,0.0,0.0,4.22</t>
+  </si>
+  <si>
+    <t>11.0,5.45,0.34,0.52,0.66,0.0,8.19,0.0,0.09,4.0,0,0,0.0,0.0,0.0,0.18,0.18,0.36,0.09,0.09,0.0,0.0,0.0,0.0,0.0,7.25,17.0,5.0,0.52,0.52,1.02,2.0,9.78,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.29,0.12,0.06,0.06,0.0,0.06,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>9.67,5.14,0.89,1.55,0.58,0.67,11.77,0.0,0.0,1.33,0,0,0.0,0.14,0.0,0.24,0.1,0.1,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.0,29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5</t>
+  </si>
+  <si>
+    <t>16.5,5.03,1.02,1.03,0.99,0.5,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.27,0.03,0.03,0.21,0.06,0.13,0.0,0.0,3.43,27.0,4.67,0.83,0.52,1.61,0.0,10.54,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.22,0.0,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>14.0,4.68,0.86,1.03,0.84,0.0,8.97,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.29,0.04,0.25,0.07,0.07,0.14,0.0,0.0,0.0,0.0,3.0,15.0,5.13,0.46,0.52,0.9,1.0,12.02,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.13,0.13,0.07,0.0,0.0,0.0,0.0,1.6</t>
+  </si>
+  <si>
+    <t>27.0,4.67,0.83,0.52,1.61,0.0,10.54,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.22,0.0,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,3.25,15.0,5.2,0.46,0.52,0.9,2.0,13.59,0.0,0.0,0.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.07,0.07,0.13,0.07,0.13,0.0,0.0,6.75</t>
+  </si>
+  <si>
+    <t>11.0,6.36,0.68,1.03,0.66,0.5,17.59,0.0,0.0,1.0,0,0,0.0,0.09,0.0,0.27,0.09,0.14,0.0,0.0,0.09,0.09,0.25,0.0,0.0,3.8,9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23</t>
+  </si>
+  <si>
+    <t>24.0,5.63,0.74,0.52,1.43,0.0,10.94,0.0,0.29,27.0,0,0,0.0,0.0,0.0,0.46,0.08,0.13,0.04,0.04,0.04,0.0,0.0,0.0,0.0,1.82,27.0,4.67,0.83,0.52,1.61,0.0,10.54,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.22,0.0,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>15.0,4.73,0.46,0.52,0.9,1.0,9.67,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.07,0.27,0.07,0.07,0.13,0.0,0.0,0.0,0.0,5.6,11.0,6.36,0.68,1.03,0.66,0.5,17.59,0.0,0.0,1.0,0,0,0.0,0.09,0.0,0.27,0.09,0.14,0.0,0.0,0.09,0.09,0.25,0.0,0.0,3.8</t>
+  </si>
+  <si>
+    <t>56.0,5.55,1.72,0.52,3.35,1.0,16.22,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.11,0.21,0.05,0.05,0.13,0.04,0.13,0.0,0.0,4.79,9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23</t>
   </si>
   <si>
     <t>s. Much more</t>
@@ -3798,19 +3798,19 @@
     <t>much faster.</t>
   </si>
   <si>
-    <t>174,0.0,20.48,0.0,0.0,1.67,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,311,1.0,16.22,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>126,0.0,10.54,0.0,0.04,0.0,0.0,0.0,0.0,0.05,0.15,0.15,0.25,0.0,343,0.0,10.01,0.0,0.01,0.0,0.0,0.0,0.0,0.25,0.25,0.2,0.17,0.33</t>
-  </si>
-  <si>
-    <t>71,1.0,9.67,1.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,77,1.0,12.02,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.08,0.0</t>
-  </si>
-  <si>
-    <t>68,1.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,131,0.0,8.97,0.0,0.07,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0,357,0.0,11.94,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.3,0.08,0.0</t>
+    <t>8.0,7.25,0.74,1.55,0.48,0.0,20.48,0.0,0.0,1.67,0,0,0.0,0.0,0.0,0.33,0.13,0.21,0.0,0.0,0.13,0.13,0.0,0.0,0.0,0.33,56.0,5.55,1.72,0.52,3.35,1.0,16.22,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.11,0.21,0.05,0.05,0.13,0.04,0.13,0.0,0.0,4.79</t>
+  </si>
+  <si>
+    <t>27.0,4.67,0.83,0.52,1.61,0.0,10.54,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.22,0.0,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,3.25,77.0,4.45,2.37,0.52,4.6,0.0,10.01,0.0,0.01,0.0,0,0,0.0,0.0,0.0,0.23,0.1,0.19,0.01,0.01,0.17,0.0,0.0,0.33,0.33,2.42</t>
+  </si>
+  <si>
+    <t>15.0,4.73,0.46,0.52,0.9,1.0,9.67,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.27,0.0,0.0,0.0,0.0,5.0,15.0,5.13,0.46,0.52,0.9,1.0,12.02,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.13,0.13,0.07,0.0,0.0,0.0,0.0,1.6</t>
+  </si>
+  <si>
+    <t>13.0,5.23,0.4,0.52,0.78,1.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.15,0.31,0.08,0.08,0.08,0.0,0.0,0.0,0.0,9.8,14.0,4.68,0.86,1.03,0.84,0.0,8.97,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.29,0.04,0.25,0.07,0.07,0.14,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08,13.6,5.25,2.09,2.58,0.81,0.0,11.94,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.29,0.1,0.1,0.06,0.01,0.0,0.0,0.0,5.06</t>
   </si>
   <si>
     <t>they have te</t>
@@ -3840,13 +3840,13 @@
     <t>books.</t>
   </si>
   <si>
-    <t>197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0,251,3.0,14.85,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.25,0.25,0.08,0.0</t>
-  </si>
-  <si>
-    <t>149,0.67,11.77,0.0,0.0,1.33,0.0,0.14,0.0,0.2,0.25,0.25,0.0,0.0,85,0.0,9.51,0.0,0.62,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,0.0,20.48,0.0,0.0,1.67,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,389,0.33,11.81,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>7.8,5.05,1.2,2.58,0.47,0.0,8.6,0.0,0.0,2.0,0,0,0.0,0.23,0.0,0.31,0.03,0.23,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.36,47.0,5.34,1.45,0.52,2.81,3.0,14.85,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.23,0.09,0.17,0.09,0.09,0.09,0.04,0.0,0.0,0.0,4.18</t>
+  </si>
+  <si>
+    <t>9.67,5.14,0.89,1.55,0.58,0.67,11.77,0.0,0.0,1.33,0,0,0.0,0.14,0.0,0.24,0.1,0.1,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.0,13.0,6.54,0.4,0.52,0.78,0.0,9.51,0.0,0.62,0.0,7,0,0.0,0.0,0.0,0.54,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.86</t>
+  </si>
+  <si>
+    <t>8.0,7.25,0.74,1.55,0.48,0.0,20.48,0.0,0.0,1.67,0,0,0.0,0.0,0.0,0.33,0.13,0.21,0.0,0.0,0.13,0.13,0.0,0.0,0.0,0.33,7.78,5.56,2.16,4.64,0.47,0.33,11.81,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.19,0.03,0.24,0.03,0.03,0.07,0.04,0.0,0.0,0.0,4.7</t>
   </si>
   <si>
     <t>he lights on</t>
@@ -3867,19 +3867,19 @@
     <t>tric</t>
   </si>
   <si>
-    <t>343,0.0,10.01,0.0,0.01,0.0,0.0,0.0,0.0,0.25,0.25,0.2,0.17,0.33,68,1.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>149,0.67,11.77,0.0,0.0,1.33,0.0,0.14,0.0,0.2,0.25,0.25,0.0,0.0,140,0.5,17.59,0.0,0.0,1.0,0.0,0.09,0.0,0.1,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>131,0.0,8.97,0.0,0.07,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0,147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17</t>
-  </si>
-  <si>
-    <t>85,2.0,9.78,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.1,0.0,0.0,121,0.0,16.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0,319,1.0,14.29,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.3,0.3,0.0,0.0</t>
+    <t>77.0,4.45,2.37,0.52,4.6,0.0,10.01,0.0,0.01,0.0,0,0,0.0,0.0,0.0,0.23,0.1,0.19,0.01,0.01,0.17,0.0,0.0,0.33,0.33,2.42,13.0,5.23,0.4,0.52,0.78,1.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.15,0.31,0.08,0.08,0.08,0.0,0.0,0.0,0.0,9.8</t>
+  </si>
+  <si>
+    <t>9.67,5.14,0.89,1.55,0.58,0.67,11.77,0.0,0.0,1.33,0,0,0.0,0.14,0.0,0.24,0.1,0.1,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.0,11.0,6.36,0.68,1.03,0.66,0.5,17.59,0.0,0.0,1.0,0,0,0.0,0.09,0.0,0.27,0.09,0.14,0.0,0.0,0.09,0.09,0.25,0.0,0.0,3.8</t>
+  </si>
+  <si>
+    <t>14.0,4.68,0.86,1.03,0.84,0.0,8.97,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.29,0.04,0.25,0.07,0.07,0.14,0.0,0.0,0.0,0.0,3.0,29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5</t>
+  </si>
+  <si>
+    <t>17.0,5.0,0.52,0.52,1.02,2.0,9.78,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.29,0.12,0.06,0.06,0.0,0.06,0.0,0.0,0.0,5.29,21.0,5.76,0.65,0.52,1.26,0.0,16.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.19,0.0,0.0,0.05,0.14,0.13,0.0,0.0,4.22</t>
+  </si>
+  <si>
+    <t>9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08,19.33,5.5,1.79,1.55,1.16,1.0,14.29,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.17,0.19,0.21,0.1,0.1,0.02,0.07,0.0,0.0,0.0,4.29</t>
   </si>
   <si>
     <t>from TV can</t>
@@ -3906,64 +3906,64 @@
     <t>seful.</t>
   </si>
   <si>
-    <t>68,1.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,166,0.5,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>98,0.0,9.39,0.0,0.14,1.0,0.0,0.05,0.0,0.1,0.1,0.1,0.0,0.0,68,1.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>169,1.0,11.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.08,0.17,126,0.0,10.54,0.0,0.04,0.0,0.0,0.0,0.0,0.05,0.15,0.15,0.25,0.0</t>
-  </si>
-  <si>
-    <t>140,0.5,17.59,0.0,0.0,1.0,0.0,0.09,0.0,0.1,0.15,0.2,0.0,0.0,174,0.0,20.48,0.0,0.0,1.67,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,2.0,9.78,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.1,0.0,0.0,197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>72,0.0,13.57,0.0,0.08,1.0,0.0,0.08,0.0,0.1,0.1,0.1,0.0,0.0,133,0.5,10.76,0.0,0.16,1.0,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>343,0.0,10.01,0.0,0.01,0.0,0.0,0.0,0.0,0.25,0.25,0.2,0.17,0.33,197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0</t>
+    <t>13.0,5.23,0.4,0.52,0.78,1.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.15,0.31,0.08,0.08,0.08,0.0,0.0,0.0,0.0,9.8,16.5,5.03,1.02,1.03,0.99,0.5,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.27,0.03,0.03,0.21,0.06,0.13,0.0,0.0,3.43</t>
+  </si>
+  <si>
+    <t>21.0,4.67,0.65,0.52,1.26,0.0,9.39,0.0,0.14,1.0,0,0,0.0,0.05,6.67,0.24,0.0,0.14,0.05,0.05,0.19,0.0,0.0,0.0,0.0,3.6,13.0,5.23,0.4,0.52,0.78,1.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.15,0.31,0.08,0.08,0.08,0.0,0.0,0.0,0.0,9.8</t>
+  </si>
+  <si>
+    <t>35.0,4.83,1.08,0.52,2.09,1.0,11.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.17,0.09,0.09,0.06,0.06,0.13,0.17,0.17,2.92,27.0,4.67,0.83,0.52,1.61,0.0,10.54,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.22,0.0,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>11.0,6.36,0.68,1.03,0.66,0.5,17.59,0.0,0.0,1.0,0,0,0.0,0.09,0.0,0.27,0.09,0.14,0.0,0.0,0.09,0.09,0.25,0.0,0.0,3.8,8.0,7.25,0.74,1.55,0.48,0.0,20.48,0.0,0.0,1.67,0,0,0.0,0.0,0.0,0.33,0.13,0.21,0.0,0.0,0.13,0.13,0.0,0.0,0.0,0.33</t>
+  </si>
+  <si>
+    <t>17.0,5.0,0.52,0.52,1.02,2.0,9.78,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.29,0.12,0.06,0.06,0.0,0.06,0.0,0.0,0.0,5.29,7.8,5.05,1.2,2.58,0.47,0.0,8.6,0.0,0.0,2.0,0,0,0.0,0.23,0.0,0.31,0.03,0.23,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.36</t>
+  </si>
+  <si>
+    <t>6.0,6.0,0.37,1.03,0.36,0.0,13.57,0.0,0.08,1.0,0,0,0.0,0.08,0.0,0.42,0.08,0.25,0.0,0.0,0.0,0.08,0.13,0.0,0.0,1.0,12.5,5.32,0.77,1.03,0.75,0.5,10.76,0.0,0.16,1.0,0,0,0.0,0.04,6.67,0.32,0.04,0.16,0.04,0.04,0.12,0.0,0.0,0.0,0.0,0.88</t>
+  </si>
+  <si>
+    <t>77.0,4.45,2.37,0.52,4.6,0.0,10.01,0.0,0.01,0.0,0,0,0.0,0.0,0.0,0.23,0.1,0.19,0.01,0.01,0.17,0.0,0.0,0.33,0.33,2.42,7.8,5.05,1.2,2.58,0.47,0.0,8.6,0.0,0.0,2.0,0,0,0.0,0.23,0.0,0.31,0.03,0.23,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.36</t>
   </si>
   <si>
     <t>BOOKS!!!!!!!</t>
   </si>
   <si>
-    <t>239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0,251,3.0,14.85,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.25,0.25,0.08,0.0</t>
-  </si>
-  <si>
-    <t>126,0.0,10.54,0.0,0.04,0.0,0.0,0.0,0.0,0.05,0.15,0.15,0.25,0.0,432,1.0,141.11,1.0,0.63,0.0,0.0,0.25,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0,174,0.0,20.48,0.0,0.0,1.67,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>68,1.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,133,0.5,10.76,0.0,0.16,1.0,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>72,0.0,13.57,0.0,0.08,1.0,0.0,0.08,0.0,0.1,0.1,0.1,0.0,0.0,98,0.0,9.39,0.0,0.14,1.0,0.0,0.05,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,0.5,11.03,0.0,0.0,1.5,0.0,0.04,0.0,0.15,0.15,0.15,0.0,0.0,131,0.0,8.97,0.0,0.07,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>98,0.0,9.39,0.0,0.14,1.0,0.0,0.05,0.0,0.1,0.1,0.1,0.0,0.0,251,3.0,14.85,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.25,0.25,0.08,0.0</t>
-  </si>
-  <si>
-    <t>169,1.0,11.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.08,0.17,149,0.67,11.77,0.0,0.0,1.33,0.0,0.14,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.0,16.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,78,2.0,13.59,0.0,0.0,0.0,0.0,0.07,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>71,1.0,9.67,1.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,135,0.0,10.94,0.0,0.29,27.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>131,0.0,8.97,0.0,0.07,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0,149,0.67,11.77,0.0,0.0,1.33,0.0,0.14,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>133,0.5,10.76,0.0,0.16,1.0,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0,169,1.0,11.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.08,0.17</t>
+    <t>9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08,47.0,5.34,1.45,0.52,2.81,3.0,14.85,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.23,0.09,0.17,0.09,0.09,0.09,0.04,0.0,0.0,0.0,4.18</t>
+  </si>
+  <si>
+    <t>27.0,4.67,0.83,0.52,1.61,0.0,10.54,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.22,0.0,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,3.25,16.0,27.0,0.49,0.52,0.96,1.0,141.11,1.0,0.63,0.0,0,0,0.0,0.25,0.0,0.56,0.06,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,0.5</t>
+  </si>
+  <si>
+    <t>7.8,5.05,1.2,2.58,0.47,0.0,8.6,0.0,0.0,2.0,0,0,0.0,0.23,0.0,0.31,0.03,0.23,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.36,8.0,7.25,0.74,1.55,0.48,0.0,20.48,0.0,0.0,1.67,0,0,0.0,0.0,0.0,0.33,0.13,0.21,0.0,0.0,0.13,0.13,0.0,0.0,0.0,0.33</t>
+  </si>
+  <si>
+    <t>13.0,5.23,0.4,0.52,0.78,1.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.15,0.31,0.08,0.08,0.08,0.0,0.0,0.0,0.0,9.8,12.5,5.32,0.77,1.03,0.75,0.5,10.76,0.0,0.16,1.0,0,0,0.0,0.04,6.67,0.32,0.04,0.16,0.04,0.04,0.12,0.0,0.0,0.0,0.0,0.88</t>
+  </si>
+  <si>
+    <t>6.0,6.0,0.37,1.03,0.36,0.0,13.57,0.0,0.08,1.0,0,0,0.0,0.08,0.0,0.42,0.08,0.25,0.0,0.0,0.0,0.08,0.13,0.0,0.0,1.0,21.0,4.67,0.65,0.52,1.26,0.0,9.39,0.0,0.14,1.0,0,0,0.0,0.05,6.67,0.24,0.0,0.14,0.05,0.05,0.19,0.0,0.0,0.0,0.0,3.6</t>
+  </si>
+  <si>
+    <t>11.5,5.13,0.71,1.03,0.69,0.5,11.03,0.0,0.0,1.5,0,0,0.0,0.04,0.0,0.22,0.04,0.26,0.0,0.0,0.09,0.0,0.0,0.0,0.0,6.67,14.0,4.68,0.86,1.03,0.84,0.0,8.97,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.29,0.04,0.25,0.07,0.07,0.14,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>21.0,4.67,0.65,0.52,1.26,0.0,9.39,0.0,0.14,1.0,0,0,0.0,0.05,6.67,0.24,0.0,0.14,0.05,0.05,0.19,0.0,0.0,0.0,0.0,3.6,47.0,5.34,1.45,0.52,2.81,3.0,14.85,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.23,0.09,0.17,0.09,0.09,0.09,0.04,0.0,0.0,0.0,4.18</t>
+  </si>
+  <si>
+    <t>35.0,4.83,1.08,0.52,2.09,1.0,11.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.17,0.09,0.09,0.06,0.06,0.13,0.17,0.17,2.92,9.67,5.14,0.89,1.55,0.58,0.67,11.77,0.0,0.0,1.33,0,0,0.0,0.14,0.0,0.24,0.1,0.1,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>21.0,5.76,0.65,0.52,1.26,0.0,16.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.19,0.0,0.0,0.05,0.14,0.13,0.0,0.0,4.22,15.0,5.2,0.46,0.52,0.9,2.0,13.59,0.0,0.0,0.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.07,0.07,0.13,0.07,0.13,0.0,0.0,6.75</t>
+  </si>
+  <si>
+    <t>15.0,4.73,0.46,0.52,0.9,1.0,9.67,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.27,0.0,0.0,0.0,0.0,5.0,24.0,5.63,0.74,0.52,1.43,0.0,10.94,0.0,0.29,27.0,0,0,0.0,0.0,0.0,0.46,0.08,0.13,0.04,0.04,0.04,0.0,0.0,0.0,0.0,1.82</t>
+  </si>
+  <si>
+    <t>14.0,4.68,0.86,1.03,0.84,0.0,8.97,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.29,0.04,0.25,0.07,0.07,0.14,0.0,0.0,0.0,0.0,3.0,9.67,5.14,0.89,1.55,0.58,0.67,11.77,0.0,0.0,1.33,0,0,0.0,0.14,0.0,0.24,0.1,0.1,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>12.5,5.32,0.77,1.03,0.75,0.5,10.76,0.0,0.16,1.0,0,0,0.0,0.04,6.67,0.32,0.04,0.16,0.04,0.04,0.12,0.0,0.0,0.0,0.0,0.88,35.0,4.83,1.08,0.52,2.09,1.0,11.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.17,0.09,0.09,0.06,0.06,0.13,0.17,0.17,2.92</t>
   </si>
 </sst>
 </file>
